--- a/data/summary/18_18_24.xlsx
+++ b/data/summary/18_18_24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="avg_plaquette" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="mminus_mass" sheetId="3" r:id="rId3"/>
     <sheet name="flux_re_energy" sheetId="4" r:id="rId4"/>
     <sheet name="flux_im_energy" sheetId="5" r:id="rId5"/>
+    <sheet name="flux_abs_energy" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="12">
   <si>
     <t>Sample Number</t>
   </si>
@@ -106,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -123,8 +124,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -146,8 +156,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -160,8 +172,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -172,6 +185,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -182,6 +196,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -514,7 +529,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B3" sqref="B3:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -549,13 +564,13 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>0.80603100000000005</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>0.82985399999999998</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>0.83902200000000005</v>
       </c>
     </row>
@@ -563,13 +578,13 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>0.80598400000000003</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>0.82916999999999996</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>0.83884300000000001</v>
       </c>
     </row>
@@ -577,13 +592,13 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>0.80615199999999998</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>0.82981400000000005</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>0.83869400000000005</v>
       </c>
     </row>
@@ -591,13 +606,13 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>0.80586599999999997</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>0.82960699999999998</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>0.83855100000000005</v>
       </c>
     </row>
@@ -605,13 +620,13 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>0.80594699999999997</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>0.82935899999999996</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>0.83867499999999995</v>
       </c>
     </row>
@@ -619,13 +634,13 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>0.80603800000000003</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>0.82971399999999995</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>0.83863799999999999</v>
       </c>
     </row>
@@ -633,13 +648,13 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>0.80577200000000004</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>0.82953399999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>0.83864799999999995</v>
       </c>
     </row>
@@ -647,13 +662,13 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>0.80578799999999995</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>0.82967999999999997</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>0.83866200000000002</v>
       </c>
     </row>
@@ -661,13 +676,13 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>0.80580200000000002</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>0.82958500000000002</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>0.83868799999999999</v>
       </c>
     </row>
@@ -675,13 +690,13 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>0.80583400000000005</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>0.82938100000000003</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>0.83854600000000001</v>
       </c>
     </row>
@@ -689,13 +704,13 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>0.80584</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>0.82977900000000004</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>0.83877400000000002</v>
       </c>
     </row>
@@ -703,13 +718,13 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>0.80569199999999996</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>0.82924200000000003</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>0.83898899999999998</v>
       </c>
     </row>
@@ -717,13 +732,13 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>0.805952</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>0.82936299999999996</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>0.83901099999999995</v>
       </c>
     </row>
@@ -731,13 +746,13 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>0.805836</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>0.82977800000000002</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>0.83850800000000003</v>
       </c>
     </row>
@@ -745,13 +760,13 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>0.80595000000000006</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>0.82949600000000001</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>0.83865800000000001</v>
       </c>
     </row>
@@ -759,13 +774,13 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>0.80612399999999995</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>0.82962999999999998</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>0.83891700000000002</v>
       </c>
     </row>
@@ -773,13 +788,13 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>0.80596699999999999</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>0.82969099999999996</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>0.83894400000000002</v>
       </c>
     </row>
@@ -787,13 +802,13 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>0.80582100000000001</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>0.82911199999999996</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>0.838673</v>
       </c>
     </row>
@@ -801,13 +816,13 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>0.80593099999999995</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>0.82920300000000002</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>0.83848699999999998</v>
       </c>
     </row>
@@ -815,13 +830,13 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>0.80569000000000002</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>0.82942000000000005</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>0.83826800000000001</v>
       </c>
     </row>
@@ -829,13 +844,13 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>0.80613000000000001</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>0.82919600000000004</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>0.83879000000000004</v>
       </c>
     </row>
@@ -843,13 +858,13 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>0.80604699999999996</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>0.82933299999999999</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>0.83870299999999998</v>
       </c>
     </row>
@@ -857,13 +872,13 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>0.80632499999999996</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>0.82955999999999996</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>0.83873500000000001</v>
       </c>
     </row>
@@ -871,13 +886,13 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>0.80587600000000004</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>0.82958900000000002</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>0.83875500000000003</v>
       </c>
     </row>
@@ -885,13 +900,13 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>0.80604600000000004</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>0.82931600000000005</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>0.83867400000000003</v>
       </c>
     </row>
@@ -1043,31 +1058,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.38599724344810699</v>
+        <v>1.7386950854881</v>
       </c>
       <c r="C3">
-        <v>0.14773025360408601</v>
+        <v>-2.7746109213059098</v>
       </c>
       <c r="D3">
-        <v>0.62426423329212699</v>
+        <v>6.2520010922821099</v>
       </c>
       <c r="E3">
-        <v>0.51157292089983897</v>
+        <v>7.6491348288920999</v>
       </c>
       <c r="F3">
-        <v>-5.2333754292639E-2</v>
+        <v>-3413.91502793156</v>
       </c>
       <c r="G3">
-        <v>1.07547959609232</v>
+        <v>3429.2132975893401</v>
       </c>
       <c r="H3">
-        <v>0.42856737773844</v>
+        <v>4.2000738222249296</v>
       </c>
       <c r="I3">
-        <v>-0.161168184736635</v>
+        <v>-4.1303403767641598</v>
       </c>
       <c r="J3">
-        <v>1.01830294021352</v>
+        <v>12.530488021214</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1075,31 +1090,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.47800970640186102</v>
+        <v>1.51896547422085</v>
       </c>
       <c r="C4">
-        <v>-2.8402787644156598E-2</v>
+        <v>0.402831102733687</v>
       </c>
       <c r="D4">
-        <v>0.98442220044787898</v>
+        <v>2.6350998457080199</v>
       </c>
       <c r="E4">
-        <v>0.21822776265243801</v>
+        <v>1.5655318706622801</v>
       </c>
       <c r="F4">
-        <v>-0.15802638669308899</v>
+        <v>-2.7789351701623</v>
       </c>
       <c r="G4">
-        <v>0.59448191199796496</v>
+        <v>5.9099989114868601</v>
       </c>
       <c r="H4">
-        <v>0.13003854122932601</v>
+        <v>0.94644779240849597</v>
       </c>
       <c r="I4">
-        <v>-0.20682832093188599</v>
+        <v>-0.87904501422555703</v>
       </c>
       <c r="J4">
-        <v>0.46690540339053699</v>
+        <v>2.7719405990425501</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1107,31 +1122,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.32878532330072402</v>
+        <v>0.85597347236835297</v>
       </c>
       <c r="C5">
-        <v>0.104501115808665</v>
+        <v>-0.78981962367186898</v>
       </c>
       <c r="D5">
-        <v>0.55306953079278298</v>
+        <v>2.5017665684085699</v>
       </c>
       <c r="E5">
-        <v>-0.16986593345065201</v>
+        <v>1.88741690879128</v>
       </c>
       <c r="F5">
-        <v>-0.71758093941560397</v>
+        <v>-7.6684142648271596</v>
       </c>
       <c r="G5">
-        <v>0.3778490725143</v>
+        <v>11.443248082409699</v>
       </c>
       <c r="H5">
-        <v>0.37760589269372502</v>
+        <v>1.0053831338507799</v>
       </c>
       <c r="I5">
-        <v>-0.38304315049955301</v>
+        <v>-7.3594181184420702</v>
       </c>
       <c r="J5">
-        <v>1.138254935887</v>
+        <v>9.3701843861436398</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1139,31 +1154,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.76450834141958501</v>
+        <v>0.94973940955374203</v>
       </c>
       <c r="C6">
-        <v>2.1403965148971901E-2</v>
+        <v>-0.40136920194359399</v>
       </c>
       <c r="D6">
-        <v>1.5076127176902001</v>
+        <v>2.3008480210510802</v>
       </c>
       <c r="E6">
-        <v>0.25441455469684299</v>
+        <v>1.6017661909496399</v>
       </c>
       <c r="F6">
-        <v>-4.9610058015463601E-2</v>
+        <v>-5.9710909670123398</v>
       </c>
       <c r="G6">
-        <v>0.55843916740915001</v>
+        <v>9.1746233489116094</v>
       </c>
       <c r="H6">
-        <v>0.41100141164929599</v>
+        <v>1.0958971710857399</v>
       </c>
       <c r="I6">
-        <v>2.761806521122E-2</v>
+        <v>-1.89281325220589</v>
       </c>
       <c r="J6">
-        <v>0.79438475808737097</v>
+        <v>4.0846075943773599</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1171,31 +1186,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.45170348959030798</v>
+        <v>0.74537715936374604</v>
       </c>
       <c r="C7">
-        <v>5.7820169940444102E-2</v>
+        <v>-1.01896815139908</v>
       </c>
       <c r="D7">
-        <v>0.84558680924017104</v>
+        <v>2.5097224701265701</v>
       </c>
       <c r="E7">
-        <v>0.29603515128421498</v>
+        <v>0.67721092017536599</v>
       </c>
       <c r="F7">
-        <v>-4.2585609294150603E-2</v>
+        <v>-0.80921239148398005</v>
       </c>
       <c r="G7">
-        <v>0.63465591186257997</v>
+        <v>2.1636342318347102</v>
       </c>
       <c r="H7">
-        <v>1.8379954263248</v>
+        <v>1.8662502495914499</v>
       </c>
       <c r="I7">
-        <v>-1.8084045247643299</v>
+        <v>-11.4833256135942</v>
       </c>
       <c r="J7">
-        <v>5.4843953774139198</v>
+        <v>15.2158261127771</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1203,31 +1218,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.44392617900382603</v>
+        <v>1.36730404674831</v>
       </c>
       <c r="C8">
-        <v>-0.30007358598582401</v>
+        <v>-1.5553983876391599</v>
       </c>
       <c r="D8">
-        <v>1.1879259439934799</v>
+        <v>4.2900064811357801</v>
       </c>
       <c r="E8">
-        <v>0.34568632890781098</v>
+        <v>1.12439000774197</v>
       </c>
       <c r="F8">
-        <v>-3.3781363420138801E-2</v>
+        <v>-2.7770215262367701</v>
       </c>
       <c r="G8">
-        <v>0.72515402123576</v>
+        <v>5.0258015417206998</v>
       </c>
       <c r="H8">
-        <v>0.43523882919601098</v>
+        <v>0.87915445803796599</v>
       </c>
       <c r="I8">
-        <v>-0.17421845134791</v>
+        <v>-0.224957167004074</v>
       </c>
       <c r="J8">
-        <v>1.0446961097399301</v>
+        <v>1.98326608308001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1235,31 +1250,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.8816911019238698</v>
+        <v>2.8834760852944199</v>
       </c>
       <c r="C9">
-        <v>-14.7247923458806</v>
+        <v>-3.0129374684212702</v>
       </c>
       <c r="D9">
-        <v>20.488174549728299</v>
+        <v>8.7798896390101202</v>
       </c>
       <c r="E9">
-        <v>1.3432286330488099</v>
+        <v>1.40504084129879</v>
       </c>
       <c r="F9">
-        <v>-0.37042311487848001</v>
+        <v>7.2464511994712003E-2</v>
       </c>
       <c r="G9">
-        <v>3.0568803809761</v>
+        <v>2.73761717060288</v>
       </c>
       <c r="H9">
-        <v>0.72665048305997004</v>
+        <v>0.923337802374948</v>
       </c>
       <c r="I9">
-        <v>-0.598241266695553</v>
+        <v>-1.89024071177197</v>
       </c>
       <c r="J9">
-        <v>2.05154223281549</v>
+        <v>3.7369163165218602</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1267,31 +1282,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.50060105023019297</v>
+        <v>0.783209689338212</v>
       </c>
       <c r="C10">
-        <v>-2.1850072182699E-2</v>
+        <v>-0.58161829138340904</v>
       </c>
       <c r="D10">
-        <v>1.0230521726430899</v>
+        <v>2.1480376700598298</v>
       </c>
       <c r="E10">
-        <v>0.47752073091665198</v>
+        <v>0.77283932691164703</v>
       </c>
       <c r="F10">
-        <v>0.11496794200704701</v>
+        <v>-0.51640423962472204</v>
       </c>
       <c r="G10">
-        <v>0.840073519826256</v>
+        <v>2.0620828934480202</v>
       </c>
       <c r="H10">
-        <v>0.113377026738232</v>
+        <v>0.85490789366382203</v>
       </c>
       <c r="I10">
-        <v>-0.22773184481019601</v>
+        <v>-7.1319856100805898</v>
       </c>
       <c r="J10">
-        <v>0.45448589828665997</v>
+        <v>8.8418013974082292</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1299,31 +1314,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.367105616513688</v>
+        <v>1.31852061360675</v>
       </c>
       <c r="C11">
-        <v>7.1267606434713998E-2</v>
+        <v>0.45709732474393999</v>
       </c>
       <c r="D11">
-        <v>0.66294362659266104</v>
+        <v>2.1799439024695699</v>
       </c>
       <c r="E11">
-        <v>2.9214978107291501E-2</v>
+        <v>4.6563596172311401</v>
       </c>
       <c r="F11">
-        <v>-0.32509202631717998</v>
+        <v>-363.02808944173802</v>
       </c>
       <c r="G11">
-        <v>0.38352198253176301</v>
+        <v>372.34080867620099</v>
       </c>
       <c r="H11">
-        <v>0.73636238570621904</v>
+        <v>0.92710690123678197</v>
       </c>
       <c r="I11">
-        <v>-0.23904254626629201</v>
+        <v>-2.48068957117012</v>
       </c>
       <c r="J11">
-        <v>1.71176731767873</v>
+        <v>4.3349033736436802</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1331,31 +1346,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.23114409541049699</v>
+        <v>1.19961560270173</v>
       </c>
       <c r="C12">
-        <v>-0.28378836895429299</v>
+        <v>-4.9206314643067497</v>
       </c>
       <c r="D12">
-        <v>0.74607655977528697</v>
+        <v>7.3198626697101998</v>
       </c>
       <c r="E12">
-        <v>0.29070094852137801</v>
+        <v>6.5488773743536104</v>
       </c>
       <c r="F12">
-        <v>-0.13273494735510399</v>
+        <v>-1310.6523797042501</v>
       </c>
       <c r="G12">
-        <v>0.71413684439785896</v>
+        <v>1323.7501344529501</v>
       </c>
       <c r="H12">
-        <v>0.36139192808167803</v>
+        <v>0.98257336165405196</v>
       </c>
       <c r="I12">
-        <v>2.2867494213561899E-2</v>
+        <v>-0.14242448091132201</v>
       </c>
       <c r="J12">
-        <v>0.69991636194979301</v>
+        <v>2.1075712042194299</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1363,31 +1378,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.68102989679145298</v>
+        <v>0.89892680310671003</v>
       </c>
       <c r="C13">
-        <v>-8.5247344185083701E-2</v>
+        <v>-8.6610466233419003E-2</v>
       </c>
       <c r="D13">
-        <v>1.44730713776799</v>
+        <v>1.88446407244684</v>
       </c>
       <c r="E13">
-        <v>1.74847228413244</v>
+        <v>1.7870192265106899</v>
       </c>
       <c r="F13">
-        <v>-3.3204659397633698</v>
+        <v>0.53298555757768795</v>
       </c>
       <c r="G13">
-        <v>6.8174105080282503</v>
+        <v>3.04105289544369</v>
       </c>
       <c r="H13">
-        <v>0.124368784479123</v>
+        <v>6.45167698799606</v>
       </c>
       <c r="I13">
-        <v>-0.31624388231366801</v>
+        <v>-1130.0065867911401</v>
       </c>
       <c r="J13">
-        <v>0.56498145127191501</v>
+        <v>1142.9099407671299</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1395,31 +1410,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.37620445688065302</v>
+        <v>0.71822457109173299</v>
       </c>
       <c r="C14">
-        <v>-0.228794822185869</v>
+        <v>-2.2649225152541699</v>
       </c>
       <c r="D14">
-        <v>0.98120373594717503</v>
+        <v>3.7013716574376399</v>
       </c>
       <c r="E14">
-        <v>0.50739663278758396</v>
+        <v>2.1135670890345599</v>
       </c>
       <c r="F14">
-        <v>-6.3674975280058098E-3</v>
+        <v>-6.2942651553705096</v>
       </c>
       <c r="G14">
-        <v>1.0211607631031701</v>
+        <v>10.5213993334396</v>
       </c>
       <c r="H14">
-        <v>1.4644580663202</v>
+        <v>1.5323637553128799</v>
       </c>
       <c r="I14">
-        <v>-1.4564543041793001</v>
+        <v>0.900428273454425</v>
       </c>
       <c r="J14">
-        <v>4.3853704368197102</v>
+        <v>2.1642992371713401</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1427,31 +1442,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.160101277879033</v>
+        <v>0.82939871913001995</v>
       </c>
       <c r="C15">
-        <v>-0.17717702717029299</v>
+        <v>-2.1447293104257401</v>
       </c>
       <c r="D15">
-        <v>0.49737958292835899</v>
+        <v>3.8035267486857798</v>
       </c>
       <c r="E15">
-        <v>0.193089948714225</v>
+        <v>1.0376046488795101</v>
       </c>
       <c r="F15">
-        <v>-0.17871918699376399</v>
+        <v>-3.8376233710515302</v>
       </c>
       <c r="G15">
-        <v>0.56489908442221504</v>
+        <v>5.9128326688105597</v>
       </c>
       <c r="H15">
-        <v>0.31393435967540301</v>
+        <v>0.631685271606098</v>
       </c>
       <c r="I15">
-        <v>-9.3907355693365904E-2</v>
+        <v>-6.0130053063121602</v>
       </c>
       <c r="J15">
-        <v>0.72177607504417096</v>
+        <v>7.2763758495243502</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1459,31 +1474,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.25912333985201702</v>
+        <v>1.40984024279119</v>
       </c>
       <c r="C16">
-        <v>-0.11464013246116</v>
+        <v>-1.63569297226441</v>
       </c>
       <c r="D16">
-        <v>0.63288681216519505</v>
+        <v>4.4553734578468003</v>
       </c>
       <c r="E16">
-        <v>2.0225235958040599</v>
+        <v>6.8042705350379702</v>
       </c>
       <c r="F16">
-        <v>-2.42775032659191</v>
+        <v>-1190.79948892586</v>
       </c>
       <c r="G16">
-        <v>6.4727975182000304</v>
+        <v>1204.4080299959301</v>
       </c>
       <c r="H16">
-        <v>0.47840441660378802</v>
+        <v>1.49427945987696</v>
       </c>
       <c r="I16">
-        <v>-0.22559951454566299</v>
+        <v>-3.92129824319953</v>
       </c>
       <c r="J16">
-        <v>1.1824083477532401</v>
+        <v>6.9098571629534504</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1491,31 +1506,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.449242955846133</v>
+        <v>0.778826570138483</v>
       </c>
       <c r="C17">
-        <v>-4.1985356241701702E-2</v>
+        <v>-1.0644513126236701</v>
       </c>
       <c r="D17">
-        <v>0.94047126793396696</v>
+        <v>2.6221044529006301</v>
       </c>
       <c r="E17">
-        <v>0.166956892905049</v>
+        <v>1.1082523761165299</v>
       </c>
       <c r="F17">
-        <v>-0.194267834716982</v>
+        <v>-1.9107616633412801</v>
       </c>
       <c r="G17">
-        <v>0.52818162052707995</v>
+        <v>4.1272664155743399</v>
       </c>
       <c r="H17">
-        <v>7.1224591348827397</v>
+        <v>7.6965546031650698</v>
       </c>
       <c r="I17">
-        <v>-1191.4053576270501</v>
+        <v>-9403.7413837384101</v>
       </c>
       <c r="J17">
-        <v>1205.6502758968099</v>
+        <v>9419.1344929447296</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1523,31 +1538,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.7633425217241701</v>
+        <v>3.0821409428082398</v>
       </c>
       <c r="C18">
-        <v>-2.3225389593680301</v>
+        <v>-34.3164973588081</v>
       </c>
       <c r="D18">
-        <v>5.8492240028163698</v>
+        <v>40.480779244424603</v>
       </c>
       <c r="E18">
-        <v>0.64818067655869405</v>
+        <v>1.0520300937484499</v>
       </c>
       <c r="F18">
-        <v>-0.12625660229234001</v>
+        <v>-1.3934294714511599</v>
       </c>
       <c r="G18">
-        <v>1.42261795540973</v>
+        <v>3.4974896589480502</v>
       </c>
       <c r="H18">
-        <v>0.112665655806581</v>
+        <v>6.81083239428889</v>
       </c>
       <c r="I18">
-        <v>-0.36144761818471199</v>
+        <v>-1929.85373377159</v>
       </c>
       <c r="J18">
-        <v>0.58677892979787405</v>
+        <v>1943.4753985601701</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1555,31 +1570,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.42832022451270502</v>
+        <v>1.0605807297793299</v>
       </c>
       <c r="C19">
-        <v>8.77027210183913E-2</v>
+        <v>-3.2308911835038399</v>
       </c>
       <c r="D19">
-        <v>0.76893772800701898</v>
+        <v>5.3520526430625104</v>
       </c>
       <c r="E19">
-        <v>0.283461362365376</v>
+        <v>1.11442163312096</v>
       </c>
       <c r="F19">
-        <v>-0.33864338966867802</v>
+        <v>0.34638526842163297</v>
       </c>
       <c r="G19">
-        <v>0.90556611439943102</v>
+        <v>1.88245799782028</v>
       </c>
       <c r="H19">
-        <v>0.80098590415183302</v>
+        <v>0.95663333874561196</v>
       </c>
       <c r="I19">
-        <v>1.16942655091767E-4</v>
+        <v>-0.17708361789725099</v>
       </c>
       <c r="J19">
-        <v>1.60185486564857</v>
+        <v>2.0903502953884701</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1587,31 +1602,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.21223636800750501</v>
+        <v>1.15006519507639</v>
       </c>
       <c r="C20">
-        <v>-3.4072195742760499E-2</v>
+        <v>-2.0252900996291001</v>
       </c>
       <c r="D20">
-        <v>0.45854493175777</v>
+        <v>4.3254204897818802</v>
       </c>
       <c r="E20">
-        <v>0.129179420762981</v>
+        <v>0.201217387147334</v>
       </c>
       <c r="F20">
-        <v>-0.18975053389281499</v>
+        <v>-4.1076520899361402</v>
       </c>
       <c r="G20">
-        <v>0.44810937541877699</v>
+        <v>4.5100868642308001</v>
       </c>
       <c r="H20">
-        <v>7.1376087606569397E-2</v>
+        <v>1.63224315407336</v>
       </c>
       <c r="I20">
-        <v>-0.30280869331680399</v>
+        <v>-6.8308063050509897</v>
       </c>
       <c r="J20">
-        <v>0.44556086852994298</v>
+        <v>10.095292613197699</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1619,31 +1634,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.8285479605916599E-2</v>
+        <v>7.10516172370974</v>
       </c>
       <c r="C21">
-        <v>-0.374109321853069</v>
+        <v>-2050.4077369911902</v>
       </c>
       <c r="D21">
-        <v>0.45068028106490199</v>
+        <v>2064.61806043861</v>
       </c>
       <c r="E21">
-        <v>0.152296039531745</v>
+        <v>7.2361302036183099</v>
       </c>
       <c r="F21">
-        <v>-0.38915035277578602</v>
+        <v>-3650.20460812389</v>
       </c>
       <c r="G21">
-        <v>0.69374243183927498</v>
+        <v>3664.6768685311299</v>
       </c>
       <c r="H21">
-        <v>0.24003808492064299</v>
+        <v>0.989901844711914</v>
       </c>
       <c r="I21">
-        <v>-0.25293241912950698</v>
+        <v>-2.04789066027497</v>
       </c>
       <c r="J21">
-        <v>0.73300858897079402</v>
+        <v>4.0276943496988</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1651,31 +1666,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.5182944909363201</v>
+        <v>7.3599372661488296</v>
       </c>
       <c r="C22">
-        <v>-0.90395152213516405</v>
+        <v>-2396.5992473053998</v>
       </c>
       <c r="D22">
-        <v>3.9405405040078101</v>
+        <v>2411.3191218376901</v>
       </c>
       <c r="E22">
-        <v>0.46930561955759298</v>
+        <v>0.74272882027068199</v>
       </c>
       <c r="F22">
-        <v>-0.35746365554097698</v>
+        <v>-3.7977867416119402</v>
       </c>
       <c r="G22">
-        <v>1.29607489465616</v>
+        <v>5.2832443821532999</v>
       </c>
       <c r="H22">
-        <v>1.1094357442287199</v>
+        <v>1.19275374931584</v>
       </c>
       <c r="I22">
-        <v>-0.71397857181703295</v>
+        <v>-1.1197960902938799</v>
       </c>
       <c r="J22">
-        <v>2.93285006027447</v>
+        <v>3.5053035889255599</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1683,31 +1698,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.58136434430314399</v>
+        <v>1.0259606343549801</v>
       </c>
       <c r="C23">
-        <v>-3.8215924675226698E-3</v>
+        <v>4.7381582708194703E-3</v>
       </c>
       <c r="D23">
-        <v>1.16655028107381</v>
+        <v>2.04718311043914</v>
       </c>
       <c r="E23">
-        <v>0.301662389649483</v>
+        <v>1.3405715486804199</v>
       </c>
       <c r="F23">
-        <v>-0.28771740216354402</v>
+        <v>0.113766111966358</v>
       </c>
       <c r="G23">
-        <v>0.89104218146251102</v>
+        <v>2.5673769853944801</v>
       </c>
       <c r="H23">
-        <v>0.127599057530461</v>
+        <v>0.83816261562721595</v>
       </c>
       <c r="I23">
-        <v>-0.18232771185778399</v>
+        <v>-0.33944290677275502</v>
       </c>
       <c r="J23">
-        <v>0.43752582691870601</v>
+        <v>2.0157681380271901</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1715,31 +1730,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.471571005154863</v>
+        <v>7.4365998895755503</v>
       </c>
       <c r="C24">
-        <v>-0.44701715077582699</v>
+        <v>-4716.9247437057902</v>
       </c>
       <c r="D24">
-        <v>1.3901591610855499</v>
+        <v>4731.7979434849403</v>
       </c>
       <c r="E24">
-        <v>0.25102334790904202</v>
+        <v>6.8229996845560201</v>
       </c>
       <c r="F24">
-        <v>-0.11607133823848199</v>
+        <v>-1872.79618019904</v>
       </c>
       <c r="G24">
-        <v>0.61811803405656696</v>
+        <v>1886.4421795681601</v>
       </c>
       <c r="H24">
-        <v>0.13138588476493701</v>
+        <v>6.7423951629663197</v>
       </c>
       <c r="I24">
-        <v>-0.174853013043449</v>
+        <v>-1397.4543932148999</v>
       </c>
       <c r="J24">
-        <v>0.43762478257332199</v>
+        <v>1410.9391835408401</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1747,31 +1762,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.453528849068152</v>
+        <v>1.1737394769841401</v>
       </c>
       <c r="C25">
-        <v>3.7960108048154903E-2</v>
+        <v>-1.30969491950341</v>
       </c>
       <c r="D25">
-        <v>0.86909759008814902</v>
+        <v>3.6571738734716899</v>
       </c>
       <c r="E25">
-        <v>0.23254749064636299</v>
+        <v>3.2953985161740702</v>
       </c>
       <c r="F25">
-        <v>-0.14865129360301299</v>
+        <v>-33.832099017862603</v>
       </c>
       <c r="G25">
-        <v>0.61374627489573896</v>
+        <v>40.422896050210703</v>
       </c>
       <c r="H25">
-        <v>0.99984744573268902</v>
+        <v>1.1798679072520999</v>
       </c>
       <c r="I25">
-        <v>-0.36007077770531298</v>
+        <v>-3.5413015085853901</v>
       </c>
       <c r="J25">
-        <v>2.3597656691706899</v>
+        <v>5.9010373230895796</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1779,31 +1794,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.50338263368015002</v>
+        <v>0.725357904864255</v>
       </c>
       <c r="C26">
-        <v>0.1702302515794</v>
+        <v>-0.69374214160738901</v>
       </c>
       <c r="D26">
-        <v>0.83653501578089995</v>
+        <v>2.1444579513358999</v>
       </c>
       <c r="E26">
-        <v>0.125439176758459</v>
+        <v>5.26565984201787</v>
       </c>
       <c r="F26">
-        <v>-0.27323294870717701</v>
+        <v>-695.15966601176399</v>
       </c>
       <c r="G26">
-        <v>0.52411130222409497</v>
+        <v>705.69098569580001</v>
       </c>
       <c r="H26">
-        <v>0.39400618024619899</v>
+        <v>0.93943797185743605</v>
       </c>
       <c r="I26">
-        <v>-0.12565111728543901</v>
+        <v>-0.31293362021413201</v>
       </c>
       <c r="J26">
-        <v>0.91366347777783796</v>
+        <v>2.1918095639290001</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1811,31 +1826,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.185259563602063</v>
+        <v>2.3829855193887099</v>
       </c>
       <c r="C27">
-        <v>-7.4886709532984305E-2</v>
+        <v>-23.835671213462401</v>
       </c>
       <c r="D27">
-        <v>0.44540583673710998</v>
+        <v>28.601642252239799</v>
       </c>
       <c r="E27">
-        <v>7.2845901733851903</v>
+        <v>7.1717996002873203</v>
       </c>
       <c r="F27">
-        <v>-1205.4870854927201</v>
+        <v>-610.14957724474198</v>
       </c>
       <c r="G27">
-        <v>1220.0562658394899</v>
+        <v>624.49317644531698</v>
       </c>
       <c r="H27">
-        <v>0.21443314889319601</v>
+        <v>0.819117378969479</v>
       </c>
       <c r="I27">
-        <v>-0.120318684495792</v>
+        <v>-4.4751549292538204</v>
       </c>
       <c r="J27">
-        <v>0.54918498228218404</v>
+        <v>6.1133896871927798</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1844,19 +1859,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.59659038220347727</v>
+        <v>2.0199449131053004</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.72451444508211638</v>
+        <v>2.9992895636883414</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.77054509033043117</v>
+        <v>2.143561527275768</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1867,19 +1882,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.60945201285510087</v>
+        <v>2.0880040644448581</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>1.4595195004924555</v>
+        <v>2.5900163164623939</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>1.3971580125631962</v>
+        <v>2.2440612227607737</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1910,19 +1925,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>0.34092745599114344</v>
+        <v>1.1680294736504537</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>0.8164552085754796</v>
+        <v>1.4488551274290633</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>0.78157019222785196</v>
+        <v>1.2553278480123768</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1948,7 +1963,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="B3" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2011,31 +2026,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.49736452262797998</v>
+        <v>0.48165077747250201</v>
       </c>
       <c r="C3">
-        <v>0.34964564673874798</v>
+        <v>0.36311495520056702</v>
       </c>
       <c r="D3">
-        <v>0.64508339851721197</v>
+        <v>0.600186599744438</v>
       </c>
       <c r="E3">
-        <v>0.290336915434038</v>
+        <v>0.29355704208830702</v>
       </c>
       <c r="F3">
-        <v>0.119682633612024</v>
+        <v>0.14199012543203701</v>
       </c>
       <c r="G3">
-        <v>0.46099119725605098</v>
+        <v>0.445123958744577</v>
       </c>
       <c r="H3">
-        <v>0.34571309418284901</v>
+        <v>0.32584555845415097</v>
       </c>
       <c r="I3">
-        <v>0.16719594762683401</v>
+        <v>0.19181395968211901</v>
       </c>
       <c r="J3">
-        <v>0.52423024073886504</v>
+        <v>0.459877157226183</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2043,31 +2058,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.74021241333464904</v>
+        <v>0.73876321436585402</v>
       </c>
       <c r="C4">
-        <v>0.61733707259489201</v>
+        <v>0.58400905630074296</v>
       </c>
       <c r="D4">
-        <v>0.86308775407440597</v>
+        <v>0.89351737243096396</v>
       </c>
       <c r="E4">
-        <v>0.25954212584480901</v>
+        <v>0.24882911543650399</v>
       </c>
       <c r="F4">
-        <v>0.18088803952645599</v>
+        <v>0.177372903129424</v>
       </c>
       <c r="G4">
-        <v>0.33819621216316198</v>
+        <v>0.32028532774358398</v>
       </c>
       <c r="H4">
-        <v>0.36697034085499802</v>
+        <v>0.356269746618258</v>
       </c>
       <c r="I4">
-        <v>0.13299313786703401</v>
+        <v>0.13921826998762599</v>
       </c>
       <c r="J4">
-        <v>0.60094754384296301</v>
+        <v>0.57332122324889001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2075,31 +2090,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.46832281091691103</v>
+        <v>0.441455079521204</v>
       </c>
       <c r="C5">
-        <v>1.8196509487721502E-2</v>
+        <v>1.7112175924399599E-2</v>
       </c>
       <c r="D5">
-        <v>0.91844911234610105</v>
+        <v>0.86579798311800804</v>
       </c>
       <c r="E5">
-        <v>0.54839142136244501</v>
+        <v>0.52137619773876598</v>
       </c>
       <c r="F5">
-        <v>-7.6543282882129401E-2</v>
+        <v>-9.0920049309361706E-2</v>
       </c>
       <c r="G5">
-        <v>1.17332612560702</v>
+        <v>1.13367244478689</v>
       </c>
       <c r="H5">
-        <v>0.61151337440568498</v>
+        <v>0.59032531688471501</v>
       </c>
       <c r="I5">
-        <v>0.24759113015675599</v>
+        <v>5.8111287931632997E-2</v>
       </c>
       <c r="J5">
-        <v>0.97543561865461303</v>
+        <v>1.1225393458377999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2107,31 +2122,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.46855056567902198</v>
+        <v>0.42515000179397899</v>
       </c>
       <c r="C6">
-        <v>0.26104298685432398</v>
+        <v>0.25641718240964101</v>
       </c>
       <c r="D6">
-        <v>0.67605814450372104</v>
+        <v>0.59388282117831803</v>
       </c>
       <c r="E6">
-        <v>0.31666468943306197</v>
+        <v>0.28635096391285902</v>
       </c>
       <c r="F6">
-        <v>0.150472090297181</v>
+        <v>0.16557657212902299</v>
       </c>
       <c r="G6">
-        <v>0.482857288568942</v>
+        <v>0.407125355696694</v>
       </c>
       <c r="H6">
-        <v>0.45684451105844298</v>
+        <v>0.43741432814092002</v>
       </c>
       <c r="I6">
-        <v>0.31666286311638497</v>
+        <v>0.20059430841482301</v>
       </c>
       <c r="J6">
-        <v>0.59702615900050104</v>
+        <v>0.67423434786701697</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2139,31 +2154,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.37197289921142501</v>
+        <v>0.35902126195474299</v>
       </c>
       <c r="C7">
-        <v>0.25577602730124799</v>
+        <v>0.26829448512460202</v>
       </c>
       <c r="D7">
-        <v>0.48816977112160098</v>
+        <v>0.44974803878488501</v>
       </c>
       <c r="E7">
-        <v>0.53527380037413597</v>
+        <v>0.30956480743655901</v>
       </c>
       <c r="F7">
-        <v>8.8003659254797403E-2</v>
+        <v>8.7557471429615896E-2</v>
       </c>
       <c r="G7">
-        <v>0.98254394149347501</v>
+        <v>0.53157214344350101</v>
       </c>
       <c r="H7">
-        <v>0.29953202990827898</v>
+        <v>0.291643457016795</v>
       </c>
       <c r="I7">
-        <v>0.14496972574765299</v>
+        <v>0.16571397227845799</v>
       </c>
       <c r="J7">
-        <v>0.45409433406890398</v>
+        <v>0.41757294175513199</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2171,31 +2186,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.36316062358069201</v>
+        <v>0.36584701769539901</v>
       </c>
       <c r="C8">
-        <v>0.25527469286491999</v>
+        <v>0.26780161924203799</v>
       </c>
       <c r="D8">
-        <v>0.47104655429646303</v>
+        <v>0.46389241614876098</v>
       </c>
       <c r="E8">
-        <v>0.65775935625998005</v>
+        <v>0.64567034057995598</v>
       </c>
       <c r="F8">
-        <v>0.36732739773072098</v>
+        <v>0.12525246673027299</v>
       </c>
       <c r="G8">
-        <v>0.94819131478924001</v>
+        <v>1.1660882144296401</v>
       </c>
       <c r="H8">
-        <v>0.36698156219491801</v>
+        <v>0.34522368199218501</v>
       </c>
       <c r="I8">
-        <v>0.18650120957562799</v>
+        <v>0.19822490248710301</v>
       </c>
       <c r="J8">
-        <v>0.54746191481420803</v>
+        <v>0.492222461497268</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2203,31 +2218,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.34611839450668702</v>
+        <v>0.31468648145161898</v>
       </c>
       <c r="C9">
-        <v>0.11021316128396499</v>
+        <v>7.0086154846743201E-2</v>
       </c>
       <c r="D9">
-        <v>0.58202362772940897</v>
+        <v>0.559286808056494</v>
       </c>
       <c r="E9">
-        <v>0.32474389279409399</v>
+        <v>0.32170366403593198</v>
       </c>
       <c r="F9">
-        <v>0.18483993640396701</v>
+        <v>0.198176507279896</v>
       </c>
       <c r="G9">
-        <v>0.46464784918421997</v>
+        <v>0.44523082079196802</v>
       </c>
       <c r="H9">
-        <v>0.32027755141296199</v>
+        <v>0.32257231797834801</v>
       </c>
       <c r="I9">
-        <v>0.25438982382402098</v>
+        <v>0.262700340896803</v>
       </c>
       <c r="J9">
-        <v>0.38616527900190301</v>
+        <v>0.38244429505989402</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2235,31 +2250,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.437052305606138</v>
+        <v>0.41735233934544302</v>
       </c>
       <c r="C10">
-        <v>0.228100604501114</v>
+        <v>0.177664778197069</v>
       </c>
       <c r="D10">
-        <v>0.64600400671116198</v>
+        <v>0.657039900493817</v>
       </c>
       <c r="E10">
-        <v>0.416624207374308</v>
+        <v>0.40930126818392298</v>
       </c>
       <c r="F10">
-        <v>0.29796661687340398</v>
+        <v>0.28605420508213297</v>
       </c>
       <c r="G10">
-        <v>0.53528179787521102</v>
+        <v>0.53254833128571399</v>
       </c>
       <c r="H10">
-        <v>0.52223872670638005</v>
+        <v>0.51890244019649201</v>
       </c>
       <c r="I10">
-        <v>0.30306734648318201</v>
+        <v>0.31534326691826498</v>
       </c>
       <c r="J10">
-        <v>0.74141010692957898</v>
+        <v>0.72246161347471904</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2267,31 +2282,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.44842269798276302</v>
+        <v>0.373000775350949</v>
       </c>
       <c r="C11">
-        <v>0.366609705373378</v>
+        <v>0.306946120598591</v>
       </c>
       <c r="D11">
-        <v>0.53023569059214903</v>
+        <v>0.439055430103307</v>
       </c>
       <c r="E11">
-        <v>0.24000686683469399</v>
+        <v>0.23289552864628801</v>
       </c>
       <c r="F11">
-        <v>0.163966599547129</v>
+        <v>0.15744918857774001</v>
       </c>
       <c r="G11">
-        <v>0.31604713412225999</v>
+        <v>0.30834186871483699</v>
       </c>
       <c r="H11">
-        <v>0.24392927639079301</v>
+        <v>0.17095274859944601</v>
       </c>
       <c r="I11">
-        <v>0.126261515180838</v>
+        <v>8.3579934586652693E-2</v>
       </c>
       <c r="J11">
-        <v>0.36159703760074702</v>
+        <v>0.25832556261223899</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2299,31 +2314,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.49099915589708698</v>
+        <v>0.48563477053058601</v>
       </c>
       <c r="C12">
-        <v>0.29408146128914903</v>
+        <v>0.29938000737215298</v>
       </c>
       <c r="D12">
-        <v>0.68791685050502505</v>
+        <v>0.67188953368901805</v>
       </c>
       <c r="E12">
-        <v>0.28534513129809203</v>
+        <v>0.28203297226913199</v>
       </c>
       <c r="F12">
-        <v>0.153875210195485</v>
+        <v>0.167565569935377</v>
       </c>
       <c r="G12">
-        <v>0.41681505240069899</v>
+        <v>0.39650037460288601</v>
       </c>
       <c r="H12">
-        <v>0.187701503059714</v>
+        <v>0.16153960124261499</v>
       </c>
       <c r="I12">
-        <v>2.7503469908673799E-2</v>
+        <v>5.1115517693744998E-2</v>
       </c>
       <c r="J12">
-        <v>0.34789953621075398</v>
+        <v>0.27196368479148603</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2331,31 +2346,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.58041197814430501</v>
+        <v>0.55951436419900902</v>
       </c>
       <c r="C13">
-        <v>3.5299290272515098E-2</v>
+        <v>-3.1856845767928799E-2</v>
       </c>
       <c r="D13">
-        <v>1.12552466601609</v>
+        <v>1.1508855741659501</v>
       </c>
       <c r="E13">
-        <v>0.226394811765459</v>
+        <v>0.220259257805795</v>
       </c>
       <c r="F13">
-        <v>8.2225890741635096E-2</v>
+        <v>0.101127042389707</v>
       </c>
       <c r="G13">
-        <v>0.37056373278928301</v>
+        <v>0.33939147322188401</v>
       </c>
       <c r="H13">
-        <v>0.17377827584552299</v>
+        <v>0.150975831389943</v>
       </c>
       <c r="I13">
-        <v>2.5629488652257299E-2</v>
+        <v>4.0517767611230902E-2</v>
       </c>
       <c r="J13">
-        <v>0.32192706303878799</v>
+        <v>0.26143389516865501</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2363,31 +2378,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.33391858405345698</v>
+        <v>0.29667173172809802</v>
       </c>
       <c r="C14">
-        <v>0.26448957279268698</v>
+        <v>0.23389185544590499</v>
       </c>
       <c r="D14">
-        <v>0.40334759531422698</v>
+        <v>0.35945160801029102</v>
       </c>
       <c r="E14">
-        <v>0.44251902944576099</v>
+        <v>0.405060135210702</v>
       </c>
       <c r="F14">
-        <v>0.106326525539727</v>
+        <v>1.9095447487623901E-2</v>
       </c>
       <c r="G14">
-        <v>0.77871153335179499</v>
+        <v>0.79102482293377996</v>
       </c>
       <c r="H14">
-        <v>0.481194787176359</v>
+        <v>0.20911182564556299</v>
       </c>
       <c r="I14">
-        <v>0.16202378359919001</v>
+        <v>6.8513104168527003E-2</v>
       </c>
       <c r="J14">
-        <v>0.80036579075352798</v>
+        <v>0.34971054712259902</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2395,31 +2410,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.275669291649277</v>
+        <v>0.28010215274321998</v>
       </c>
       <c r="C15">
-        <v>0.14220829690074799</v>
+        <v>0.157900374262884</v>
       </c>
       <c r="D15">
-        <v>0.40913028639780502</v>
+        <v>0.40230393122355701</v>
       </c>
       <c r="E15">
-        <v>0.43085253074191898</v>
+        <v>0.42864268757342</v>
       </c>
       <c r="F15">
-        <v>0.33445850492844698</v>
+        <v>0.339754498972337</v>
       </c>
       <c r="G15">
-        <v>0.52724655655538999</v>
+        <v>0.517530876174502</v>
       </c>
       <c r="H15">
-        <v>0.24318104946107</v>
+        <v>0.21518091116094801</v>
       </c>
       <c r="I15">
-        <v>0.12989076216598</v>
+        <v>0.130149869378195</v>
       </c>
       <c r="J15">
-        <v>0.356471336756159</v>
+        <v>0.30021195294370001</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2427,31 +2442,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.54985275171376902</v>
+        <v>0.54905176162547797</v>
       </c>
       <c r="C16">
-        <v>0.45038161421496198</v>
+        <v>0.45824131162340298</v>
       </c>
       <c r="D16">
-        <v>0.649323889212575</v>
+        <v>0.63986221162755197</v>
       </c>
       <c r="E16">
-        <v>0.46468506908103802</v>
+        <v>0.46307754212487601</v>
       </c>
       <c r="F16">
-        <v>0.33158276012291399</v>
+        <v>0.34323767066897998</v>
       </c>
       <c r="G16">
-        <v>0.59778737803916104</v>
+        <v>0.58291741358077198</v>
       </c>
       <c r="H16">
-        <v>0.31920658217862902</v>
+        <v>0.31480265871031898</v>
       </c>
       <c r="I16">
-        <v>0.15801526131534499</v>
+        <v>0.17236263415415001</v>
       </c>
       <c r="J16">
-        <v>0.48039790304191399</v>
+        <v>0.45724268326648798</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2459,31 +2474,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.41677271791707499</v>
+        <v>0.41043885421794801</v>
       </c>
       <c r="C17">
-        <v>0.321995120924501</v>
+        <v>0.309948211277982</v>
       </c>
       <c r="D17">
-        <v>0.51155031490964897</v>
+        <v>0.51092949715791403</v>
       </c>
       <c r="E17">
-        <v>0.480785177190789</v>
+        <v>0.47253546512540201</v>
       </c>
       <c r="F17">
-        <v>0.344813215842806</v>
+        <v>0.30665854453849001</v>
       </c>
       <c r="G17">
-        <v>0.61675713853877201</v>
+        <v>0.63841238571231496</v>
       </c>
       <c r="H17">
-        <v>0.27036645236762402</v>
+        <v>0.24295945245678199</v>
       </c>
       <c r="I17">
-        <v>0.17585015765687401</v>
+        <v>0.17088645697037499</v>
       </c>
       <c r="J17">
-        <v>0.36488274707837498</v>
+        <v>0.31503244794319002</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2491,31 +2506,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.43892917259254599</v>
+        <v>0.39538336063303098</v>
       </c>
       <c r="C18">
-        <v>0.31428743537854298</v>
+        <v>0.31129858496762902</v>
       </c>
       <c r="D18">
-        <v>0.563570909806548</v>
+        <v>0.47946813629843199</v>
       </c>
       <c r="E18">
-        <v>0.58743660983258705</v>
+        <v>0.32854476221154999</v>
       </c>
       <c r="F18">
-        <v>0.20164559878210001</v>
+        <v>0.11945258752101399</v>
       </c>
       <c r="G18">
-        <v>0.97322762088307302</v>
+        <v>0.53763693690208603</v>
       </c>
       <c r="H18">
-        <v>0.39160557548653302</v>
+        <v>0.37229668102761299</v>
       </c>
       <c r="I18">
-        <v>0.141186388568907</v>
+        <v>0.172675087988442</v>
       </c>
       <c r="J18">
-        <v>0.64202476240415896</v>
+        <v>0.57191827406678497</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2523,31 +2538,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.36607737227901599</v>
+        <v>0.36382512023187702</v>
       </c>
       <c r="C19">
-        <v>0.25643790348864498</v>
+        <v>0.26790096942823799</v>
       </c>
       <c r="D19">
-        <v>0.475716841069387</v>
+        <v>0.45974927103551699</v>
       </c>
       <c r="E19">
-        <v>0.53146820445762399</v>
+        <v>0.52605211049338696</v>
       </c>
       <c r="F19">
-        <v>0.33232858645062002</v>
+        <v>0.33124627345068303</v>
       </c>
       <c r="G19">
-        <v>0.73060782246462797</v>
+        <v>0.720857947536092</v>
       </c>
       <c r="H19">
-        <v>0.114216590487381</v>
+        <v>0.127767679116948</v>
       </c>
       <c r="I19">
-        <v>-0.26246908111397199</v>
+        <v>-0.155489569385967</v>
       </c>
       <c r="J19">
-        <v>0.490902262088734</v>
+        <v>0.41102492761986398</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2555,31 +2570,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.438254987764708</v>
+        <v>0.43712524720910101</v>
       </c>
       <c r="C20">
-        <v>0.363492767556227</v>
+        <v>0.369681518889725</v>
       </c>
       <c r="D20">
-        <v>0.51301720797318895</v>
+        <v>0.50456897552847702</v>
       </c>
       <c r="E20">
-        <v>0.24062264293295299</v>
+        <v>0.24770492127007199</v>
       </c>
       <c r="F20">
-        <v>6.02384024837231E-2</v>
+        <v>8.5227225214436805E-2</v>
       </c>
       <c r="G20">
-        <v>0.42100688338218201</v>
+        <v>0.41018261732570699</v>
       </c>
       <c r="H20">
-        <v>0.40675356340657398</v>
+        <v>0.35473388768956798</v>
       </c>
       <c r="I20">
-        <v>0.325056909740913</v>
+        <v>0.30131315369771</v>
       </c>
       <c r="J20">
-        <v>0.48845021707223402</v>
+        <v>0.40815462168142702</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2587,31 +2602,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.31860123051501099</v>
+        <v>0.31375014076176</v>
       </c>
       <c r="C21">
-        <v>0.24619556169783699</v>
+        <v>0.248248269460494</v>
       </c>
       <c r="D21">
-        <v>0.39100689933218602</v>
+        <v>0.379252012063025</v>
       </c>
       <c r="E21">
-        <v>0.162904345782278</v>
+        <v>0.15662857498874699</v>
       </c>
       <c r="F21">
-        <v>3.61861460020345E-2</v>
+        <v>4.6707776814344099E-2</v>
       </c>
       <c r="G21">
-        <v>0.28962254556252098</v>
+        <v>0.26654937316315003</v>
       </c>
       <c r="H21">
-        <v>0.37736733123532101</v>
+        <v>0.37470929420080801</v>
       </c>
       <c r="I21">
-        <v>0.21936900458331701</v>
+        <v>0.23416963628641599</v>
       </c>
       <c r="J21">
-        <v>0.53536565788732604</v>
+        <v>0.51524895211520005</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2619,31 +2634,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.37734038627262501</v>
+        <v>0.33904024213429201</v>
       </c>
       <c r="C22">
-        <v>0.17377638848993701</v>
+        <v>0.18092294664695399</v>
       </c>
       <c r="D22">
-        <v>0.58090438405531197</v>
+        <v>0.49715753762162901</v>
       </c>
       <c r="E22">
-        <v>0.52884584846413696</v>
+        <v>0.48311132817184799</v>
       </c>
       <c r="F22">
-        <v>3.1709587798687301E-3</v>
+        <v>-0.158082978281958</v>
       </c>
       <c r="G22">
-        <v>1.0545207381484101</v>
+        <v>1.1243056346256499</v>
       </c>
       <c r="H22">
-        <v>0.240978100984655</v>
+        <v>0.219441269976384</v>
       </c>
       <c r="I22">
-        <v>0.14153758891106899</v>
+        <v>0.13312824550701399</v>
       </c>
       <c r="J22">
-        <v>0.340418613058241</v>
+        <v>0.30575429444575403</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2651,31 +2666,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.31454837887412002</v>
+        <v>0.29732472602918097</v>
       </c>
       <c r="C23">
-        <v>0.200306061269383</v>
+        <v>0.20558904128299499</v>
       </c>
       <c r="D23">
-        <v>0.42879069647885798</v>
+        <v>0.38906041077536602</v>
       </c>
       <c r="E23">
-        <v>0.41377284308384799</v>
+        <v>0.410349538780302</v>
       </c>
       <c r="F23">
-        <v>0.32456959566729099</v>
+        <v>0.32510650834279298</v>
       </c>
       <c r="G23">
-        <v>0.50297609050040404</v>
+        <v>0.49559256921781197</v>
       </c>
       <c r="H23">
-        <v>0.26228819268183101</v>
+        <v>0.268063523064691</v>
       </c>
       <c r="I23">
-        <v>9.6030033262468298E-2</v>
+        <v>0.117939356395038</v>
       </c>
       <c r="J23">
-        <v>0.42854635210119402</v>
+        <v>0.418187689734344</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2683,31 +2698,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.32354030539617501</v>
+        <v>0.211291741082103</v>
       </c>
       <c r="C24">
-        <v>0.14885790977028701</v>
+        <v>9.7837643413405798E-2</v>
       </c>
       <c r="D24">
-        <v>0.49822270102206301</v>
+        <v>0.32474583875080099</v>
       </c>
       <c r="E24">
-        <v>0.26435401706038802</v>
+        <v>0.23058985532913101</v>
       </c>
       <c r="F24">
-        <v>0.19440989096921099</v>
+        <v>0.167508283152142</v>
       </c>
       <c r="G24">
-        <v>0.33429814315156497</v>
+        <v>0.29367142750612002</v>
       </c>
       <c r="H24">
-        <v>0.23633150721398599</v>
+        <v>0.24391622723672399</v>
       </c>
       <c r="I24">
-        <v>3.8535804755116997E-2</v>
+        <v>6.5543355110577003E-2</v>
       </c>
       <c r="J24">
-        <v>0.43412720967285601</v>
+        <v>0.42228909936287101</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2715,31 +2730,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.54941565254177605</v>
+        <v>0.54673272644996296</v>
       </c>
       <c r="C25">
-        <v>0.37566512009522801</v>
+        <v>0.37922377430003301</v>
       </c>
       <c r="D25">
-        <v>0.72316618498832397</v>
+        <v>0.71424167859989296</v>
       </c>
       <c r="E25">
-        <v>1.2508383284578299</v>
+        <v>1.25028730290712</v>
       </c>
       <c r="F25">
-        <v>-0.73594751005453396</v>
+        <v>-1.14364278448993</v>
       </c>
       <c r="G25">
-        <v>3.2376241669702002</v>
+        <v>3.6442173903041701</v>
       </c>
       <c r="H25">
-        <v>0.33461995026723101</v>
+        <v>0.32387787744051</v>
       </c>
       <c r="I25">
-        <v>0.19907522740768899</v>
+        <v>0.188755412466938</v>
       </c>
       <c r="J25">
-        <v>0.47016467312677201</v>
+        <v>0.459000342414082</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2747,31 +2762,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.32228581659602801</v>
+        <v>0.322205223976057</v>
       </c>
       <c r="C26">
-        <v>0.220273239330356</v>
+        <v>0.23265597461807799</v>
       </c>
       <c r="D26">
-        <v>0.42429839386170098</v>
+        <v>0.41175447333403598</v>
       </c>
       <c r="E26">
-        <v>0.36781388632496098</v>
+        <v>0.36414528759585801</v>
       </c>
       <c r="F26">
-        <v>0.18436964021069999</v>
+        <v>0.20042399319097001</v>
       </c>
       <c r="G26">
-        <v>0.55125813243922195</v>
+        <v>0.52786658200074599</v>
       </c>
       <c r="H26">
-        <v>0.83446325344300898</v>
+        <v>0.833941818129321</v>
       </c>
       <c r="I26">
-        <v>0.116232677771775</v>
+        <v>0.18688274267343499</v>
       </c>
       <c r="J26">
-        <v>1.55269382911424</v>
+        <v>1.4810008935852099</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2779,31 +2794,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.467275786276238</v>
+        <v>0.45680156495238</v>
       </c>
       <c r="C27">
-        <v>0.33108021166803597</v>
+        <v>0.28622493319180597</v>
       </c>
       <c r="D27">
-        <v>0.60347136088443998</v>
+        <v>0.62737819671295303</v>
       </c>
       <c r="E27">
-        <v>0.33896102850072002</v>
+        <v>0.33881224990721898</v>
       </c>
       <c r="F27">
-        <v>0.25423725441116402</v>
+        <v>0.264211923482641</v>
       </c>
       <c r="G27">
-        <v>0.42368480259027602</v>
+        <v>0.41341257633179601</v>
       </c>
       <c r="H27">
-        <v>0.93942387571380204</v>
+        <v>2.9034639211593799E-2</v>
       </c>
       <c r="I27">
-        <v>-1.1480706684407</v>
+        <v>-0.30097038492390799</v>
       </c>
       <c r="J27">
-        <v>3.0269184198682999</v>
+        <v>0.35903966334709497</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2812,19 +2827,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.42820283207717919</v>
+        <v>0.40727282709823109</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.42427771120527802</v>
+        <v>0.39508331679294628</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.37389908232498198</v>
+        <v>0.31206011094326569</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2835,19 +2850,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.10491443706602745</v>
+        <v>0.11265568431286863</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.21572797304812963</v>
+        <v>0.21285360929649122</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>0.19147795041464238</v>
+        <v>0.16381927402795005</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2878,19 +2893,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>5.8689136094735764E-2</v>
+        <v>6.301958980461872E-2</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>0.12067822812312372</v>
+        <v>0.11907030904045719</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>0.10711276546195096</v>
+        <v>9.1640501891235265E-2</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2916,7 +2931,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B3" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2979,31 +2994,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.76731341755061599</v>
+        <v>0.79873407506031802</v>
       </c>
       <c r="C3">
-        <v>0.10848227424453501</v>
+        <v>-5.9430442737757001E-2</v>
       </c>
       <c r="D3">
-        <v>1.4261445608567</v>
+        <v>1.6568985928583899</v>
       </c>
       <c r="E3">
-        <v>0.623466252428172</v>
+        <v>0.62163386059320302</v>
       </c>
       <c r="F3">
-        <v>0.57133858264100601</v>
+        <v>0.54533368293893503</v>
       </c>
       <c r="G3">
-        <v>0.67559392221533798</v>
+        <v>0.69793403824747002</v>
       </c>
       <c r="H3">
-        <v>0.57445249192749104</v>
+        <v>0.56984186202550902</v>
       </c>
       <c r="I3">
-        <v>0.394346152975176</v>
+        <v>0.38431197116843901</v>
       </c>
       <c r="J3">
-        <v>0.75455883087980602</v>
+        <v>0.75537175288257796</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3011,31 +3026,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.897506459308688</v>
+        <v>0.94980277103327104</v>
       </c>
       <c r="C4">
-        <v>-0.14974611403108001</v>
+        <v>-1.0561209555055599E-3</v>
       </c>
       <c r="D4">
-        <v>1.9447590326484601</v>
+        <v>1.9006616630220501</v>
       </c>
       <c r="E4">
-        <v>0.57215433710286501</v>
+        <v>0.56558104232890605</v>
       </c>
       <c r="F4">
-        <v>0.270623575123072</v>
+        <v>0.27565352458050102</v>
       </c>
       <c r="G4">
-        <v>0.87368509908265801</v>
+        <v>0.85550856007731102</v>
       </c>
       <c r="H4">
-        <v>0.44890861088721301</v>
+        <v>0.44888205344412402</v>
       </c>
       <c r="I4">
-        <v>0.32844971166940101</v>
+        <v>0.341447740587348</v>
       </c>
       <c r="J4">
-        <v>0.56936751010502595</v>
+        <v>0.55631636630090098</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3043,31 +3058,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.55656453171797704</v>
+        <v>0.61340774888431404</v>
       </c>
       <c r="C5">
-        <v>9.6815978636938901E-2</v>
+        <v>-0.121410623640652</v>
       </c>
       <c r="D5">
-        <v>1.0163130847990201</v>
+        <v>1.3482261214092801</v>
       </c>
       <c r="E5">
-        <v>0.72120705808446095</v>
+        <v>0.71954021326958195</v>
       </c>
       <c r="F5">
-        <v>0.50174351987768695</v>
+        <v>0.49745640739685998</v>
       </c>
       <c r="G5">
-        <v>0.94067059629123395</v>
+        <v>0.94162401914230398</v>
       </c>
       <c r="H5">
-        <v>0.59120086196231303</v>
+        <v>0.58810357660383505</v>
       </c>
       <c r="I5">
-        <v>0.40521813056935002</v>
+        <v>0.40886189630386699</v>
       </c>
       <c r="J5">
-        <v>0.77718359335527598</v>
+        <v>0.76734525690380195</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3075,31 +3090,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.91536626199483395</v>
+        <v>1.3269015749356201</v>
       </c>
       <c r="C6">
-        <v>2.4614574945020701E-2</v>
+        <v>0.27567209345413701</v>
       </c>
       <c r="D6">
-        <v>1.80611794904465</v>
+        <v>2.3781310564171001</v>
       </c>
       <c r="E6">
-        <v>0.38768278380950799</v>
+        <v>0.37885118211697899</v>
       </c>
       <c r="F6">
-        <v>0.19339894098145</v>
+        <v>0.20149549864692301</v>
       </c>
       <c r="G6">
-        <v>0.58196662663756504</v>
+        <v>0.55620686558703603</v>
       </c>
       <c r="H6">
-        <v>0.41522243192001801</v>
+        <v>0.41072701547840901</v>
       </c>
       <c r="I6">
-        <v>0.31045094929160699</v>
+        <v>0.310970351596766</v>
       </c>
       <c r="J6">
-        <v>0.51999391454842803</v>
+        <v>0.51048367936005201</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3107,31 +3122,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.78631892145574</v>
+        <v>2.2947724234554698</v>
       </c>
       <c r="C7">
-        <v>-0.87448065729194602</v>
+        <v>-0.80166293224711804</v>
       </c>
       <c r="D7">
-        <v>4.4471185002034304</v>
+        <v>5.3912077791580604</v>
       </c>
       <c r="E7">
-        <v>0.63493697128510895</v>
+        <v>0.63222177162659898</v>
       </c>
       <c r="F7">
-        <v>0.384512060014854</v>
+        <v>0.39643679753392402</v>
       </c>
       <c r="G7">
-        <v>0.88536188255536297</v>
+        <v>0.86800674571927505</v>
       </c>
       <c r="H7">
-        <v>0.53951576499118103</v>
+        <v>0.53086986858073604</v>
       </c>
       <c r="I7">
-        <v>0.37649132467180702</v>
+        <v>0.31912077874051298</v>
       </c>
       <c r="J7">
-        <v>0.70254020531055505</v>
+        <v>0.74261895842095804</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3139,31 +3154,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.93105682070103701</v>
+        <v>1.0101412065198101</v>
       </c>
       <c r="C8">
-        <v>-0.62347423869982999</v>
+        <v>-0.924128838058769</v>
       </c>
       <c r="D8">
-        <v>2.4855878801019</v>
+        <v>2.9444112510984</v>
       </c>
       <c r="E8">
-        <v>0.51213994751288305</v>
+        <v>0.50903366621364998</v>
       </c>
       <c r="F8">
-        <v>0.37652985724579702</v>
+        <v>0.37809050551606899</v>
       </c>
       <c r="G8">
-        <v>0.64775003777996798</v>
+        <v>0.63997682691123003</v>
       </c>
       <c r="H8">
-        <v>0.461298942605744</v>
+        <v>0.462095705040172</v>
       </c>
       <c r="I8">
-        <v>0.34300288518121103</v>
+        <v>0.35594345325971399</v>
       </c>
       <c r="J8">
-        <v>0.57959500003027697</v>
+        <v>0.56824795682063101</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3171,31 +3186,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.1492854238108401</v>
+        <v>1.16132971948287</v>
       </c>
       <c r="C9">
-        <v>0.26958556361974201</v>
+        <v>0.42318306297784403</v>
       </c>
       <c r="D9">
-        <v>2.0289852840019398</v>
+        <v>1.8994763759879001</v>
       </c>
       <c r="E9">
-        <v>0.60544084375045404</v>
+        <v>0.38775691263967699</v>
       </c>
       <c r="F9">
-        <v>0.26562733108036202</v>
+        <v>0.15892517714534199</v>
       </c>
       <c r="G9">
-        <v>0.94525435642054501</v>
+        <v>0.61658864813401204</v>
       </c>
       <c r="H9">
-        <v>0.78079084279478705</v>
+        <v>0.66673859178702299</v>
       </c>
       <c r="I9">
-        <v>0.57427086988342702</v>
+        <v>0.44767053927038503</v>
       </c>
       <c r="J9">
-        <v>0.98731081570614598</v>
+        <v>0.88580664430366096</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3203,31 +3218,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.67304315125788094</v>
+        <v>0.70442041130742505</v>
       </c>
       <c r="C10">
-        <v>6.7263778763076099E-2</v>
+        <v>-0.336169319706217</v>
       </c>
       <c r="D10">
-        <v>1.27882252375269</v>
+        <v>1.74501014232107</v>
       </c>
       <c r="E10">
-        <v>0.63345622235778098</v>
+        <v>0.58816071765183697</v>
       </c>
       <c r="F10">
-        <v>0.461835016780897</v>
+        <v>0.42055810384472597</v>
       </c>
       <c r="G10">
-        <v>0.80507742793466497</v>
+        <v>0.75576333145894903</v>
       </c>
       <c r="H10">
-        <v>0.43520798589242299</v>
+        <v>0.43512475055817001</v>
       </c>
       <c r="I10">
-        <v>0.29353288756726298</v>
+        <v>0.308902790749987</v>
       </c>
       <c r="J10">
-        <v>0.57688308421758405</v>
+        <v>0.56134671036635397</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3235,31 +3250,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.66399279655048904</v>
+        <v>0.92995147486256902</v>
       </c>
       <c r="C11">
-        <v>0.33853245922608399</v>
+        <v>0.39327362515727599</v>
       </c>
       <c r="D11">
-        <v>0.98945313387489298</v>
+        <v>1.4666293245678601</v>
       </c>
       <c r="E11">
-        <v>0.53701822916723496</v>
+        <v>0.44336067110373101</v>
       </c>
       <c r="F11">
-        <v>0.399699873810756</v>
+        <v>0.31473918670592499</v>
       </c>
       <c r="G11">
-        <v>0.67433658452371303</v>
+        <v>0.57198215550153697</v>
       </c>
       <c r="H11">
-        <v>0.80301332154074301</v>
+        <v>0.80224378289203402</v>
       </c>
       <c r="I11">
-        <v>0.28053893318530398</v>
+        <v>0.32921046740139998</v>
       </c>
       <c r="J11">
-        <v>1.3254877098961799</v>
+        <v>1.27527709838267</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3267,31 +3282,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.71709016253292801</v>
+        <v>1.1971297889683401</v>
       </c>
       <c r="C12">
-        <v>0.18836000905907399</v>
+        <v>0.85518430226459996</v>
       </c>
       <c r="D12">
-        <v>1.24582031600678</v>
+        <v>1.53907527567207</v>
       </c>
       <c r="E12">
-        <v>0.58309589197886702</v>
+        <v>0.57801959584693796</v>
       </c>
       <c r="F12">
-        <v>0.39924695945547201</v>
+        <v>0.376400687580702</v>
       </c>
       <c r="G12">
-        <v>0.76694482450226198</v>
+        <v>0.77963850411317304</v>
       </c>
       <c r="H12">
-        <v>0.446926787080548</v>
+        <v>0.43330190717549899</v>
       </c>
       <c r="I12">
-        <v>0.32185813229129301</v>
+        <v>0.26388484350381902</v>
       </c>
       <c r="J12">
-        <v>0.571995441869803</v>
+        <v>0.60271897084717796</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3299,31 +3314,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.91450676984552803</v>
+        <v>0.92523516250058302</v>
       </c>
       <c r="C13">
-        <v>0.29697427026156897</v>
+        <v>0.16451688886774099</v>
       </c>
       <c r="D13">
-        <v>1.53203926942949</v>
+        <v>1.6859534361334201</v>
       </c>
       <c r="E13">
-        <v>0.79482753494287095</v>
+        <v>0.79232486432233296</v>
       </c>
       <c r="F13">
-        <v>0.56086084804554304</v>
+        <v>0.48642513619787697</v>
       </c>
       <c r="G13">
-        <v>1.0287942218402</v>
+        <v>1.0982245924467899</v>
       </c>
       <c r="H13">
-        <v>0.73522488909773098</v>
+        <v>0.73402430669691199</v>
       </c>
       <c r="I13">
-        <v>0.46277487361290098</v>
+        <v>0.47774728787578902</v>
       </c>
       <c r="J13">
-        <v>1.0076749045825599</v>
+        <v>0.99030132551803596</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3331,31 +3346,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.19430395329239</v>
+        <v>1.2718863561901399</v>
       </c>
       <c r="C14">
-        <v>0.20054574061154101</v>
+        <v>6.99916001356755E-2</v>
       </c>
       <c r="D14">
-        <v>2.1880621659732302</v>
+        <v>2.4737811122446001</v>
       </c>
       <c r="E14">
-        <v>0.53471117770621002</v>
+        <v>0.52333161546450402</v>
       </c>
       <c r="F14">
-        <v>0.36820234995459</v>
+        <v>0.29021928617692999</v>
       </c>
       <c r="G14">
-        <v>0.70122000545782903</v>
+        <v>0.75644394475207799</v>
       </c>
       <c r="H14">
-        <v>0.54477701618751195</v>
+        <v>0.53476536107950801</v>
       </c>
       <c r="I14">
-        <v>0.40229991722469899</v>
+        <v>0.30953865842307099</v>
       </c>
       <c r="J14">
-        <v>0.68725411515032397</v>
+        <v>0.75999206373594397</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3363,31 +3378,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.68954494197440797</v>
+        <v>1.2604515512743799</v>
       </c>
       <c r="C15">
-        <v>0.23985579256645501</v>
+        <v>0.37998853022152101</v>
       </c>
       <c r="D15">
-        <v>1.13923409138236</v>
+        <v>2.1409145723272398</v>
       </c>
       <c r="E15">
-        <v>0.68965163151987297</v>
+        <v>0.68674091480853805</v>
       </c>
       <c r="F15">
-        <v>0.46617053995734897</v>
+        <v>0.45050448703417401</v>
       </c>
       <c r="G15">
-        <v>0.91313272308239701</v>
+        <v>0.92297734258290298</v>
       </c>
       <c r="H15">
-        <v>0.68535721839840302</v>
+        <v>0.68476447743722202</v>
       </c>
       <c r="I15">
-        <v>0.37352774144635598</v>
+        <v>0.404253403856416</v>
       </c>
       <c r="J15">
-        <v>0.99718669535045001</v>
+        <v>0.96527555101802798</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3395,31 +3410,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.12634190562881</v>
+        <v>1.1314083517797799</v>
       </c>
       <c r="C16">
-        <v>0.20219456439797301</v>
+        <v>-0.14528950339320101</v>
       </c>
       <c r="D16">
-        <v>2.0504892468596498</v>
+        <v>2.4081062069527701</v>
       </c>
       <c r="E16">
-        <v>0.55224675460832495</v>
+        <v>0.54967523157182796</v>
       </c>
       <c r="F16">
-        <v>0.35830904882563203</v>
+        <v>0.37081190130900499</v>
       </c>
       <c r="G16">
-        <v>0.74618446039101904</v>
+        <v>0.72853856183465104</v>
       </c>
       <c r="H16">
-        <v>0.68575010372479195</v>
+        <v>0.64370595317396395</v>
       </c>
       <c r="I16">
-        <v>0.360546062392126</v>
+        <v>0.363849030542163</v>
       </c>
       <c r="J16">
-        <v>1.01095414505746</v>
+        <v>0.92356287580576502</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3427,31 +3442,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.39410697257319</v>
+        <v>1.6168960043340399</v>
       </c>
       <c r="C17">
-        <v>-7.5721319810355597E-2</v>
+        <v>-1.90208632099671</v>
       </c>
       <c r="D17">
-        <v>0.863935264956736</v>
+        <v>5.1358783296647896</v>
       </c>
       <c r="E17">
-        <v>0.96599627780979702</v>
+        <v>0.96516926128774005</v>
       </c>
       <c r="F17">
-        <v>0.51015628000457602</v>
+        <v>0.486086783981246</v>
       </c>
       <c r="G17">
-        <v>1.42183627561502</v>
+        <v>1.44425173859423</v>
       </c>
       <c r="H17">
-        <v>0.63901150075747004</v>
+        <v>0.53494432158999705</v>
       </c>
       <c r="I17">
-        <v>0.45811967040325702</v>
+        <v>0.359000328837071</v>
       </c>
       <c r="J17">
-        <v>0.81990333111168201</v>
+        <v>0.71088831434292299</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3459,31 +3474,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.5005690777723499</v>
+        <v>1.53845320492518</v>
       </c>
       <c r="C18">
-        <v>0.60321470217211604</v>
+        <v>0.27615162837826901</v>
       </c>
       <c r="D18">
-        <v>2.3979234533725902</v>
+        <v>2.8007547814720999</v>
       </c>
       <c r="E18">
-        <v>0.53019284937168398</v>
+        <v>0.51601782526599604</v>
       </c>
       <c r="F18">
-        <v>0.355264978172326</v>
+        <v>0.26747717415788202</v>
       </c>
       <c r="G18">
-        <v>0.70512072057104302</v>
+        <v>0.76455847637411001</v>
       </c>
       <c r="H18">
-        <v>0.58583100777765595</v>
+        <v>0.58197077154868104</v>
       </c>
       <c r="I18">
-        <v>0.415477204773812</v>
+        <v>0.404261651700909</v>
       </c>
       <c r="J18">
-        <v>0.75618481078150002</v>
+        <v>0.75967989139645398</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3491,31 +3506,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.84477338910259303</v>
+        <v>3.2339337099083099</v>
       </c>
       <c r="C19">
-        <v>1.6338203960376599E-3</v>
+        <v>1.13036080605874</v>
       </c>
       <c r="D19">
-        <v>1.6879129578091501</v>
+        <v>5.3375066137578804</v>
       </c>
       <c r="E19">
-        <v>0.38856791087546</v>
+        <v>0.376391417465823</v>
       </c>
       <c r="F19">
-        <v>0.227591459926693</v>
+        <v>0.21592829024482599</v>
       </c>
       <c r="G19">
-        <v>0.54954436182422695</v>
+        <v>0.53685454468681904</v>
       </c>
       <c r="H19">
-        <v>0.48790575640323203</v>
+        <v>0.48525795597914201</v>
       </c>
       <c r="I19">
-        <v>0.33060104499952397</v>
+        <v>0.34208255868853099</v>
       </c>
       <c r="J19">
-        <v>0.64521046780693903</v>
+        <v>0.62843335326975303</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3523,31 +3538,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.80129907340637996</v>
+        <v>0.94986724356952101</v>
       </c>
       <c r="C20">
-        <v>0.39428341226883801</v>
+        <v>9.5951072329945403E-2</v>
       </c>
       <c r="D20">
-        <v>1.20831473454392</v>
+        <v>1.8037834148091001</v>
       </c>
       <c r="E20">
-        <v>0.78209013011660999</v>
+        <v>0.778845446612912</v>
       </c>
       <c r="F20">
-        <v>0.48620195636174102</v>
+        <v>0.41664949341715901</v>
       </c>
       <c r="G20">
-        <v>1.0779783038714801</v>
+        <v>1.1410413998086599</v>
       </c>
       <c r="H20">
-        <v>0.51125352454249795</v>
+        <v>0.50710656322205605</v>
       </c>
       <c r="I20">
-        <v>0.40943562293404401</v>
+        <v>0.39765513548557302</v>
       </c>
       <c r="J20">
-        <v>0.613071426150951</v>
+        <v>0.61655799095854003</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3555,31 +3570,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.20660208269992</v>
+        <v>1.5256546819296599</v>
       </c>
       <c r="C21">
-        <v>-0.175275173625561</v>
+        <v>-1.15843504507057</v>
       </c>
       <c r="D21">
-        <v>2.5884793390254002</v>
+        <v>4.2097444089298897</v>
       </c>
       <c r="E21">
-        <v>0.55546551901227903</v>
+        <v>0.55163646150670698</v>
       </c>
       <c r="F21">
-        <v>0.40072712489088602</v>
+        <v>0.39632078020816303</v>
       </c>
       <c r="G21">
-        <v>0.71020391313367204</v>
+        <v>0.70695214280525098</v>
       </c>
       <c r="H21">
-        <v>0.93657149926387995</v>
+        <v>0.59644785741185702</v>
       </c>
       <c r="I21">
-        <v>0.45672694325957702</v>
+        <v>0.23540956858635501</v>
       </c>
       <c r="J21">
-        <v>1.4164160552681799</v>
+        <v>0.95748614623735895</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3587,31 +3602,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.62806553242789398</v>
+        <v>0.66317908176002105</v>
       </c>
       <c r="C22">
-        <v>0.215226984873998</v>
+        <v>0.32427740277413603</v>
       </c>
       <c r="D22">
-        <v>1.0409040799817899</v>
+        <v>1.0020807607459099</v>
       </c>
       <c r="E22">
-        <v>0.59563076265454995</v>
+        <v>0.59147866258005</v>
       </c>
       <c r="F22">
-        <v>0.33940141958852998</v>
+        <v>0.34761469401852102</v>
       </c>
       <c r="G22">
-        <v>0.85186010572057003</v>
+        <v>0.83534263114157903</v>
       </c>
       <c r="H22">
-        <v>0.35770766302177198</v>
+        <v>0.34262218575668102</v>
       </c>
       <c r="I22">
-        <v>0.18293819481003501</v>
+        <v>0.17198783129593301</v>
       </c>
       <c r="J22">
-        <v>0.53247713123350904</v>
+        <v>0.51325654021742895</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3619,31 +3634,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.4212138590755901</v>
+        <v>1.4237035891824501</v>
       </c>
       <c r="C23">
-        <v>0.284609776054144</v>
+        <v>0.30526349067879099</v>
       </c>
       <c r="D23">
-        <v>2.5578179420970302</v>
+        <v>2.5421436876860999</v>
       </c>
       <c r="E23">
-        <v>0.47439644889763499</v>
+        <v>0.46517942136583001</v>
       </c>
       <c r="F23">
-        <v>0.22524672460784401</v>
+        <v>0.23249759163470199</v>
       </c>
       <c r="G23">
-        <v>0.72354617318742698</v>
+        <v>0.69786125109695696</v>
       </c>
       <c r="H23">
-        <v>0.53901518274856597</v>
+        <v>0.459833783920849</v>
       </c>
       <c r="I23">
-        <v>0.454685389184531</v>
+        <v>0.40006515130021802</v>
       </c>
       <c r="J23">
-        <v>0.623344976312601</v>
+        <v>0.51960241654147998</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3651,31 +3666,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.58873169586047303</v>
+        <v>0.74891218505296198</v>
       </c>
       <c r="C24">
-        <v>0.35170654942215501</v>
+        <v>0.26027110046757401</v>
       </c>
       <c r="D24">
-        <v>0.82575684229879098</v>
+        <v>1.23755326963835</v>
       </c>
       <c r="E24">
-        <v>0.71347100514526096</v>
+        <v>0.709326799359567</v>
       </c>
       <c r="F24">
-        <v>0.38079704730344799</v>
+        <v>0.33892633050669702</v>
       </c>
       <c r="G24">
-        <v>1.04614496298707</v>
+        <v>1.0797272682124399</v>
       </c>
       <c r="H24">
-        <v>0.51367078093663099</v>
+        <v>0.51190456114725702</v>
       </c>
       <c r="I24">
-        <v>0.36164096564116599</v>
+        <v>0.37396325444546502</v>
       </c>
       <c r="J24">
-        <v>0.66570059623209599</v>
+        <v>0.64984586784904796</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3683,31 +3698,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.80835902066995002</v>
+        <v>0.95886443619536199</v>
       </c>
       <c r="C25">
-        <v>0.25758879557428399</v>
+        <v>0.1018993972249</v>
       </c>
       <c r="D25">
-        <v>1.3591292457656201</v>
+        <v>1.8158294751658199</v>
       </c>
       <c r="E25">
-        <v>1.26492668681271</v>
+        <v>1.2648847965183601</v>
       </c>
       <c r="F25">
-        <v>0.82140134986743296</v>
+        <v>0.84442818582171197</v>
       </c>
       <c r="G25">
-        <v>1.7084520237580001</v>
+        <v>1.6853414072150099</v>
       </c>
       <c r="H25">
-        <v>0.66295034285251198</v>
+        <v>0.66003938657503802</v>
       </c>
       <c r="I25">
-        <v>0.52130633857809305</v>
+        <v>0.48066451781809699</v>
       </c>
       <c r="J25">
-        <v>0.80459434712693001</v>
+        <v>0.839414255331979</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3715,31 +3730,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.677807626139033</v>
+        <v>1.0028280201269599</v>
       </c>
       <c r="C26">
-        <v>0.29824897335386902</v>
+        <v>0.69088839713399697</v>
       </c>
       <c r="D26">
-        <v>1.0573662789242</v>
+        <v>1.31476764311993</v>
       </c>
       <c r="E26">
-        <v>0.62127588697547798</v>
+        <v>0.61930919370939397</v>
       </c>
       <c r="F26">
-        <v>0.34197711744633202</v>
+        <v>0.36442973550010999</v>
       </c>
       <c r="G26">
-        <v>0.90057465650462498</v>
+        <v>0.87418865191867801</v>
       </c>
       <c r="H26">
-        <v>0.59651218364829295</v>
+        <v>0.59289030461117997</v>
       </c>
       <c r="I26">
-        <v>0.38888987241431999</v>
+        <v>0.387820116446699</v>
       </c>
       <c r="J26">
-        <v>0.80413449488226496</v>
+        <v>0.79796049277566194</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3747,31 +3762,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.61889815515290403</v>
+        <v>1.0169785938913001</v>
       </c>
       <c r="C27">
-        <v>0.26765726550362101</v>
+        <v>6.3910854364479894E-2</v>
       </c>
       <c r="D27">
-        <v>0.97013904480218804</v>
+        <v>1.97004633341812</v>
       </c>
       <c r="E27">
-        <v>0.52343500125595599</v>
+        <v>0.44369003080084102</v>
       </c>
       <c r="F27">
-        <v>0.136119426487854</v>
+        <v>0.14254849533307001</v>
       </c>
       <c r="G27">
-        <v>0.91075057602405796</v>
+        <v>0.74483156626861302</v>
       </c>
       <c r="H27">
-        <v>0.49975497391764201</v>
+        <v>0.42190102518768802</v>
       </c>
       <c r="I27">
-        <v>0.37348209900685803</v>
+        <v>0.30660496553872302</v>
       </c>
       <c r="J27">
-        <v>0.62602784882842499</v>
+        <v>0.53719708483665196</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3780,19 +3795,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.89890648010009788</v>
+        <v>1.2101937346852263</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.63189936460728136</v>
+        <v>0.61032646304126104</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.57911326739524205</v>
+        <v>0.54560431715694169</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3803,19 +3818,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.32978154222051903</v>
+        <v>0.55867816359578759</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.18238231953016287</v>
+        <v>0.19540902214056455</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>0.13685435589949405</v>
+        <v>0.11116210185795616</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3846,19 +3861,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>0.18447979471815837</v>
+        <v>0.31252456471548362</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>0.10202466954517311</v>
+        <v>0.10931180698543182</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>7.6556326690176965E-2</v>
+        <v>6.2184079779340685E-2</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3883,8 +3898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4827,6 +4842,971 @@
       <c r="H31" s="1">
         <f>H30*H29/5</f>
         <v>6.9403903678742024E-2</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.78436923323458196</v>
+      </c>
+      <c r="C3">
+        <v>-0.177358634885496</v>
+      </c>
+      <c r="D3">
+        <v>1.74609710135466</v>
+      </c>
+      <c r="E3">
+        <v>0.52300936807142595</v>
+      </c>
+      <c r="F3">
+        <v>0.36596211051766098</v>
+      </c>
+      <c r="G3">
+        <v>0.68005662562519198</v>
+      </c>
+      <c r="H3">
+        <v>0.32778442906112298</v>
+      </c>
+      <c r="I3">
+        <v>0.16557856026029599</v>
+      </c>
+      <c r="J3">
+        <v>0.48999029786195097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.54578615416751</v>
+      </c>
+      <c r="C4">
+        <v>-1.9463668052570899</v>
+      </c>
+      <c r="D4">
+        <v>5.0379391135920999</v>
+      </c>
+      <c r="E4">
+        <v>0.72679403012128896</v>
+      </c>
+      <c r="F4">
+        <v>0.32752262210980299</v>
+      </c>
+      <c r="G4">
+        <v>1.1260654381327799</v>
+      </c>
+      <c r="H4">
+        <v>0.46621068842186703</v>
+      </c>
+      <c r="I4">
+        <v>0.349907898416152</v>
+      </c>
+      <c r="J4">
+        <v>0.58251347842758106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.57407931145315505</v>
+      </c>
+      <c r="C5">
+        <v>-0.11605244594351299</v>
+      </c>
+      <c r="D5">
+        <v>1.26421106884982</v>
+      </c>
+      <c r="E5">
+        <v>0.58219663595287896</v>
+      </c>
+      <c r="F5">
+        <v>0.24033748784589501</v>
+      </c>
+      <c r="G5">
+        <v>0.92405578405986399</v>
+      </c>
+      <c r="H5">
+        <v>0.57604060653607603</v>
+      </c>
+      <c r="I5">
+        <v>0.37488762799486902</v>
+      </c>
+      <c r="J5">
+        <v>0.77719358507728298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1.3689648637893199</v>
+      </c>
+      <c r="C6">
+        <v>0.29157474084510399</v>
+      </c>
+      <c r="D6">
+        <v>2.4463549867335401</v>
+      </c>
+      <c r="E6">
+        <v>0.37408429562463802</v>
+      </c>
+      <c r="F6">
+        <v>0.18208706453947701</v>
+      </c>
+      <c r="G6">
+        <v>0.56608152670980005</v>
+      </c>
+      <c r="H6">
+        <v>0.44506958360802801</v>
+      </c>
+      <c r="I6">
+        <v>0.34047081345917102</v>
+      </c>
+      <c r="J6">
+        <v>0.54966835375688405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2.7976356975715699</v>
+      </c>
+      <c r="C7">
+        <v>-3.6118624388143599</v>
+      </c>
+      <c r="D7">
+        <v>9.2071338339575099</v>
+      </c>
+      <c r="E7">
+        <v>0.87013507411110402</v>
+      </c>
+      <c r="F7">
+        <v>0.34904371722747601</v>
+      </c>
+      <c r="G7">
+        <v>1.39122643099473</v>
+      </c>
+      <c r="H7">
+        <v>0.32342510742088598</v>
+      </c>
+      <c r="I7">
+        <v>0.142660327405632</v>
+      </c>
+      <c r="J7">
+        <v>0.50418988743614002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1.0969272500060601</v>
+      </c>
+      <c r="C8">
+        <v>-0.89432018459435503</v>
+      </c>
+      <c r="D8">
+        <v>3.0881746846064799</v>
+      </c>
+      <c r="E8">
+        <v>0.52197784377744905</v>
+      </c>
+      <c r="F8">
+        <v>0.37619795782363102</v>
+      </c>
+      <c r="G8">
+        <v>0.66775772973126801</v>
+      </c>
+      <c r="H8">
+        <v>0.31203268168508802</v>
+      </c>
+      <c r="I8">
+        <v>0.20490845961348</v>
+      </c>
+      <c r="J8">
+        <v>0.41915690375669601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1.3057003414627899</v>
+      </c>
+      <c r="C9">
+        <v>-0.74499136931626497</v>
+      </c>
+      <c r="D9">
+        <v>3.3563920522418398</v>
+      </c>
+      <c r="E9">
+        <v>0.785556930105614</v>
+      </c>
+      <c r="F9">
+        <v>0.20168682752139799</v>
+      </c>
+      <c r="G9">
+        <v>1.3694270326898299</v>
+      </c>
+      <c r="H9">
+        <v>0.64152228126218602</v>
+      </c>
+      <c r="I9">
+        <v>0.40880954165226602</v>
+      </c>
+      <c r="J9">
+        <v>0.87423502087210603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.79266221473184295</v>
+      </c>
+      <c r="C10">
+        <v>-0.135646936679509</v>
+      </c>
+      <c r="D10">
+        <v>1.7209713661432</v>
+      </c>
+      <c r="E10">
+        <v>0.49843151097212801</v>
+      </c>
+      <c r="F10">
+        <v>0.28461486507063699</v>
+      </c>
+      <c r="G10">
+        <v>0.71224815687361998</v>
+      </c>
+      <c r="H10">
+        <v>0.38368769901965299</v>
+      </c>
+      <c r="I10">
+        <v>0.25536033297368799</v>
+      </c>
+      <c r="J10">
+        <v>0.512015065065618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.68482974391989204</v>
+      </c>
+      <c r="C11">
+        <v>-0.16194809205049299</v>
+      </c>
+      <c r="D11">
+        <v>1.53160757989028</v>
+      </c>
+      <c r="E11">
+        <v>0.50818646163083403</v>
+      </c>
+      <c r="F11">
+        <v>0.37091381850897998</v>
+      </c>
+      <c r="G11">
+        <v>0.64545910475268797</v>
+      </c>
+      <c r="H11">
+        <v>0.40241484618471801</v>
+      </c>
+      <c r="I11">
+        <v>7.7546546002479802E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.72728314636695601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1.20353926279076</v>
+      </c>
+      <c r="C12">
+        <v>0.36083225169133298</v>
+      </c>
+      <c r="D12">
+        <v>2.0462462738901799</v>
+      </c>
+      <c r="E12">
+        <v>0.61444115947706002</v>
+      </c>
+      <c r="F12">
+        <v>0.30551456526598503</v>
+      </c>
+      <c r="G12">
+        <v>0.92336775368813495</v>
+      </c>
+      <c r="H12">
+        <v>0.52801323491220897</v>
+      </c>
+      <c r="I12">
+        <v>0.270529811443808</v>
+      </c>
+      <c r="J12">
+        <v>0.78549665838061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.966665335029113</v>
+      </c>
+      <c r="C13">
+        <v>-0.26371156086097303</v>
+      </c>
+      <c r="D13">
+        <v>2.1970422309191999</v>
+      </c>
+      <c r="E13">
+        <v>0.61057740584910802</v>
+      </c>
+      <c r="F13">
+        <v>0.28027479237701902</v>
+      </c>
+      <c r="G13">
+        <v>0.94088001932119802</v>
+      </c>
+      <c r="H13">
+        <v>0.64471366342880199</v>
+      </c>
+      <c r="I13">
+        <v>0.35135690196070402</v>
+      </c>
+      <c r="J13">
+        <v>0.93807042489689896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.89179729252898299</v>
+      </c>
+      <c r="C14">
+        <v>-0.48308274453438399</v>
+      </c>
+      <c r="D14">
+        <v>2.2666773295923499</v>
+      </c>
+      <c r="E14">
+        <v>0.52691710273263803</v>
+      </c>
+      <c r="F14">
+        <v>0.29976462189174602</v>
+      </c>
+      <c r="G14">
+        <v>0.75406958357353004</v>
+      </c>
+      <c r="H14">
+        <v>0.40359279103405399</v>
+      </c>
+      <c r="I14">
+        <v>0.20101216761381699</v>
+      </c>
+      <c r="J14">
+        <v>0.60617341445429096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.86609135494577905</v>
+      </c>
+      <c r="C15">
+        <v>-7.8932983391847095E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.8111156932834001</v>
+      </c>
+      <c r="E15">
+        <v>0.71655713538178101</v>
+      </c>
+      <c r="F15">
+        <v>0.45776057720760199</v>
+      </c>
+      <c r="G15">
+        <v>0.97535369355595902</v>
+      </c>
+      <c r="H15">
+        <v>0.53802919863482501</v>
+      </c>
+      <c r="I15">
+        <v>0.25097260991138798</v>
+      </c>
+      <c r="J15">
+        <v>0.82508578735826199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1.39472233373147</v>
+      </c>
+      <c r="C16">
+        <v>-4.6507177243520798E-2</v>
+      </c>
+      <c r="D16">
+        <v>2.83595184470646</v>
+      </c>
+      <c r="E16">
+        <v>0.476618229239407</v>
+      </c>
+      <c r="F16">
+        <v>0.26261904695740301</v>
+      </c>
+      <c r="G16">
+        <v>0.69061741152140999</v>
+      </c>
+      <c r="H16">
+        <v>0.65063058128330697</v>
+      </c>
+      <c r="I16">
+        <v>0.29635265004611</v>
+      </c>
+      <c r="J16">
+        <v>1.0049085125205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1.29996008312027</v>
+      </c>
+      <c r="C17">
+        <v>-1.56357021267273</v>
+      </c>
+      <c r="D17">
+        <v>4.1634903789132602</v>
+      </c>
+      <c r="E17">
+        <v>0.88416135077234903</v>
+      </c>
+      <c r="F17">
+        <v>0.47631495538486002</v>
+      </c>
+      <c r="G17">
+        <v>1.29200774615984</v>
+      </c>
+      <c r="H17">
+        <v>0.43072118260942599</v>
+      </c>
+      <c r="I17">
+        <v>0.19462562165425301</v>
+      </c>
+      <c r="J17">
+        <v>0.66681674356459797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1.63684909959451</v>
+      </c>
+      <c r="C18">
+        <v>3.0670596372489999E-2</v>
+      </c>
+      <c r="D18">
+        <v>3.2430276028165301</v>
+      </c>
+      <c r="E18">
+        <v>0.41684940159931699</v>
+      </c>
+      <c r="F18">
+        <v>0.172159853949748</v>
+      </c>
+      <c r="G18">
+        <v>0.66153894924888501</v>
+      </c>
+      <c r="H18">
+        <v>0.62851079107232699</v>
+      </c>
+      <c r="I18">
+        <v>0.33735294129072702</v>
+      </c>
+      <c r="J18">
+        <v>0.91966864085392697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1.4942500870525799</v>
+      </c>
+      <c r="C19">
+        <v>-0.93028574017169896</v>
+      </c>
+      <c r="D19">
+        <v>3.9187859142768602</v>
+      </c>
+      <c r="E19">
+        <v>0.388525355590014</v>
+      </c>
+      <c r="F19">
+        <v>0.214992499818909</v>
+      </c>
+      <c r="G19">
+        <v>0.562058211361119</v>
+      </c>
+      <c r="H19">
+        <v>0.48348166090260097</v>
+      </c>
+      <c r="I19">
+        <v>0.33660391265437101</v>
+      </c>
+      <c r="J19">
+        <v>0.630359409150832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.79977951646844503</v>
+      </c>
+      <c r="C20">
+        <v>0.21450421627914501</v>
+      </c>
+      <c r="D20">
+        <v>1.3850548166577501</v>
+      </c>
+      <c r="E20">
+        <v>1.0242652516468</v>
+      </c>
+      <c r="F20">
+        <v>0.56511973710679797</v>
+      </c>
+      <c r="G20">
+        <v>1.4834107661867999</v>
+      </c>
+      <c r="H20">
+        <v>0.48159273291085303</v>
+      </c>
+      <c r="I20">
+        <v>0.32531646954771898</v>
+      </c>
+      <c r="J20">
+        <v>0.63786899627398697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.97181333290783001</v>
+      </c>
+      <c r="C21">
+        <v>-0.67955937429284197</v>
+      </c>
+      <c r="D21">
+        <v>2.6231860401085001</v>
+      </c>
+      <c r="E21">
+        <v>0.64780409111870396</v>
+      </c>
+      <c r="F21">
+        <v>0.45050924525244501</v>
+      </c>
+      <c r="G21">
+        <v>0.84509893698496297</v>
+      </c>
+      <c r="H21">
+        <v>0.42292768467304398</v>
+      </c>
+      <c r="I21">
+        <v>0.17700538827283099</v>
+      </c>
+      <c r="J21">
+        <v>0.66884998107325699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.61421749430418804</v>
+      </c>
+      <c r="C22">
+        <v>0.174459741845538</v>
+      </c>
+      <c r="D22">
+        <v>1.05397524676284</v>
+      </c>
+      <c r="E22">
+        <v>0.37334926660471501</v>
+      </c>
+      <c r="F22">
+        <v>0.172156024110975</v>
+      </c>
+      <c r="G22">
+        <v>0.57454250909845594</v>
+      </c>
+      <c r="H22">
+        <v>0.37572700373955098</v>
+      </c>
+      <c r="I22">
+        <v>0.21794089525945701</v>
+      </c>
+      <c r="J22">
+        <v>0.53351311221964404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1.04325444284183</v>
+      </c>
+      <c r="C23">
+        <v>0.16454483148381999</v>
+      </c>
+      <c r="D23">
+        <v>1.92196405419983</v>
+      </c>
+      <c r="E23">
+        <v>0.74947452710921203</v>
+      </c>
+      <c r="F23">
+        <v>0.37767704966760901</v>
+      </c>
+      <c r="G23">
+        <v>1.12127200455081</v>
+      </c>
+      <c r="H23">
+        <v>0.39759737138903201</v>
+      </c>
+      <c r="I23">
+        <v>0.211390248731852</v>
+      </c>
+      <c r="J23">
+        <v>0.58380449404621104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.86114152478211703</v>
+      </c>
+      <c r="C24">
+        <v>0.24982532866076901</v>
+      </c>
+      <c r="D24">
+        <v>1.4724577209034699</v>
+      </c>
+      <c r="E24">
+        <v>0.63214002005527503</v>
+      </c>
+      <c r="F24">
+        <v>0.23310314179983699</v>
+      </c>
+      <c r="G24">
+        <v>1.0311768983107099</v>
+      </c>
+      <c r="H24">
+        <v>0.63001324473929599</v>
+      </c>
+      <c r="I24">
+        <v>0.49086233032865301</v>
+      </c>
+      <c r="J24">
+        <v>0.76916415914993896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.69907368508280499</v>
+      </c>
+      <c r="C25">
+        <v>1.7097779299408099E-2</v>
+      </c>
+      <c r="D25">
+        <v>1.3810495908661999</v>
+      </c>
+      <c r="E25">
+        <v>1.3948042843698101</v>
+      </c>
+      <c r="F25">
+        <v>0.59982281545298899</v>
+      </c>
+      <c r="G25">
+        <v>2.1897857532866398</v>
+      </c>
+      <c r="H25">
+        <v>0.637352252870938</v>
+      </c>
+      <c r="I25">
+        <v>0.243221794313872</v>
+      </c>
+      <c r="J25">
+        <v>1.0314827114280001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.77003965122440499</v>
+      </c>
+      <c r="C26">
+        <v>0.51049865435213804</v>
+      </c>
+      <c r="D26">
+        <v>1.02958064809667</v>
+      </c>
+      <c r="E26">
+        <v>0.793234612481587</v>
+      </c>
+      <c r="F26">
+        <v>0.52018844383716101</v>
+      </c>
+      <c r="G26">
+        <v>1.06628078112601</v>
+      </c>
+      <c r="H26">
+        <v>0.51968542360210801</v>
+      </c>
+      <c r="I26">
+        <v>0.36368031665545902</v>
+      </c>
+      <c r="J26">
+        <v>0.67569053054875605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.55748256473647695</v>
+      </c>
+      <c r="C27">
+        <v>-0.112853566506966</v>
+      </c>
+      <c r="D27">
+        <v>1.22781869597992</v>
+      </c>
+      <c r="E27">
+        <v>0.78892863262991297</v>
+      </c>
+      <c r="F27">
+        <v>0.24321169461939801</v>
+      </c>
+      <c r="G27">
+        <v>1.3346455706404301</v>
+      </c>
+      <c r="H27">
+        <v>0.39426577169306598</v>
+      </c>
+      <c r="I27">
+        <v>0.280867649206053</v>
+      </c>
+      <c r="J27">
+        <v>0.50766389418007896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <f>AVERAGE(B3:B27)</f>
+        <v>1.0808652748591312</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <f>AVERAGE(E3:E27)</f>
+        <v>0.657160799081002</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
+        <f>AVERAGE(H3:H27)</f>
+        <v>0.48180170050780258</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <f>STDEV(B3:B27)</f>
+        <v>0.4784109915023867</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>STDEV(E3:E27)</f>
+        <v>0.23086578921556641</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <f>STDEV(H3:H27)</f>
+        <v>0.11128044562984213</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1">
+        <f>B30*B29/5</f>
+        <v>0.26762310864643513</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <f>E30*E29/5</f>
+        <v>0.12914632248718785</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1">
+        <f>H30*H29/5</f>
+        <v>6.2250281285333685E-2</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>

--- a/data/summary/18_18_24.xlsx
+++ b/data/summary/18_18_24.xlsx
@@ -163,6 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -172,7 +173,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -540,11 +540,11 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -564,13 +564,13 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>0.80603100000000005</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>0.82985399999999998</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>0.83902200000000005</v>
       </c>
     </row>
@@ -578,13 +578,13 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>0.80598400000000003</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>0.82916999999999996</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>0.83884300000000001</v>
       </c>
     </row>
@@ -592,13 +592,13 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>0.80615199999999998</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>0.82981400000000005</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>0.83869400000000005</v>
       </c>
     </row>
@@ -606,13 +606,13 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>0.80586599999999997</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>0.82960699999999998</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>0.83855100000000005</v>
       </c>
     </row>
@@ -620,13 +620,13 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>0.80594699999999997</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>0.82935899999999996</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>0.83867499999999995</v>
       </c>
     </row>
@@ -634,13 +634,13 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>0.80603800000000003</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>0.82971399999999995</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>0.83863799999999999</v>
       </c>
     </row>
@@ -648,13 +648,13 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>0.80577200000000004</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>0.82953399999999999</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>0.83864799999999995</v>
       </c>
     </row>
@@ -662,13 +662,13 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>0.80578799999999995</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>0.82967999999999997</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>0.83866200000000002</v>
       </c>
     </row>
@@ -676,13 +676,13 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>0.80580200000000002</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>0.82958500000000002</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>0.83868799999999999</v>
       </c>
     </row>
@@ -690,13 +690,13 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>0.80583400000000005</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>0.82938100000000003</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>0.83854600000000001</v>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>0.80584</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>0.82977900000000004</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>0.83877400000000002</v>
       </c>
     </row>
@@ -718,13 +718,13 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>0.80569199999999996</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>0.82924200000000003</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>0.83898899999999998</v>
       </c>
     </row>
@@ -732,13 +732,13 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>0.805952</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>0.82936299999999996</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>0.83901099999999995</v>
       </c>
     </row>
@@ -746,13 +746,13 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>0.805836</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>0.82977800000000002</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <v>0.83850800000000003</v>
       </c>
     </row>
@@ -760,13 +760,13 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>0.80595000000000006</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>0.82949600000000001</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
         <v>0.83865800000000001</v>
       </c>
     </row>
@@ -774,13 +774,13 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>0.80612399999999995</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>0.82962999999999998</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>0.83891700000000002</v>
       </c>
     </row>
@@ -788,13 +788,13 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>0.80596699999999999</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>0.82969099999999996</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>0.83894400000000002</v>
       </c>
     </row>
@@ -802,13 +802,13 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>0.80582100000000001</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <v>0.82911199999999996</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <v>0.838673</v>
       </c>
     </row>
@@ -816,13 +816,13 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>0.80593099999999995</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>0.82920300000000002</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="3">
         <v>0.83848699999999998</v>
       </c>
     </row>
@@ -830,13 +830,13 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>0.80569000000000002</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>0.82942000000000005</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="3">
         <v>0.83826800000000001</v>
       </c>
     </row>
@@ -844,13 +844,13 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <v>0.80613000000000001</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>0.82919600000000004</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="3">
         <v>0.83879000000000004</v>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>0.80604699999999996</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>0.82933299999999999</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="3">
         <v>0.83870299999999998</v>
       </c>
     </row>
@@ -872,13 +872,13 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="3">
         <v>0.80632499999999996</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>0.82955999999999996</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="3">
         <v>0.83873500000000001</v>
       </c>
     </row>
@@ -886,13 +886,13 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="3">
         <v>0.80587600000000004</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>0.82958900000000002</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="3">
         <v>0.83875500000000003</v>
       </c>
     </row>
@@ -900,13 +900,13 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="3">
         <v>0.80604600000000004</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <v>0.82931600000000005</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <v>0.83867400000000003</v>
       </c>
     </row>
@@ -1005,21 +1005,21 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -1963,7 +1963,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J27"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1973,21 +1973,21 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -2931,7 +2931,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J27"/>
+      <selection activeCell="J27" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2941,21 +2941,21 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -3899,7 +3899,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J27"/>
+      <selection activeCell="J27" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3909,21 +3909,21 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -4874,21 +4874,21 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">

--- a/data/summary/18_18_24.xlsx
+++ b/data/summary/18_18_24.xlsx
@@ -1058,31 +1058,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.7386950854881</v>
+        <v>2.3061848810269701</v>
       </c>
       <c r="C3">
-        <v>-2.7746109213059098</v>
+        <v>1.7847863305647</v>
       </c>
       <c r="D3">
-        <v>6.2520010922821099</v>
+        <v>2.8275834314892401</v>
       </c>
       <c r="E3">
-        <v>7.6491348288920999</v>
+        <v>2.06637084135608</v>
       </c>
       <c r="F3">
-        <v>-3413.91502793156</v>
+        <v>0.88167448239938295</v>
       </c>
       <c r="G3">
-        <v>3429.2132975893401</v>
+        <v>3.2510672003127699</v>
       </c>
       <c r="H3">
-        <v>4.2000738222249296</v>
+        <v>1.6888916013250601</v>
       </c>
       <c r="I3">
-        <v>-4.1303403767641598</v>
+        <v>1.0019022064444401</v>
       </c>
       <c r="J3">
-        <v>12.530488021214</v>
+        <v>2.3758809962056899</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1090,31 +1090,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.51896547422085</v>
+        <v>1.3273131142641801</v>
       </c>
       <c r="C4">
-        <v>0.402831102733687</v>
+        <v>0.63005259611908204</v>
       </c>
       <c r="D4">
-        <v>2.6350998457080199</v>
+        <v>2.0245736324092798</v>
       </c>
       <c r="E4">
-        <v>1.5655318706622801</v>
+        <v>1.5722190959756599</v>
       </c>
       <c r="F4">
-        <v>-2.7789351701623</v>
+        <v>1.0710853458947001</v>
       </c>
       <c r="G4">
-        <v>5.9099989114868601</v>
+        <v>2.07335284605663</v>
       </c>
       <c r="H4">
-        <v>0.94644779240849597</v>
+        <v>1.8355080929776799</v>
       </c>
       <c r="I4">
-        <v>-0.87904501422555703</v>
+        <v>-0.95450552785069598</v>
       </c>
       <c r="J4">
-        <v>2.7719405990425501</v>
+        <v>4.6255217138060596</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1122,31 +1122,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.85597347236835297</v>
+        <v>1.48242218037827</v>
       </c>
       <c r="C5">
-        <v>-0.78981962367186898</v>
+        <v>0.68367947045277799</v>
       </c>
       <c r="D5">
-        <v>2.5017665684085699</v>
+        <v>2.28116489030376</v>
       </c>
       <c r="E5">
-        <v>1.88741690879128</v>
+        <v>1.8845395105890901</v>
       </c>
       <c r="F5">
-        <v>-7.6684142648271596</v>
+        <v>1.0282960182380201</v>
       </c>
       <c r="G5">
-        <v>11.443248082409699</v>
+        <v>2.7407830029401699</v>
       </c>
       <c r="H5">
-        <v>1.0053831338507799</v>
+        <v>1.6482136128256399</v>
       </c>
       <c r="I5">
-        <v>-7.3594181184420702</v>
+        <v>-1.6068898555928399</v>
       </c>
       <c r="J5">
-        <v>9.3701843861436398</v>
+        <v>4.90331708124413</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1154,31 +1154,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.94973940955374203</v>
+        <v>1.61024764045826</v>
       </c>
       <c r="C6">
-        <v>-0.40136920194359399</v>
+        <v>0.53796774966790595</v>
       </c>
       <c r="D6">
-        <v>2.3008480210510802</v>
+        <v>2.6825275312486099</v>
       </c>
       <c r="E6">
-        <v>1.6017661909496399</v>
+        <v>1.53114113981842</v>
       </c>
       <c r="F6">
-        <v>-5.9710909670123398</v>
+        <v>0.101580546945053</v>
       </c>
       <c r="G6">
-        <v>9.1746233489116094</v>
+        <v>2.9607017326917799</v>
       </c>
       <c r="H6">
-        <v>1.0958971710857399</v>
+        <v>2.9874329978257701</v>
       </c>
       <c r="I6">
-        <v>-1.89281325220589</v>
+        <v>2.0414344640894</v>
       </c>
       <c r="J6">
-        <v>4.0846075943773599</v>
+        <v>3.93343153156213</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1186,31 +1186,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.74537715936374604</v>
+        <v>1.6755793747691099</v>
       </c>
       <c r="C7">
-        <v>-1.01896815139908</v>
+        <v>-0.16379789054681601</v>
       </c>
       <c r="D7">
-        <v>2.5097224701265701</v>
+        <v>3.5149566400850398</v>
       </c>
       <c r="E7">
-        <v>0.67721092017536599</v>
+        <v>2.4274570544308398</v>
       </c>
       <c r="F7">
-        <v>-0.80921239148398005</v>
+        <v>0.90814770637821995</v>
       </c>
       <c r="G7">
-        <v>2.1636342318347102</v>
+        <v>3.9467664024834499</v>
       </c>
       <c r="H7">
-        <v>1.8662502495914499</v>
+        <v>1.3333960454384499</v>
       </c>
       <c r="I7">
-        <v>-11.4833256135942</v>
+        <v>-0.46279718155935301</v>
       </c>
       <c r="J7">
-        <v>15.2158261127771</v>
+        <v>3.1295892724362502</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1218,31 +1218,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.36730404674831</v>
+        <v>2.5628442379285001</v>
       </c>
       <c r="C8">
-        <v>-1.5553983876391599</v>
+        <v>0.94878171090166097</v>
       </c>
       <c r="D8">
-        <v>4.2900064811357801</v>
+        <v>4.1769067649553397</v>
       </c>
       <c r="E8">
-        <v>1.12439000774197</v>
+        <v>1.6050125530558199</v>
       </c>
       <c r="F8">
-        <v>-2.7770215262367701</v>
+        <v>1.3789694474791201</v>
       </c>
       <c r="G8">
-        <v>5.0258015417206998</v>
+        <v>1.83105565863252</v>
       </c>
       <c r="H8">
-        <v>0.87915445803796599</v>
+        <v>1.63352267307321</v>
       </c>
       <c r="I8">
-        <v>-0.224957167004074</v>
+        <v>-1.17067949053747</v>
       </c>
       <c r="J8">
-        <v>1.98326608308001</v>
+        <v>4.4377248366839002</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1250,31 +1250,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.8834760852944199</v>
+        <v>1.6724342472459599</v>
       </c>
       <c r="C9">
-        <v>-3.0129374684212702</v>
+        <v>0.55008011208591201</v>
       </c>
       <c r="D9">
-        <v>8.7798896390101202</v>
+        <v>2.7947883824060198</v>
       </c>
       <c r="E9">
-        <v>1.40504084129879</v>
+        <v>1.7129368302850601</v>
       </c>
       <c r="F9">
-        <v>7.2464511994712003E-2</v>
+        <v>0.57224435633493598</v>
       </c>
       <c r="G9">
-        <v>2.73761717060288</v>
+        <v>2.8536293042351799</v>
       </c>
       <c r="H9">
-        <v>0.923337802374948</v>
+        <v>1.51065099468249</v>
       </c>
       <c r="I9">
-        <v>-1.89024071177197</v>
+        <v>9.6854675037927995E-2</v>
       </c>
       <c r="J9">
-        <v>3.7369163165218602</v>
+        <v>2.92444731432705</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1282,31 +1282,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.783209689338212</v>
+        <v>1.42096202364727</v>
       </c>
       <c r="C10">
-        <v>-0.58161829138340904</v>
+        <v>1.02966876786013</v>
       </c>
       <c r="D10">
-        <v>2.1480376700598298</v>
+        <v>1.81225527943442</v>
       </c>
       <c r="E10">
-        <v>0.77283932691164703</v>
+        <v>1.2020372717937999</v>
       </c>
       <c r="F10">
-        <v>-0.51640423962472204</v>
+        <v>0.78774650772925803</v>
       </c>
       <c r="G10">
-        <v>2.0620828934480202</v>
+        <v>1.6163280358583301</v>
       </c>
       <c r="H10">
-        <v>0.85490789366382203</v>
+        <v>2.3424003099721999</v>
       </c>
       <c r="I10">
-        <v>-7.1319856100805898</v>
+        <v>-1.33437526349205</v>
       </c>
       <c r="J10">
-        <v>8.8418013974082292</v>
+        <v>6.0191758834364597</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1314,31 +1314,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.31852061360675</v>
+        <v>1.7254555124829001</v>
       </c>
       <c r="C11">
-        <v>0.45709732474393999</v>
+        <v>0.69782898764835399</v>
       </c>
       <c r="D11">
-        <v>2.1799439024695699</v>
+        <v>2.75308203731745</v>
       </c>
       <c r="E11">
-        <v>4.6563596172311401</v>
+        <v>2.3353991649994001</v>
       </c>
       <c r="F11">
-        <v>-363.02808944173802</v>
+        <v>2.0069596450693101</v>
       </c>
       <c r="G11">
-        <v>372.34080867620099</v>
+        <v>2.6638386849294799</v>
       </c>
       <c r="H11">
-        <v>0.92710690123678197</v>
+        <v>2.2370747306433501</v>
       </c>
       <c r="I11">
-        <v>-2.48068957117012</v>
+        <v>-1.1525741401915801</v>
       </c>
       <c r="J11">
-        <v>4.3349033736436802</v>
+        <v>5.6267236014782798</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1346,31 +1346,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.19961560270173</v>
+        <v>1.9956819522885501</v>
       </c>
       <c r="C12">
-        <v>-4.9206314643067497</v>
+        <v>0.54206284393153603</v>
       </c>
       <c r="D12">
-        <v>7.3198626697101998</v>
+        <v>3.4493010606455701</v>
       </c>
       <c r="E12">
-        <v>6.5488773743536104</v>
+        <v>1.46246959886284</v>
       </c>
       <c r="F12">
-        <v>-1310.6523797042501</v>
+        <v>-0.12753258139014201</v>
       </c>
       <c r="G12">
-        <v>1323.7501344529501</v>
+        <v>3.05247177911582</v>
       </c>
       <c r="H12">
-        <v>0.98257336165405196</v>
+        <v>6.8117431669823603</v>
       </c>
       <c r="I12">
-        <v>-0.14242448091132201</v>
+        <v>-401.820467275346</v>
       </c>
       <c r="J12">
-        <v>2.1075712042194299</v>
+        <v>415.443953609311</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1378,31 +1378,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.89892680310671003</v>
+        <v>1.5079636392176701</v>
       </c>
       <c r="C13">
-        <v>-8.6610466233419003E-2</v>
+        <v>0.82347814388073803</v>
       </c>
       <c r="D13">
-        <v>1.88446407244684</v>
+        <v>2.19244913455461</v>
       </c>
       <c r="E13">
-        <v>1.7870192265106899</v>
+        <v>2.2278969765047201</v>
       </c>
       <c r="F13">
-        <v>0.53298555757768795</v>
+        <v>-2.3247406238894901</v>
       </c>
       <c r="G13">
-        <v>3.04105289544369</v>
+        <v>6.78053457689892</v>
       </c>
       <c r="H13">
-        <v>6.45167698799606</v>
+        <v>2.0515929877922501</v>
       </c>
       <c r="I13">
-        <v>-1130.0065867911401</v>
+        <v>0.477552532187901</v>
       </c>
       <c r="J13">
-        <v>1142.9099407671299</v>
+        <v>3.6256334433965902</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1410,31 +1410,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.71822457109173299</v>
+        <v>1.8444613490220001</v>
       </c>
       <c r="C14">
-        <v>-2.2649225152541699</v>
+        <v>-0.78914793009435702</v>
       </c>
       <c r="D14">
-        <v>3.7013716574376399</v>
+        <v>4.4780706281383598</v>
       </c>
       <c r="E14">
-        <v>2.1135670890345599</v>
+        <v>1.4044194059725501</v>
       </c>
       <c r="F14">
-        <v>-6.2942651553705096</v>
+        <v>0.481452694832331</v>
       </c>
       <c r="G14">
-        <v>10.5213993334396</v>
+        <v>2.3273861171127699</v>
       </c>
       <c r="H14">
-        <v>1.5323637553128799</v>
+        <v>1.73522036265754</v>
       </c>
       <c r="I14">
-        <v>0.900428273454425</v>
+        <v>-5.6895927059239099E-2</v>
       </c>
       <c r="J14">
-        <v>2.1642992371713401</v>
+        <v>3.5273366523743199</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1442,31 +1442,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.82939871913001995</v>
+        <v>1.83962290440062</v>
       </c>
       <c r="C15">
-        <v>-2.1447293104257401</v>
+        <v>1.53792906198072</v>
       </c>
       <c r="D15">
-        <v>3.8035267486857798</v>
+        <v>2.1413167468205101</v>
       </c>
       <c r="E15">
-        <v>1.0376046488795101</v>
+        <v>1.56967349451768</v>
       </c>
       <c r="F15">
-        <v>-3.8376233710515302</v>
+        <v>-0.59077160845690302</v>
       </c>
       <c r="G15">
-        <v>5.9128326688105597</v>
+        <v>3.7301185974922699</v>
       </c>
       <c r="H15">
-        <v>0.631685271606098</v>
+        <v>1.59822140233841</v>
       </c>
       <c r="I15">
-        <v>-6.0130053063121602</v>
+        <v>0.65536844685279205</v>
       </c>
       <c r="J15">
-        <v>7.2763758495243502</v>
+        <v>2.54107435782403</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1474,31 +1474,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.40984024279119</v>
+        <v>1.70964678756121</v>
       </c>
       <c r="C16">
-        <v>-1.63569297226441</v>
+        <v>0.17912884734658099</v>
       </c>
       <c r="D16">
-        <v>4.4553734578468003</v>
+        <v>3.2401647277758401</v>
       </c>
       <c r="E16">
-        <v>6.8042705350379702</v>
+        <v>1.4272846701509601</v>
       </c>
       <c r="F16">
-        <v>-1190.79948892586</v>
+        <v>-0.58775995438098505</v>
       </c>
       <c r="G16">
-        <v>1204.4080299959301</v>
+        <v>3.4423292946828998</v>
       </c>
       <c r="H16">
-        <v>1.49427945987696</v>
+        <v>1.30920533918032</v>
       </c>
       <c r="I16">
-        <v>-3.92129824319953</v>
+        <v>3.9826604507617897E-3</v>
       </c>
       <c r="J16">
-        <v>6.9098571629534504</v>
+        <v>2.61442801790988</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1506,31 +1506,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.778826570138483</v>
+        <v>1.50565528914182</v>
       </c>
       <c r="C17">
-        <v>-1.0644513126236701</v>
+        <v>0.74164069256050302</v>
       </c>
       <c r="D17">
-        <v>2.6221044529006301</v>
+        <v>2.2696698857231299</v>
       </c>
       <c r="E17">
-        <v>1.1082523761165299</v>
+        <v>1.8946731562035799</v>
       </c>
       <c r="F17">
-        <v>-1.9107616633412801</v>
+        <v>0.51065756319350197</v>
       </c>
       <c r="G17">
-        <v>4.1272664155743399</v>
+        <v>3.2786887492136598</v>
       </c>
       <c r="H17">
-        <v>7.6965546031650698</v>
+        <v>1.3437507566532001</v>
       </c>
       <c r="I17">
-        <v>-9403.7413837384101</v>
+        <v>-0.12859275331105999</v>
       </c>
       <c r="J17">
-        <v>9419.1344929447296</v>
+        <v>2.8160942666174602</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1538,31 +1538,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.0821409428082398</v>
+        <v>1.67506823757098</v>
       </c>
       <c r="C18">
-        <v>-34.3164973588081</v>
+        <v>0.43656672843726901</v>
       </c>
       <c r="D18">
-        <v>40.480779244424603</v>
+        <v>2.9135697467046899</v>
       </c>
       <c r="E18">
-        <v>1.0520300937484499</v>
+        <v>2.2531151554747102</v>
       </c>
       <c r="F18">
-        <v>-1.3934294714511599</v>
+        <v>-0.52215994931017795</v>
       </c>
       <c r="G18">
-        <v>3.4974896589480502</v>
+        <v>5.0283902602595996</v>
       </c>
       <c r="H18">
-        <v>6.81083239428889</v>
+        <v>1.6130139503322001</v>
       </c>
       <c r="I18">
-        <v>-1929.85373377159</v>
+        <v>0.65239949263978503</v>
       </c>
       <c r="J18">
-        <v>1943.4753985601701</v>
+        <v>2.5736284080246201</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1570,31 +1570,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.0605807297793299</v>
+        <v>1.71187707850354</v>
       </c>
       <c r="C19">
-        <v>-3.2308911835038399</v>
+        <v>1.07460277149493</v>
       </c>
       <c r="D19">
-        <v>5.3520526430625104</v>
+        <v>2.34915138551216</v>
       </c>
       <c r="E19">
-        <v>1.11442163312096</v>
+        <v>1.7071436315186801</v>
       </c>
       <c r="F19">
-        <v>0.34638526842163297</v>
+        <v>-1.9065515194835301</v>
       </c>
       <c r="G19">
-        <v>1.88245799782028</v>
+        <v>5.3208387825208803</v>
       </c>
       <c r="H19">
-        <v>0.95663333874561196</v>
+        <v>1.7050331162828201</v>
       </c>
       <c r="I19">
-        <v>-0.17708361789725099</v>
+        <v>0.78268107381975105</v>
       </c>
       <c r="J19">
-        <v>2.0903502953884701</v>
+        <v>2.6273851587458998</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1602,31 +1602,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.15006519507639</v>
+        <v>1.5584466468614799</v>
       </c>
       <c r="C20">
-        <v>-2.0252900996291001</v>
+        <v>0.63855967521221801</v>
       </c>
       <c r="D20">
-        <v>4.3254204897818802</v>
+        <v>2.4783336185107401</v>
       </c>
       <c r="E20">
-        <v>0.201217387147334</v>
+        <v>1.77263976930578</v>
       </c>
       <c r="F20">
-        <v>-4.1076520899361402</v>
+        <v>1.48211278898034</v>
       </c>
       <c r="G20">
-        <v>4.5100868642308001</v>
+        <v>2.0631667496312298</v>
       </c>
       <c r="H20">
-        <v>1.63224315407336</v>
+        <v>1.45711470768276</v>
       </c>
       <c r="I20">
-        <v>-6.8308063050509897</v>
+        <v>0.38466586172748901</v>
       </c>
       <c r="J20">
-        <v>10.095292613197699</v>
+        <v>2.5295635536380301</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1634,31 +1634,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.10516172370974</v>
+        <v>1.80902451763324</v>
       </c>
       <c r="C21">
-        <v>-2050.4077369911902</v>
+        <v>-0.52427609936847497</v>
       </c>
       <c r="D21">
-        <v>2064.61806043861</v>
+        <v>4.1423251346349499</v>
       </c>
       <c r="E21">
-        <v>7.2361302036183099</v>
+        <v>1.5331292900870299</v>
       </c>
       <c r="F21">
-        <v>-3650.20460812389</v>
+        <v>0.973113749437585</v>
       </c>
       <c r="G21">
-        <v>3664.6768685311299</v>
+        <v>2.0931448307364802</v>
       </c>
       <c r="H21">
-        <v>0.989901844711914</v>
+        <v>1.9159291275129</v>
       </c>
       <c r="I21">
-        <v>-2.04789066027497</v>
+        <v>0.52289718740410296</v>
       </c>
       <c r="J21">
-        <v>4.0276943496988</v>
+        <v>3.3089610676216998</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1666,31 +1666,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.3599372661488296</v>
+        <v>1.3662067679688299</v>
       </c>
       <c r="C22">
-        <v>-2396.5992473053998</v>
+        <v>0.93526783542120195</v>
       </c>
       <c r="D22">
-        <v>2411.3191218376901</v>
+        <v>1.79714570051645</v>
       </c>
       <c r="E22">
-        <v>0.74272882027068199</v>
+        <v>2.1113970548024699</v>
       </c>
       <c r="F22">
-        <v>-3.7977867416119402</v>
+        <v>-0.21879784726353199</v>
       </c>
       <c r="G22">
-        <v>5.2832443821532999</v>
+        <v>4.4415919568684696</v>
       </c>
       <c r="H22">
-        <v>1.19275374931584</v>
+        <v>2.1735716216298901</v>
       </c>
       <c r="I22">
-        <v>-1.1197960902938799</v>
+        <v>0.26230295996091602</v>
       </c>
       <c r="J22">
-        <v>3.5053035889255599</v>
+        <v>4.0848402832988704</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1698,31 +1698,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.0259606343549801</v>
+        <v>1.4796265129537101</v>
       </c>
       <c r="C23">
-        <v>4.7381582708194703E-3</v>
+        <v>1.22547494678439</v>
       </c>
       <c r="D23">
-        <v>2.04718311043914</v>
+        <v>1.73377807912302</v>
       </c>
       <c r="E23">
-        <v>1.3405715486804199</v>
+        <v>2.5635650135150998</v>
       </c>
       <c r="F23">
-        <v>0.113766111966358</v>
+        <v>1.80985064452747</v>
       </c>
       <c r="G23">
-        <v>2.5673769853944801</v>
+        <v>3.31727938250273</v>
       </c>
       <c r="H23">
-        <v>0.83816261562721595</v>
+        <v>3.0083533115363599</v>
       </c>
       <c r="I23">
-        <v>-0.33944290677275502</v>
+        <v>-2.2580113785049098</v>
       </c>
       <c r="J23">
-        <v>2.0157681380271901</v>
+        <v>8.2747180015776305</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1730,31 +1730,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.4365998895755503</v>
+        <v>1.4329775833196099</v>
       </c>
       <c r="C24">
-        <v>-4716.9247437057902</v>
+        <v>0.14428819606075499</v>
       </c>
       <c r="D24">
-        <v>4731.7979434849403</v>
+        <v>2.7216669705784602</v>
       </c>
       <c r="E24">
-        <v>6.8229996845560201</v>
+        <v>1.9334391106403199</v>
       </c>
       <c r="F24">
-        <v>-1872.79618019904</v>
+        <v>0.603374279881007</v>
       </c>
       <c r="G24">
-        <v>1886.4421795681601</v>
+        <v>3.2635039413996401</v>
       </c>
       <c r="H24">
-        <v>6.7423951629663197</v>
+        <v>2.6989551516032702</v>
       </c>
       <c r="I24">
-        <v>-1397.4543932148999</v>
+        <v>1.09547534212377</v>
       </c>
       <c r="J24">
-        <v>1410.9391835408401</v>
+        <v>4.3024349610827697</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1762,31 +1762,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.1737394769841401</v>
+        <v>1.76530613660552</v>
       </c>
       <c r="C25">
-        <v>-1.30969491950341</v>
+        <v>-0.67360544738220496</v>
       </c>
       <c r="D25">
-        <v>3.6571738734716899</v>
+        <v>4.2042177205932498</v>
       </c>
       <c r="E25">
-        <v>3.2953985161740702</v>
+        <v>1.9104577452285501</v>
       </c>
       <c r="F25">
-        <v>-33.832099017862603</v>
+        <v>-2.28536946612049</v>
       </c>
       <c r="G25">
-        <v>40.422896050210703</v>
+        <v>6.1062849565775803</v>
       </c>
       <c r="H25">
-        <v>1.1798679072520999</v>
+        <v>1.57743752355142</v>
       </c>
       <c r="I25">
-        <v>-3.5413015085853901</v>
+        <v>-0.29127122320604698</v>
       </c>
       <c r="J25">
-        <v>5.9010373230895796</v>
+        <v>3.4461462703088799</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1794,31 +1794,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.725357904864255</v>
+        <v>2.8219101034275198</v>
       </c>
       <c r="C26">
-        <v>-0.69374214160738901</v>
+        <v>-1.2018308766627901</v>
       </c>
       <c r="D26">
-        <v>2.1444579513358999</v>
+        <v>6.8456510835178204</v>
       </c>
       <c r="E26">
-        <v>5.26565984201787</v>
+        <v>1.9596516922799101</v>
       </c>
       <c r="F26">
-        <v>-695.15966601176399</v>
+        <v>-8.3274727692359607E-2</v>
       </c>
       <c r="G26">
-        <v>705.69098569580001</v>
+        <v>4.00257811225217</v>
       </c>
       <c r="H26">
-        <v>0.93943797185743605</v>
+        <v>1.9603787643863699</v>
       </c>
       <c r="I26">
-        <v>-0.31293362021413201</v>
+        <v>0.11379570659950999</v>
       </c>
       <c r="J26">
-        <v>2.1918095639290001</v>
+        <v>3.80696182217322</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1826,31 +1826,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.3829855193887099</v>
+        <v>1.5908008680814001</v>
       </c>
       <c r="C27">
-        <v>-23.835671213462401</v>
+        <v>1.1752173928524701</v>
       </c>
       <c r="D27">
-        <v>28.601642252239799</v>
+        <v>2.0063843433103399</v>
       </c>
       <c r="E27">
-        <v>7.1717996002873203</v>
+        <v>2.3709334702062201</v>
       </c>
       <c r="F27">
-        <v>-610.14957724474198</v>
+        <v>0.65660491761008599</v>
       </c>
       <c r="G27">
-        <v>624.49317644531698</v>
+        <v>4.0852620228023602</v>
       </c>
       <c r="H27">
-        <v>0.819117378969479</v>
+        <v>1.898323075253</v>
       </c>
       <c r="I27">
-        <v>-4.4751549292538204</v>
+        <v>-0.17811991023264301</v>
       </c>
       <c r="J27">
-        <v>6.1133896871927798</v>
+        <v>3.9747660607386499</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1859,19 +1859,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>2.0199449131053004</v>
+        <v>1.735908783470365</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>2.9992895636883414</v>
+        <v>1.8575601079030111</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>2.143561527275768</v>
+        <v>2.082997416965557</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1882,19 +1882,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>2.0880040644448581</v>
+        <v>0.35912251161943864</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>2.5900163164623939</v>
+        <v>0.3654196025302624</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>2.2440612227607737</v>
+        <v>1.0916610877187836</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1925,19 +1925,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>1.1680294736504537</v>
+        <v>0.20089313299991401</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>1.4488551274290633</v>
+        <v>0.20441572565542879</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>1.2553278480123768</v>
+        <v>0.61067521246988754</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1963,7 +1963,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="B3" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2026,31 +2026,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.48165077747250201</v>
+        <v>0.39382264477276702</v>
       </c>
       <c r="C3">
-        <v>0.36311495520056702</v>
+        <v>0.33930066472836501</v>
       </c>
       <c r="D3">
-        <v>0.600186599744438</v>
+        <v>0.44834462481716902</v>
       </c>
       <c r="E3">
-        <v>0.29355704208830702</v>
+        <v>0.43496115693857701</v>
       </c>
       <c r="F3">
-        <v>0.14199012543203701</v>
+        <v>0.39295306493961102</v>
       </c>
       <c r="G3">
-        <v>0.445123958744577</v>
+        <v>0.476969248937544</v>
       </c>
       <c r="H3">
-        <v>0.32584555845415097</v>
+        <v>0.34951041062895699</v>
       </c>
       <c r="I3">
-        <v>0.19181395968211901</v>
+        <v>0.31352919047970701</v>
       </c>
       <c r="J3">
-        <v>0.459877157226183</v>
+        <v>0.38549163077820803</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2058,31 +2058,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.73876321436585402</v>
+        <v>0.50784336960974197</v>
       </c>
       <c r="C4">
-        <v>0.58400905630074296</v>
+        <v>0.47667655154803001</v>
       </c>
       <c r="D4">
-        <v>0.89351737243096396</v>
+        <v>0.53901018767145503</v>
       </c>
       <c r="E4">
-        <v>0.24882911543650399</v>
+        <v>0.38244404468940102</v>
       </c>
       <c r="F4">
-        <v>0.177372903129424</v>
+        <v>0.33133773593030103</v>
       </c>
       <c r="G4">
-        <v>0.32028532774358398</v>
+        <v>0.43355035344850101</v>
       </c>
       <c r="H4">
-        <v>0.356269746618258</v>
+        <v>0.32724523995920901</v>
       </c>
       <c r="I4">
-        <v>0.13921826998762599</v>
+        <v>0.27297531291037702</v>
       </c>
       <c r="J4">
-        <v>0.57332122324889001</v>
+        <v>0.38151516700804</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2090,31 +2090,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.441455079521204</v>
+        <v>0.41400933809663398</v>
       </c>
       <c r="C5">
-        <v>1.7112175924399599E-2</v>
+        <v>0.38388109332287701</v>
       </c>
       <c r="D5">
-        <v>0.86579798311800804</v>
+        <v>0.44413758287039101</v>
       </c>
       <c r="E5">
-        <v>0.52137619773876598</v>
+        <v>0.33433734480708199</v>
       </c>
       <c r="F5">
-        <v>-9.0920049309361706E-2</v>
+        <v>0.29353607146336902</v>
       </c>
       <c r="G5">
-        <v>1.13367244478689</v>
+        <v>0.37513861815079602</v>
       </c>
       <c r="H5">
-        <v>0.59032531688471501</v>
+        <v>0.33899014014568002</v>
       </c>
       <c r="I5">
-        <v>5.8111287931632997E-2</v>
+        <v>0.27430228763212899</v>
       </c>
       <c r="J5">
-        <v>1.1225393458377999</v>
+        <v>0.40367799265923099</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2122,31 +2122,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.42515000179397899</v>
+        <v>0.358407773299319</v>
       </c>
       <c r="C6">
-        <v>0.25641718240964101</v>
+        <v>0.30569656126649403</v>
       </c>
       <c r="D6">
-        <v>0.59388282117831803</v>
+        <v>0.41111898533214403</v>
       </c>
       <c r="E6">
-        <v>0.28635096391285902</v>
+        <v>0.38447643387980102</v>
       </c>
       <c r="F6">
-        <v>0.16557657212902299</v>
+        <v>0.35526232989837098</v>
       </c>
       <c r="G6">
-        <v>0.407125355696694</v>
+        <v>0.41369053786123</v>
       </c>
       <c r="H6">
-        <v>0.43741432814092002</v>
+        <v>0.29347296808348999</v>
       </c>
       <c r="I6">
-        <v>0.20059430841482301</v>
+        <v>0.23249466221158199</v>
       </c>
       <c r="J6">
-        <v>0.67423434786701697</v>
+        <v>0.35445127395539699</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2154,31 +2154,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.35902126195474299</v>
+        <v>0.52830978742829104</v>
       </c>
       <c r="C7">
-        <v>0.26829448512460202</v>
+        <v>0.46201459905909398</v>
       </c>
       <c r="D7">
-        <v>0.44974803878488501</v>
+        <v>0.59460497579748905</v>
       </c>
       <c r="E7">
-        <v>0.30956480743655901</v>
+        <v>0.304484748420569</v>
       </c>
       <c r="F7">
-        <v>8.7557471429615896E-2</v>
+        <v>0.26308496380569302</v>
       </c>
       <c r="G7">
-        <v>0.53157214344350101</v>
+        <v>0.34588453303544398</v>
       </c>
       <c r="H7">
-        <v>0.291643457016795</v>
+        <v>0.66198041375952199</v>
       </c>
       <c r="I7">
-        <v>0.16571397227845799</v>
+        <v>0.51064743443264204</v>
       </c>
       <c r="J7">
-        <v>0.41757294175513199</v>
+        <v>0.81331339308640105</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2186,31 +2186,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.36584701769539901</v>
+        <v>0.453154943874919</v>
       </c>
       <c r="C8">
-        <v>0.26780161924203799</v>
+        <v>0.41014351190360199</v>
       </c>
       <c r="D8">
-        <v>0.46389241614876098</v>
+        <v>0.49616637584623502</v>
       </c>
       <c r="E8">
-        <v>0.64567034057995598</v>
+        <v>0.31839089399392001</v>
       </c>
       <c r="F8">
-        <v>0.12525246673027299</v>
+        <v>0.25122685658638699</v>
       </c>
       <c r="G8">
-        <v>1.1660882144296401</v>
+        <v>0.38555493140145403</v>
       </c>
       <c r="H8">
-        <v>0.34522368199218501</v>
+        <v>0.47683831655334802</v>
       </c>
       <c r="I8">
-        <v>0.19822490248710301</v>
+        <v>0.353568250052404</v>
       </c>
       <c r="J8">
-        <v>0.492222461497268</v>
+        <v>0.60010838305429204</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2218,31 +2218,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.31468648145161898</v>
+        <v>0.56173320333468801</v>
       </c>
       <c r="C9">
-        <v>7.0086154846743201E-2</v>
+        <v>0.51784421911525702</v>
       </c>
       <c r="D9">
-        <v>0.559286808056494</v>
+        <v>0.60562218755412001</v>
       </c>
       <c r="E9">
-        <v>0.32170366403593198</v>
+        <v>0.38690359977090699</v>
       </c>
       <c r="F9">
-        <v>0.198176507279896</v>
+        <v>0.30208081109155299</v>
       </c>
       <c r="G9">
-        <v>0.44523082079196802</v>
+        <v>0.47172638845026099</v>
       </c>
       <c r="H9">
-        <v>0.32257231797834801</v>
+        <v>0.37516121041397699</v>
       </c>
       <c r="I9">
-        <v>0.262700340896803</v>
+        <v>0.33181015215568199</v>
       </c>
       <c r="J9">
-        <v>0.38244429505989402</v>
+        <v>0.41851226867227098</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2250,31 +2250,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.41735233934544302</v>
+        <v>0.47521053346943598</v>
       </c>
       <c r="C10">
-        <v>0.177664778197069</v>
+        <v>0.44166376067536001</v>
       </c>
       <c r="D10">
-        <v>0.657039900493817</v>
+        <v>0.50875730626351101</v>
       </c>
       <c r="E10">
-        <v>0.40930126818392298</v>
+        <v>0.483301426842287</v>
       </c>
       <c r="F10">
-        <v>0.28605420508213297</v>
+        <v>0.37258401925377499</v>
       </c>
       <c r="G10">
-        <v>0.53254833128571399</v>
+        <v>0.59401883443079895</v>
       </c>
       <c r="H10">
-        <v>0.51890244019649201</v>
+        <v>0.45973555242311298</v>
       </c>
       <c r="I10">
-        <v>0.31534326691826498</v>
+        <v>0.33899657850356402</v>
       </c>
       <c r="J10">
-        <v>0.72246161347471904</v>
+        <v>0.58047452634266195</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2282,31 +2282,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.373000775350949</v>
+        <v>0.474670960416542</v>
       </c>
       <c r="C11">
-        <v>0.306946120598591</v>
+        <v>0.44304770907491903</v>
       </c>
       <c r="D11">
-        <v>0.439055430103307</v>
+        <v>0.50629421175816602</v>
       </c>
       <c r="E11">
-        <v>0.23289552864628801</v>
+        <v>0.25505604660415898</v>
       </c>
       <c r="F11">
-        <v>0.15744918857774001</v>
+        <v>0.188407236099118</v>
       </c>
       <c r="G11">
-        <v>0.30834186871483699</v>
+        <v>0.32170485710920099</v>
       </c>
       <c r="H11">
-        <v>0.17095274859944601</v>
+        <v>0.25955711988510799</v>
       </c>
       <c r="I11">
-        <v>8.3579934586652693E-2</v>
+        <v>0.19266385166085401</v>
       </c>
       <c r="J11">
-        <v>0.25832556261223899</v>
+        <v>0.326450388109362</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2314,31 +2314,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.48563477053058601</v>
+        <v>0.405967913326997</v>
       </c>
       <c r="C12">
-        <v>0.29938000737215298</v>
+        <v>0.38265814659470299</v>
       </c>
       <c r="D12">
-        <v>0.67188953368901805</v>
+        <v>0.42927768005929201</v>
       </c>
       <c r="E12">
-        <v>0.28203297226913199</v>
+        <v>0.354359728006997</v>
       </c>
       <c r="F12">
-        <v>0.167565569935377</v>
+        <v>0.314815361936787</v>
       </c>
       <c r="G12">
-        <v>0.39650037460288601</v>
+        <v>0.393904094077206</v>
       </c>
       <c r="H12">
-        <v>0.16153960124261499</v>
+        <v>0.26349721193270098</v>
       </c>
       <c r="I12">
-        <v>5.1115517693744998E-2</v>
+        <v>0.19358212293976601</v>
       </c>
       <c r="J12">
-        <v>0.27196368479148603</v>
+        <v>0.33341230092563701</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2346,31 +2346,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.55951436419900902</v>
+        <v>0.45954216656293101</v>
       </c>
       <c r="C13">
-        <v>-3.1856845767928799E-2</v>
+        <v>0.40855983346319802</v>
       </c>
       <c r="D13">
-        <v>1.1508855741659501</v>
+        <v>0.510524499662665</v>
       </c>
       <c r="E13">
-        <v>0.220259257805795</v>
+        <v>0.38740527939779501</v>
       </c>
       <c r="F13">
-        <v>0.101127042389707</v>
+        <v>0.332034310074105</v>
       </c>
       <c r="G13">
-        <v>0.33939147322188401</v>
+        <v>0.44277624872148502</v>
       </c>
       <c r="H13">
-        <v>0.150975831389943</v>
+        <v>0.40924188951539398</v>
       </c>
       <c r="I13">
-        <v>4.0517767611230902E-2</v>
+        <v>0.38428851918934898</v>
       </c>
       <c r="J13">
-        <v>0.26143389516865501</v>
+        <v>0.43419525984143997</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2378,31 +2378,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.29667173172809802</v>
+        <v>0.45540076887648501</v>
       </c>
       <c r="C14">
-        <v>0.23389185544590499</v>
+        <v>0.41237480190478598</v>
       </c>
       <c r="D14">
-        <v>0.35945160801029102</v>
+        <v>0.49842673584818298</v>
       </c>
       <c r="E14">
-        <v>0.405060135210702</v>
+        <v>0.38505406358796701</v>
       </c>
       <c r="F14">
-        <v>1.9095447487623901E-2</v>
+        <v>0.315829239391404</v>
       </c>
       <c r="G14">
-        <v>0.79102482293377996</v>
+        <v>0.45427888778453002</v>
       </c>
       <c r="H14">
-        <v>0.20911182564556299</v>
+        <v>0.28061040205334398</v>
       </c>
       <c r="I14">
-        <v>6.8513104168527003E-2</v>
+        <v>0.21657940651607999</v>
       </c>
       <c r="J14">
-        <v>0.34971054712259902</v>
+        <v>0.34464139759060902</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2410,31 +2410,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.28010215274321998</v>
+        <v>0.45150601703981202</v>
       </c>
       <c r="C15">
-        <v>0.157900374262884</v>
+        <v>0.42660847630548399</v>
       </c>
       <c r="D15">
-        <v>0.40230393122355701</v>
+        <v>0.47640355777413901</v>
       </c>
       <c r="E15">
-        <v>0.42864268757342</v>
+        <v>0.30645383005614901</v>
       </c>
       <c r="F15">
-        <v>0.339754498972337</v>
+        <v>0.24955577160445599</v>
       </c>
       <c r="G15">
-        <v>0.517530876174502</v>
+        <v>0.363351888507842</v>
       </c>
       <c r="H15">
-        <v>0.21518091116094801</v>
+        <v>0.35344065363566002</v>
       </c>
       <c r="I15">
-        <v>0.130149869378195</v>
+        <v>0.31915644933815501</v>
       </c>
       <c r="J15">
-        <v>0.30021195294370001</v>
+        <v>0.38772485793316502</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2442,31 +2442,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.54905176162547797</v>
+        <v>0.36709275651995998</v>
       </c>
       <c r="C16">
-        <v>0.45824131162340298</v>
+        <v>0.32926047622806698</v>
       </c>
       <c r="D16">
-        <v>0.63986221162755197</v>
+        <v>0.40492503681185299</v>
       </c>
       <c r="E16">
-        <v>0.46307754212487601</v>
+        <v>0.30582961897660599</v>
       </c>
       <c r="F16">
-        <v>0.34323767066897998</v>
+        <v>0.260502442897043</v>
       </c>
       <c r="G16">
-        <v>0.58291741358077198</v>
+        <v>0.35115679505616998</v>
       </c>
       <c r="H16">
-        <v>0.31480265871031898</v>
+        <v>0.28214816551373301</v>
       </c>
       <c r="I16">
-        <v>0.17236263415415001</v>
+        <v>0.226544647686135</v>
       </c>
       <c r="J16">
-        <v>0.45724268326648798</v>
+        <v>0.33775168334133099</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2474,31 +2474,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.41043885421794801</v>
+        <v>0.379911132252154</v>
       </c>
       <c r="C17">
-        <v>0.309948211277982</v>
+        <v>0.32144006261374197</v>
       </c>
       <c r="D17">
-        <v>0.51092949715791403</v>
+        <v>0.43838220189056598</v>
       </c>
       <c r="E17">
-        <v>0.47253546512540201</v>
+        <v>0.31861567129261298</v>
       </c>
       <c r="F17">
-        <v>0.30665854453849001</v>
+        <v>0.26012555897990403</v>
       </c>
       <c r="G17">
-        <v>0.63841238571231496</v>
+        <v>0.37710578360532199</v>
       </c>
       <c r="H17">
-        <v>0.24295945245678199</v>
+        <v>0.323999876714892</v>
       </c>
       <c r="I17">
-        <v>0.17088645697037499</v>
+        <v>0.26839738459468199</v>
       </c>
       <c r="J17">
-        <v>0.31503244794319002</v>
+        <v>0.37960236883510301</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2506,31 +2506,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.39538336063303098</v>
+        <v>0.48835526974462401</v>
       </c>
       <c r="C18">
-        <v>0.31129858496762902</v>
+        <v>0.40900761239421801</v>
       </c>
       <c r="D18">
-        <v>0.47946813629843199</v>
+        <v>0.56770292709502901</v>
       </c>
       <c r="E18">
-        <v>0.32854476221154999</v>
+        <v>0.324184913671973</v>
       </c>
       <c r="F18">
-        <v>0.11945258752101399</v>
+        <v>0.258717310464395</v>
       </c>
       <c r="G18">
-        <v>0.53763693690208603</v>
+        <v>0.38965251687955199</v>
       </c>
       <c r="H18">
-        <v>0.37229668102761299</v>
+        <v>0.52955977581720004</v>
       </c>
       <c r="I18">
-        <v>0.172675087988442</v>
+        <v>0.471844290371011</v>
       </c>
       <c r="J18">
-        <v>0.57191827406678497</v>
+        <v>0.58727526126338803</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2538,31 +2538,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.36382512023187702</v>
+        <v>0.56630041027241695</v>
       </c>
       <c r="C19">
-        <v>0.26790096942823799</v>
+        <v>0.52577534185560204</v>
       </c>
       <c r="D19">
-        <v>0.45974927103551699</v>
+        <v>0.60682547868923098</v>
       </c>
       <c r="E19">
-        <v>0.52605211049338696</v>
+        <v>0.53130585864204505</v>
       </c>
       <c r="F19">
-        <v>0.33124627345068303</v>
+        <v>0.49858806122478699</v>
       </c>
       <c r="G19">
-        <v>0.720857947536092</v>
+        <v>0.56402365605930205</v>
       </c>
       <c r="H19">
-        <v>0.127767679116948</v>
+        <v>0.44856835023026098</v>
       </c>
       <c r="I19">
-        <v>-0.155489569385967</v>
+        <v>0.415658774408728</v>
       </c>
       <c r="J19">
-        <v>0.41102492761986398</v>
+        <v>0.48147792605179401</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2570,31 +2570,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.43712524720910101</v>
+        <v>0.50575028348976103</v>
       </c>
       <c r="C20">
-        <v>0.369681518889725</v>
+        <v>0.41998932675730999</v>
       </c>
       <c r="D20">
-        <v>0.50456897552847702</v>
+        <v>0.59151124022221202</v>
       </c>
       <c r="E20">
-        <v>0.24770492127007199</v>
+        <v>0.334735399334744</v>
       </c>
       <c r="F20">
-        <v>8.5227225214436805E-2</v>
+        <v>0.26423644904299098</v>
       </c>
       <c r="G20">
-        <v>0.41018261732570699</v>
+        <v>0.40523434962649801</v>
       </c>
       <c r="H20">
-        <v>0.35473388768956798</v>
+        <v>0.50896449528052701</v>
       </c>
       <c r="I20">
-        <v>0.30131315369771</v>
+        <v>0.47120095750434499</v>
       </c>
       <c r="J20">
-        <v>0.40815462168142702</v>
+        <v>0.54672803305670803</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2602,31 +2602,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.31375014076176</v>
+        <v>0.41757731242354201</v>
       </c>
       <c r="C21">
-        <v>0.248248269460494</v>
+        <v>0.36716194885137998</v>
       </c>
       <c r="D21">
-        <v>0.379252012063025</v>
+        <v>0.46799267599570399</v>
       </c>
       <c r="E21">
-        <v>0.15662857498874699</v>
+        <v>0.27359680040490802</v>
       </c>
       <c r="F21">
-        <v>4.6707776814344099E-2</v>
+        <v>0.20018951355533099</v>
       </c>
       <c r="G21">
-        <v>0.26654937316315003</v>
+        <v>0.34700408725448501</v>
       </c>
       <c r="H21">
-        <v>0.37470929420080801</v>
+        <v>0.43845589418146602</v>
       </c>
       <c r="I21">
-        <v>0.23416963628641599</v>
+        <v>0.32696333300689301</v>
       </c>
       <c r="J21">
-        <v>0.51524895211520005</v>
+        <v>0.54994845535603898</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2634,31 +2634,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.33904024213429201</v>
+        <v>0.36604831817745098</v>
       </c>
       <c r="C22">
-        <v>0.18092294664695399</v>
+        <v>0.31673819776063</v>
       </c>
       <c r="D22">
-        <v>0.49715753762162901</v>
+        <v>0.41535843859427202</v>
       </c>
       <c r="E22">
-        <v>0.48311132817184799</v>
+        <v>0.401580144099624</v>
       </c>
       <c r="F22">
-        <v>-0.158082978281958</v>
+        <v>0.32213144748211697</v>
       </c>
       <c r="G22">
-        <v>1.1243056346256499</v>
+        <v>0.48102884071713098</v>
       </c>
       <c r="H22">
-        <v>0.219441269976384</v>
+        <v>0.28455644782642597</v>
       </c>
       <c r="I22">
-        <v>0.13312824550701399</v>
+        <v>0.22181791015945901</v>
       </c>
       <c r="J22">
-        <v>0.30575429444575403</v>
+        <v>0.34729498549339299</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2666,31 +2666,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.29732472602918097</v>
+        <v>0.58504920034696795</v>
       </c>
       <c r="C23">
-        <v>0.20558904128299499</v>
+        <v>0.490236797650419</v>
       </c>
       <c r="D23">
-        <v>0.38906041077536602</v>
+        <v>0.67986160304351695</v>
       </c>
       <c r="E23">
-        <v>0.410349538780302</v>
+        <v>0.30400465735878202</v>
       </c>
       <c r="F23">
-        <v>0.32510650834279298</v>
+        <v>0.24835115001844199</v>
       </c>
       <c r="G23">
-        <v>0.49559256921781197</v>
+        <v>0.35965816469912298</v>
       </c>
       <c r="H23">
-        <v>0.268063523064691</v>
+        <v>0.32305578535019502</v>
       </c>
       <c r="I23">
-        <v>0.117939356395038</v>
+        <v>0.27411682704129198</v>
       </c>
       <c r="J23">
-        <v>0.418187689734344</v>
+        <v>0.37199474365909901</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2698,31 +2698,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.211291741082103</v>
+        <v>0.46669748887364998</v>
       </c>
       <c r="C24">
-        <v>9.7837643413405798E-2</v>
+        <v>0.38264798059921201</v>
       </c>
       <c r="D24">
-        <v>0.32474583875080099</v>
+        <v>0.55074699714808795</v>
       </c>
       <c r="E24">
-        <v>0.23058985532913101</v>
+        <v>0.43568609062211</v>
       </c>
       <c r="F24">
-        <v>0.167508283152142</v>
+        <v>0.41259184013636302</v>
       </c>
       <c r="G24">
-        <v>0.29367142750612002</v>
+        <v>0.45878034110785698</v>
       </c>
       <c r="H24">
-        <v>0.24391622723672399</v>
+        <v>0.27544691934527998</v>
       </c>
       <c r="I24">
-        <v>6.5543355110577003E-2</v>
+        <v>0.20110370366076399</v>
       </c>
       <c r="J24">
-        <v>0.42228909936287101</v>
+        <v>0.349790135029796</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2730,31 +2730,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.54673272644996296</v>
+        <v>0.32291354062529798</v>
       </c>
       <c r="C25">
-        <v>0.37922377430003301</v>
+        <v>0.27208621584311998</v>
       </c>
       <c r="D25">
-        <v>0.71424167859989296</v>
+        <v>0.37374086540747598</v>
       </c>
       <c r="E25">
-        <v>1.25028730290712</v>
+        <v>0.42677363127003098</v>
       </c>
       <c r="F25">
-        <v>-1.14364278448993</v>
+        <v>0.37661475680940198</v>
       </c>
       <c r="G25">
-        <v>3.6442173903041701</v>
+        <v>0.47693250573065998</v>
       </c>
       <c r="H25">
-        <v>0.32387787744051</v>
+        <v>0.37779372323905402</v>
       </c>
       <c r="I25">
-        <v>0.188755412466938</v>
+        <v>0.31581554990595501</v>
       </c>
       <c r="J25">
-        <v>0.459000342414082</v>
+        <v>0.43977189657215299</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2762,31 +2762,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.322205223976057</v>
+        <v>0.49074713320762597</v>
       </c>
       <c r="C26">
-        <v>0.23265597461807799</v>
+        <v>0.45773526509023699</v>
       </c>
       <c r="D26">
-        <v>0.41175447333403598</v>
+        <v>0.52375900132501496</v>
       </c>
       <c r="E26">
-        <v>0.36414528759585801</v>
+        <v>0.32056880804644899</v>
       </c>
       <c r="F26">
-        <v>0.20042399319097001</v>
+        <v>0.28200052692493</v>
       </c>
       <c r="G26">
-        <v>0.52786658200074599</v>
+        <v>0.35913708916796899</v>
       </c>
       <c r="H26">
-        <v>0.833941818129321</v>
+        <v>0.52946130221745302</v>
       </c>
       <c r="I26">
-        <v>0.18688274267343499</v>
+        <v>0.44206568513169198</v>
       </c>
       <c r="J26">
-        <v>1.4810008935852099</v>
+        <v>0.61685691930321296</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2794,31 +2794,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.45680156495238</v>
+        <v>0.45973251272209098</v>
       </c>
       <c r="C27">
-        <v>0.28622493319180597</v>
+        <v>0.42716420466432198</v>
       </c>
       <c r="D27">
-        <v>0.62737819671295303</v>
+        <v>0.49230082077986098</v>
       </c>
       <c r="E27">
-        <v>0.33881224990721898</v>
+        <v>0.31256752514429098</v>
       </c>
       <c r="F27">
-        <v>0.264211923482641</v>
+        <v>0.25392005503949699</v>
       </c>
       <c r="G27">
-        <v>0.41341257633179601</v>
+        <v>0.37121499524908602</v>
       </c>
       <c r="H27">
-        <v>2.9034639211593799E-2</v>
+        <v>0.30994651057647199</v>
       </c>
       <c r="I27">
-        <v>-0.30097038492390799</v>
+        <v>0.26040152318520698</v>
       </c>
       <c r="J27">
-        <v>0.35903966334709497</v>
+        <v>0.359491497967736</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2827,19 +2827,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.40727282709823109</v>
+        <v>0.45423019115056429</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.39508331679294628</v>
+        <v>0.3602831086343915</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.31206011094326569</v>
+        <v>0.37924955101129848</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2850,19 +2850,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.11265568431286863</v>
+        <v>6.833873097221789E-2</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.21285360929649122</v>
+        <v>6.634673604094353E-2</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>0.16381927402795005</v>
+        <v>0.10368651930888086</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2893,19 +2893,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>6.301958980461872E-2</v>
+        <v>3.8228686105858688E-2</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>0.11907030904045719</v>
+        <v>3.7114364141303813E-2</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>9.1640501891235265E-2</v>
+        <v>5.8002238901387962E-2</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2993,821 +2993,146 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.79873407506031802</v>
-      </c>
-      <c r="C3">
-        <v>-5.9430442737757001E-2</v>
-      </c>
-      <c r="D3">
-        <v>1.6568985928583899</v>
-      </c>
-      <c r="E3">
-        <v>0.62163386059320302</v>
-      </c>
-      <c r="F3">
-        <v>0.54533368293893503</v>
-      </c>
-      <c r="G3">
-        <v>0.69793403824747002</v>
-      </c>
-      <c r="H3">
-        <v>0.56984186202550902</v>
-      </c>
-      <c r="I3">
-        <v>0.38431197116843901</v>
-      </c>
-      <c r="J3">
-        <v>0.75537175288257796</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.94980277103327104</v>
-      </c>
-      <c r="C4">
-        <v>-1.0561209555055599E-3</v>
-      </c>
-      <c r="D4">
-        <v>1.9006616630220501</v>
-      </c>
-      <c r="E4">
-        <v>0.56558104232890605</v>
-      </c>
-      <c r="F4">
-        <v>0.27565352458050102</v>
-      </c>
-      <c r="G4">
-        <v>0.85550856007731102</v>
-      </c>
-      <c r="H4">
-        <v>0.44888205344412402</v>
-      </c>
-      <c r="I4">
-        <v>0.341447740587348</v>
-      </c>
-      <c r="J4">
-        <v>0.55631636630090098</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.61340774888431404</v>
-      </c>
-      <c r="C5">
-        <v>-0.121410623640652</v>
-      </c>
-      <c r="D5">
-        <v>1.3482261214092801</v>
-      </c>
-      <c r="E5">
-        <v>0.71954021326958195</v>
-      </c>
-      <c r="F5">
-        <v>0.49745640739685998</v>
-      </c>
-      <c r="G5">
-        <v>0.94162401914230398</v>
-      </c>
-      <c r="H5">
-        <v>0.58810357660383505</v>
-      </c>
-      <c r="I5">
-        <v>0.40886189630386699</v>
-      </c>
-      <c r="J5">
-        <v>0.76734525690380195</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.3269015749356201</v>
-      </c>
-      <c r="C6">
-        <v>0.27567209345413701</v>
-      </c>
-      <c r="D6">
-        <v>2.3781310564171001</v>
-      </c>
-      <c r="E6">
-        <v>0.37885118211697899</v>
-      </c>
-      <c r="F6">
-        <v>0.20149549864692301</v>
-      </c>
-      <c r="G6">
-        <v>0.55620686558703603</v>
-      </c>
-      <c r="H6">
-        <v>0.41072701547840901</v>
-      </c>
-      <c r="I6">
-        <v>0.310970351596766</v>
-      </c>
-      <c r="J6">
-        <v>0.51048367936005201</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>2.2947724234554698</v>
-      </c>
-      <c r="C7">
-        <v>-0.80166293224711804</v>
-      </c>
-      <c r="D7">
-        <v>5.3912077791580604</v>
-      </c>
-      <c r="E7">
-        <v>0.63222177162659898</v>
-      </c>
-      <c r="F7">
-        <v>0.39643679753392402</v>
-      </c>
-      <c r="G7">
-        <v>0.86800674571927505</v>
-      </c>
-      <c r="H7">
-        <v>0.53086986858073604</v>
-      </c>
-      <c r="I7">
-        <v>0.31912077874051298</v>
-      </c>
-      <c r="J7">
-        <v>0.74261895842095804</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.0101412065198101</v>
-      </c>
-      <c r="C8">
-        <v>-0.924128838058769</v>
-      </c>
-      <c r="D8">
-        <v>2.9444112510984</v>
-      </c>
-      <c r="E8">
-        <v>0.50903366621364998</v>
-      </c>
-      <c r="F8">
-        <v>0.37809050551606899</v>
-      </c>
-      <c r="G8">
-        <v>0.63997682691123003</v>
-      </c>
-      <c r="H8">
-        <v>0.462095705040172</v>
-      </c>
-      <c r="I8">
-        <v>0.35594345325971399</v>
-      </c>
-      <c r="J8">
-        <v>0.56824795682063101</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.16132971948287</v>
-      </c>
-      <c r="C9">
-        <v>0.42318306297784403</v>
-      </c>
-      <c r="D9">
-        <v>1.8994763759879001</v>
-      </c>
-      <c r="E9">
-        <v>0.38775691263967699</v>
-      </c>
-      <c r="F9">
-        <v>0.15892517714534199</v>
-      </c>
-      <c r="G9">
-        <v>0.61658864813401204</v>
-      </c>
-      <c r="H9">
-        <v>0.66673859178702299</v>
-      </c>
-      <c r="I9">
-        <v>0.44767053927038503</v>
-      </c>
-      <c r="J9">
-        <v>0.88580664430366096</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.70442041130742505</v>
-      </c>
-      <c r="C10">
-        <v>-0.336169319706217</v>
-      </c>
-      <c r="D10">
-        <v>1.74501014232107</v>
-      </c>
-      <c r="E10">
-        <v>0.58816071765183697</v>
-      </c>
-      <c r="F10">
-        <v>0.42055810384472597</v>
-      </c>
-      <c r="G10">
-        <v>0.75576333145894903</v>
-      </c>
-      <c r="H10">
-        <v>0.43512475055817001</v>
-      </c>
-      <c r="I10">
-        <v>0.308902790749987</v>
-      </c>
-      <c r="J10">
-        <v>0.56134671036635397</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.92995147486256902</v>
-      </c>
-      <c r="C11">
-        <v>0.39327362515727599</v>
-      </c>
-      <c r="D11">
-        <v>1.4666293245678601</v>
-      </c>
-      <c r="E11">
-        <v>0.44336067110373101</v>
-      </c>
-      <c r="F11">
-        <v>0.31473918670592499</v>
-      </c>
-      <c r="G11">
-        <v>0.57198215550153697</v>
-      </c>
-      <c r="H11">
-        <v>0.80224378289203402</v>
-      </c>
-      <c r="I11">
-        <v>0.32921046740139998</v>
-      </c>
-      <c r="J11">
-        <v>1.27527709838267</v>
-      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.1971297889683401</v>
-      </c>
-      <c r="C12">
-        <v>0.85518430226459996</v>
-      </c>
-      <c r="D12">
-        <v>1.53907527567207</v>
-      </c>
-      <c r="E12">
-        <v>0.57801959584693796</v>
-      </c>
-      <c r="F12">
-        <v>0.376400687580702</v>
-      </c>
-      <c r="G12">
-        <v>0.77963850411317304</v>
-      </c>
-      <c r="H12">
-        <v>0.43330190717549899</v>
-      </c>
-      <c r="I12">
-        <v>0.26388484350381902</v>
-      </c>
-      <c r="J12">
-        <v>0.60271897084717796</v>
-      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.92523516250058302</v>
-      </c>
-      <c r="C13">
-        <v>0.16451688886774099</v>
-      </c>
-      <c r="D13">
-        <v>1.6859534361334201</v>
-      </c>
-      <c r="E13">
-        <v>0.79232486432233296</v>
-      </c>
-      <c r="F13">
-        <v>0.48642513619787697</v>
-      </c>
-      <c r="G13">
-        <v>1.0982245924467899</v>
-      </c>
-      <c r="H13">
-        <v>0.73402430669691199</v>
-      </c>
-      <c r="I13">
-        <v>0.47774728787578902</v>
-      </c>
-      <c r="J13">
-        <v>0.99030132551803596</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.2718863561901399</v>
-      </c>
-      <c r="C14">
-        <v>6.99916001356755E-2</v>
-      </c>
-      <c r="D14">
-        <v>2.4737811122446001</v>
-      </c>
-      <c r="E14">
-        <v>0.52333161546450402</v>
-      </c>
-      <c r="F14">
-        <v>0.29021928617692999</v>
-      </c>
-      <c r="G14">
-        <v>0.75644394475207799</v>
-      </c>
-      <c r="H14">
-        <v>0.53476536107950801</v>
-      </c>
-      <c r="I14">
-        <v>0.30953865842307099</v>
-      </c>
-      <c r="J14">
-        <v>0.75999206373594397</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.2604515512743799</v>
-      </c>
-      <c r="C15">
-        <v>0.37998853022152101</v>
-      </c>
-      <c r="D15">
-        <v>2.1409145723272398</v>
-      </c>
-      <c r="E15">
-        <v>0.68674091480853805</v>
-      </c>
-      <c r="F15">
-        <v>0.45050448703417401</v>
-      </c>
-      <c r="G15">
-        <v>0.92297734258290298</v>
-      </c>
-      <c r="H15">
-        <v>0.68476447743722202</v>
-      </c>
-      <c r="I15">
-        <v>0.404253403856416</v>
-      </c>
-      <c r="J15">
-        <v>0.96527555101802798</v>
-      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.1314083517797799</v>
-      </c>
-      <c r="C16">
-        <v>-0.14528950339320101</v>
-      </c>
-      <c r="D16">
-        <v>2.4081062069527701</v>
-      </c>
-      <c r="E16">
-        <v>0.54967523157182796</v>
-      </c>
-      <c r="F16">
-        <v>0.37081190130900499</v>
-      </c>
-      <c r="G16">
-        <v>0.72853856183465104</v>
-      </c>
-      <c r="H16">
-        <v>0.64370595317396395</v>
-      </c>
-      <c r="I16">
-        <v>0.363849030542163</v>
-      </c>
-      <c r="J16">
-        <v>0.92356287580576502</v>
-      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.6168960043340399</v>
-      </c>
-      <c r="C17">
-        <v>-1.90208632099671</v>
-      </c>
-      <c r="D17">
-        <v>5.1358783296647896</v>
-      </c>
-      <c r="E17">
-        <v>0.96516926128774005</v>
-      </c>
-      <c r="F17">
-        <v>0.486086783981246</v>
-      </c>
-      <c r="G17">
-        <v>1.44425173859423</v>
-      </c>
-      <c r="H17">
-        <v>0.53494432158999705</v>
-      </c>
-      <c r="I17">
-        <v>0.359000328837071</v>
-      </c>
-      <c r="J17">
-        <v>0.71088831434292299</v>
-      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.53845320492518</v>
-      </c>
-      <c r="C18">
-        <v>0.27615162837826901</v>
-      </c>
-      <c r="D18">
-        <v>2.8007547814720999</v>
-      </c>
-      <c r="E18">
-        <v>0.51601782526599604</v>
-      </c>
-      <c r="F18">
-        <v>0.26747717415788202</v>
-      </c>
-      <c r="G18">
-        <v>0.76455847637411001</v>
-      </c>
-      <c r="H18">
-        <v>0.58197077154868104</v>
-      </c>
-      <c r="I18">
-        <v>0.404261651700909</v>
-      </c>
-      <c r="J18">
-        <v>0.75967989139645398</v>
-      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>3.2339337099083099</v>
-      </c>
-      <c r="C19">
-        <v>1.13036080605874</v>
-      </c>
-      <c r="D19">
-        <v>5.3375066137578804</v>
-      </c>
-      <c r="E19">
-        <v>0.376391417465823</v>
-      </c>
-      <c r="F19">
-        <v>0.21592829024482599</v>
-      </c>
-      <c r="G19">
-        <v>0.53685454468681904</v>
-      </c>
-      <c r="H19">
-        <v>0.48525795597914201</v>
-      </c>
-      <c r="I19">
-        <v>0.34208255868853099</v>
-      </c>
-      <c r="J19">
-        <v>0.62843335326975303</v>
-      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0.94986724356952101</v>
-      </c>
-      <c r="C20">
-        <v>9.5951072329945403E-2</v>
-      </c>
-      <c r="D20">
-        <v>1.8037834148091001</v>
-      </c>
-      <c r="E20">
-        <v>0.778845446612912</v>
-      </c>
-      <c r="F20">
-        <v>0.41664949341715901</v>
-      </c>
-      <c r="G20">
-        <v>1.1410413998086599</v>
-      </c>
-      <c r="H20">
-        <v>0.50710656322205605</v>
-      </c>
-      <c r="I20">
-        <v>0.39765513548557302</v>
-      </c>
-      <c r="J20">
-        <v>0.61655799095854003</v>
-      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.5256546819296599</v>
-      </c>
-      <c r="C21">
-        <v>-1.15843504507057</v>
-      </c>
-      <c r="D21">
-        <v>4.2097444089298897</v>
-      </c>
-      <c r="E21">
-        <v>0.55163646150670698</v>
-      </c>
-      <c r="F21">
-        <v>0.39632078020816303</v>
-      </c>
-      <c r="G21">
-        <v>0.70695214280525098</v>
-      </c>
-      <c r="H21">
-        <v>0.59644785741185702</v>
-      </c>
-      <c r="I21">
-        <v>0.23540956858635501</v>
-      </c>
-      <c r="J21">
-        <v>0.95748614623735895</v>
-      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0.66317908176002105</v>
-      </c>
-      <c r="C22">
-        <v>0.32427740277413603</v>
-      </c>
-      <c r="D22">
-        <v>1.0020807607459099</v>
-      </c>
-      <c r="E22">
-        <v>0.59147866258005</v>
-      </c>
-      <c r="F22">
-        <v>0.34761469401852102</v>
-      </c>
-      <c r="G22">
-        <v>0.83534263114157903</v>
-      </c>
-      <c r="H22">
-        <v>0.34262218575668102</v>
-      </c>
-      <c r="I22">
-        <v>0.17198783129593301</v>
-      </c>
-      <c r="J22">
-        <v>0.51325654021742895</v>
-      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.4237035891824501</v>
-      </c>
-      <c r="C23">
-        <v>0.30526349067879099</v>
-      </c>
-      <c r="D23">
-        <v>2.5421436876860999</v>
-      </c>
-      <c r="E23">
-        <v>0.46517942136583001</v>
-      </c>
-      <c r="F23">
-        <v>0.23249759163470199</v>
-      </c>
-      <c r="G23">
-        <v>0.69786125109695696</v>
-      </c>
-      <c r="H23">
-        <v>0.459833783920849</v>
-      </c>
-      <c r="I23">
-        <v>0.40006515130021802</v>
-      </c>
-      <c r="J23">
-        <v>0.51960241654147998</v>
-      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0.74891218505296198</v>
-      </c>
-      <c r="C24">
-        <v>0.26027110046757401</v>
-      </c>
-      <c r="D24">
-        <v>1.23755326963835</v>
-      </c>
-      <c r="E24">
-        <v>0.709326799359567</v>
-      </c>
-      <c r="F24">
-        <v>0.33892633050669702</v>
-      </c>
-      <c r="G24">
-        <v>1.0797272682124399</v>
-      </c>
-      <c r="H24">
-        <v>0.51190456114725702</v>
-      </c>
-      <c r="I24">
-        <v>0.37396325444546502</v>
-      </c>
-      <c r="J24">
-        <v>0.64984586784904796</v>
-      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0.95886443619536199</v>
-      </c>
-      <c r="C25">
-        <v>0.1018993972249</v>
-      </c>
-      <c r="D25">
-        <v>1.8158294751658199</v>
-      </c>
-      <c r="E25">
-        <v>1.2648847965183601</v>
-      </c>
-      <c r="F25">
-        <v>0.84442818582171197</v>
-      </c>
-      <c r="G25">
-        <v>1.6853414072150099</v>
-      </c>
-      <c r="H25">
-        <v>0.66003938657503802</v>
-      </c>
-      <c r="I25">
-        <v>0.48066451781809699</v>
-      </c>
-      <c r="J25">
-        <v>0.839414255331979</v>
-      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>1.0028280201269599</v>
-      </c>
-      <c r="C26">
-        <v>0.69088839713399697</v>
-      </c>
-      <c r="D26">
-        <v>1.31476764311993</v>
-      </c>
-      <c r="E26">
-        <v>0.61930919370939397</v>
-      </c>
-      <c r="F26">
-        <v>0.36442973550010999</v>
-      </c>
-      <c r="G26">
-        <v>0.87418865191867801</v>
-      </c>
-      <c r="H26">
-        <v>0.59289030461117997</v>
-      </c>
-      <c r="I26">
-        <v>0.387820116446699</v>
-      </c>
-      <c r="J26">
-        <v>0.79796049277566194</v>
-      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>1.0169785938913001</v>
-      </c>
-      <c r="C27">
-        <v>6.3910854364479894E-2</v>
-      </c>
-      <c r="D27">
-        <v>1.97004633341812</v>
-      </c>
-      <c r="E27">
-        <v>0.44369003080084102</v>
-      </c>
-      <c r="F27">
-        <v>0.14254849533307001</v>
-      </c>
-      <c r="G27">
-        <v>0.74483156626861302</v>
-      </c>
-      <c r="H27">
-        <v>0.42190102518768802</v>
-      </c>
-      <c r="I27">
-        <v>0.30660496553872302</v>
-      </c>
-      <c r="J27">
-        <v>0.53719708483665196</v>
-      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="e">
         <f>AVERAGE(B3:B27)</f>
-        <v>1.2101937346852263</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1">
+      <c r="E28" s="1" t="e">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.61032646304126104</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1">
+      <c r="H28" s="1" t="e">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.54560431715694169</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3816,21 +3141,21 @@
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="e">
         <f>STDEV(B3:B27)</f>
-        <v>0.55867816359578759</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1">
+      <c r="E29" s="1" t="e">
         <f>STDEV(E3:E27)</f>
-        <v>0.19540902214056455</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1">
+      <c r="H29" s="1" t="e">
         <f>STDEV(H3:H27)</f>
-        <v>0.11116210185795616</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3859,21 +3184,21 @@
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="e">
         <f>B30*B29/5</f>
-        <v>0.31252456471548362</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1">
+      <c r="E31" s="1" t="e">
         <f>E30*E29/5</f>
-        <v>0.10931180698543182</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1">
+      <c r="H31" s="1" t="e">
         <f>H30*H29/5</f>
-        <v>6.2184079779340685E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3961,821 +3286,146 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>-6.55173429178941E-2</v>
-      </c>
-      <c r="C3">
-        <v>-0.51654038429763205</v>
-      </c>
-      <c r="D3">
-        <v>0.38550569846184402</v>
-      </c>
-      <c r="E3">
-        <v>0.155747603668591</v>
-      </c>
-      <c r="F3">
-        <v>-0.174649989966914</v>
-      </c>
-      <c r="G3">
-        <v>0.486145197304095</v>
-      </c>
-      <c r="H3">
-        <v>5.6107009065628898E-2</v>
-      </c>
-      <c r="I3">
-        <v>-0.28968275279302302</v>
-      </c>
-      <c r="J3">
-        <v>0.401896770924281</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.10447831839204701</v>
-      </c>
-      <c r="C4">
-        <v>-0.32269954958852298</v>
-      </c>
-      <c r="D4">
-        <v>0.53165618637261602</v>
-      </c>
-      <c r="E4">
-        <v>-3.26504352225385E-2</v>
-      </c>
-      <c r="F4">
-        <v>-0.33781960907858699</v>
-      </c>
-      <c r="G4">
-        <v>0.27251873863351</v>
-      </c>
-      <c r="H4">
-        <v>0.16483677290913201</v>
-      </c>
-      <c r="I4">
-        <v>-9.9883166039072505E-2</v>
-      </c>
-      <c r="J4">
-        <v>0.42955671185733602</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.17412417827079801</v>
-      </c>
-      <c r="C5">
-        <v>-0.123041012537404</v>
-      </c>
-      <c r="D5">
-        <v>0.47128936907899899</v>
-      </c>
-      <c r="E5">
-        <v>-3.6126727138724599E-2</v>
-      </c>
-      <c r="F5">
-        <v>-0.279163684097402</v>
-      </c>
-      <c r="G5">
-        <v>0.206910229819953</v>
-      </c>
-      <c r="H5">
-        <v>-8.2546924334945204E-2</v>
-      </c>
-      <c r="I5">
-        <v>-0.39606073552079502</v>
-      </c>
-      <c r="J5">
-        <v>0.230966886850905</v>
-      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.14881571225652299</v>
-      </c>
-      <c r="C6">
-        <v>-0.10516565718683001</v>
-      </c>
-      <c r="D6">
-        <v>0.40279708169987499</v>
-      </c>
-      <c r="E6">
-        <v>-0.133473443676837</v>
-      </c>
-      <c r="F6">
-        <v>-0.35466407081731599</v>
-      </c>
-      <c r="G6">
-        <v>8.7717183463642406E-2</v>
-      </c>
-      <c r="H6">
-        <v>-3.06559953631814E-2</v>
-      </c>
-      <c r="I6">
-        <v>-0.30216457758535398</v>
-      </c>
-      <c r="J6">
-        <v>0.240852586858992</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>3.7293929279843298E-2</v>
-      </c>
-      <c r="C7">
-        <v>-0.16884882745239499</v>
-      </c>
-      <c r="D7">
-        <v>0.24343668601208199</v>
-      </c>
-      <c r="E7">
-        <v>0.184351915557389</v>
-      </c>
-      <c r="F7">
-        <v>-0.23750823528956599</v>
-      </c>
-      <c r="G7">
-        <v>0.606212066404345</v>
-      </c>
-      <c r="H7">
-        <v>-0.12220009624514599</v>
-      </c>
-      <c r="I7">
-        <v>-0.47073077721419399</v>
-      </c>
-      <c r="J7">
-        <v>0.226330584723901</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.305093236215151</v>
-      </c>
-      <c r="C8">
-        <v>-5.7106720096318599E-2</v>
-      </c>
-      <c r="D8">
-        <v>0.667293192526621</v>
-      </c>
-      <c r="E8">
-        <v>-0.45405605690690698</v>
-      </c>
-      <c r="F8">
-        <v>-1.05901635273953</v>
-      </c>
-      <c r="G8">
-        <v>0.150904238925714</v>
-      </c>
-      <c r="H8">
-        <v>0.105347075694866</v>
-      </c>
-      <c r="I8">
-        <v>-0.232323683105117</v>
-      </c>
-      <c r="J8">
-        <v>0.443017834494848</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>4.2564620959222199E-2</v>
-      </c>
-      <c r="C9">
-        <v>-0.35983760933581999</v>
-      </c>
-      <c r="D9">
-        <v>0.44496685125426499</v>
-      </c>
-      <c r="E9">
-        <v>-4.7398670411983597E-2</v>
-      </c>
-      <c r="F9">
-        <v>-0.29675855113840599</v>
-      </c>
-      <c r="G9">
-        <v>0.201961210314439</v>
-      </c>
-      <c r="H9">
-        <v>-0.138590977453903</v>
-      </c>
-      <c r="I9">
-        <v>-0.36087937586928998</v>
-      </c>
-      <c r="J9">
-        <v>8.3697420961483596E-2</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2.3388895409702501E-2</v>
-      </c>
-      <c r="C10">
-        <v>-0.27899576581785601</v>
-      </c>
-      <c r="D10">
-        <v>0.32577355663726099</v>
-      </c>
-      <c r="E10">
-        <v>9.2704866549954308E-3</v>
-      </c>
-      <c r="F10">
-        <v>-0.35064740985175402</v>
-      </c>
-      <c r="G10">
-        <v>0.36918838316174502</v>
-      </c>
-      <c r="H10">
-        <v>9.8989968050367097E-2</v>
-      </c>
-      <c r="I10">
-        <v>-0.119079069749499</v>
-      </c>
-      <c r="J10">
-        <v>0.317059005850233</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.141074660955819</v>
-      </c>
-      <c r="C11">
-        <v>-0.16308681558771401</v>
-      </c>
-      <c r="D11">
-        <v>0.44523613749935198</v>
-      </c>
-      <c r="E11">
-        <v>0.12187305211076099</v>
-      </c>
-      <c r="F11">
-        <v>-0.17754853029960599</v>
-      </c>
-      <c r="G11">
-        <v>0.42129463452112698</v>
-      </c>
-      <c r="H11">
-        <v>-7.96201393561215E-2</v>
-      </c>
-      <c r="I11">
-        <v>-0.540313030136643</v>
-      </c>
-      <c r="J11">
-        <v>0.3810727514244</v>
-      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>6.1124421916599697E-2</v>
-      </c>
-      <c r="C12">
-        <v>-0.27479879086328801</v>
-      </c>
-      <c r="D12">
-        <v>0.39704763469648702</v>
-      </c>
-      <c r="E12">
-        <v>0.15872730359248299</v>
-      </c>
-      <c r="F12">
-        <v>-8.4324669316530598E-2</v>
-      </c>
-      <c r="G12">
-        <v>0.40177927650149597</v>
-      </c>
-      <c r="H12">
-        <v>-0.15786340480678299</v>
-      </c>
-      <c r="I12">
-        <v>-0.53224672211669</v>
-      </c>
-      <c r="J12">
-        <v>0.216519912503123</v>
-      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>3.8405312921135602E-2</v>
-      </c>
-      <c r="C13">
-        <v>-0.36027732895270298</v>
-      </c>
-      <c r="D13">
-        <v>0.43708795479497398</v>
-      </c>
-      <c r="E13">
-        <v>-0.178630830712081</v>
-      </c>
-      <c r="F13">
-        <v>-0.51434156846260104</v>
-      </c>
-      <c r="G13">
-        <v>0.15707990703843899</v>
-      </c>
-      <c r="H13">
-        <v>8.6102941600867997E-2</v>
-      </c>
-      <c r="I13">
-        <v>-0.13693065370215801</v>
-      </c>
-      <c r="J13">
-        <v>0.30913653690389298</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>-9.3103806521717999E-2</v>
-      </c>
-      <c r="C14">
-        <v>-0.31014754875734801</v>
-      </c>
-      <c r="D14">
-        <v>0.123939935713912</v>
-      </c>
-      <c r="E14">
-        <v>9.5930708520625296E-2</v>
-      </c>
-      <c r="F14">
-        <v>-0.10029425667173</v>
-      </c>
-      <c r="G14">
-        <v>0.29215567371298001</v>
-      </c>
-      <c r="H14">
-        <v>5.4840750194279199E-3</v>
-      </c>
-      <c r="I14">
-        <v>-0.22935755205286501</v>
-      </c>
-      <c r="J14">
-        <v>0.24032570209172099</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>-5.2447498762991103E-2</v>
-      </c>
-      <c r="C15">
-        <v>-0.30505030204849498</v>
-      </c>
-      <c r="D15">
-        <v>0.20015530452251301</v>
-      </c>
-      <c r="E15">
-        <v>-0.16722429424836399</v>
-      </c>
-      <c r="F15">
-        <v>-0.56803590364448997</v>
-      </c>
-      <c r="G15">
-        <v>0.23358731514776199</v>
-      </c>
-      <c r="H15">
-        <v>0.15108787167119</v>
-      </c>
-      <c r="I15">
-        <v>-7.6588770128464101E-2</v>
-      </c>
-      <c r="J15">
-        <v>0.378764513470844</v>
-      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>-3.8404626597113002E-2</v>
-      </c>
-      <c r="C16">
-        <v>-0.39997113519827199</v>
-      </c>
-      <c r="D16">
-        <v>0.323161882004046</v>
-      </c>
-      <c r="E16">
-        <v>0.166620347769385</v>
-      </c>
-      <c r="F16">
-        <v>-3.3053090035635398E-2</v>
-      </c>
-      <c r="G16">
-        <v>0.36629378557440601</v>
-      </c>
-      <c r="H16">
-        <v>0.14282475171360001</v>
-      </c>
-      <c r="I16">
-        <v>-1.33590169352533E-2</v>
-      </c>
-      <c r="J16">
-        <v>0.29900852036245401</v>
-      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>2.4647109963930901E-2</v>
-      </c>
-      <c r="C17">
-        <v>-0.198898659270899</v>
-      </c>
-      <c r="D17">
-        <v>0.24819287919876101</v>
-      </c>
-      <c r="E17">
-        <v>0.149799077317297</v>
-      </c>
-      <c r="F17">
-        <v>-4.9253840661650602E-2</v>
-      </c>
-      <c r="G17">
-        <v>0.348851995296244</v>
-      </c>
-      <c r="H17">
-        <v>7.6104731834503499E-3</v>
-      </c>
-      <c r="I17">
-        <v>-0.30991217719295699</v>
-      </c>
-      <c r="J17">
-        <v>0.32513312355985702</v>
-      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>-9.1264856204369499E-2</v>
-      </c>
-      <c r="C18">
-        <v>-0.41977438372542403</v>
-      </c>
-      <c r="D18">
-        <v>0.237244671316685</v>
-      </c>
-      <c r="E18">
-        <v>-8.83253299035823E-2</v>
-      </c>
-      <c r="F18">
-        <v>-0.42052303642752797</v>
-      </c>
-      <c r="G18">
-        <v>0.24387237662036301</v>
-      </c>
-      <c r="H18">
-        <v>0.22729556158365299</v>
-      </c>
-      <c r="I18">
-        <v>3.7068369894885697E-2</v>
-      </c>
-      <c r="J18">
-        <v>0.417522753272421</v>
-      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>6.9169760458708901E-2</v>
-      </c>
-      <c r="C19">
-        <v>-0.184214676731105</v>
-      </c>
-      <c r="D19">
-        <v>0.322554197648523</v>
-      </c>
-      <c r="E19">
-        <v>-0.12471966375143299</v>
-      </c>
-      <c r="F19">
-        <v>-0.30229998805316899</v>
-      </c>
-      <c r="G19">
-        <v>5.2860660550302703E-2</v>
-      </c>
-      <c r="H19">
-        <v>-0.20532288712917601</v>
-      </c>
-      <c r="I19">
-        <v>-0.53039472103234597</v>
-      </c>
-      <c r="J19">
-        <v>0.119748946773993</v>
-      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>-0.15732857174190101</v>
-      </c>
-      <c r="C20">
-        <v>-0.56159434394163799</v>
-      </c>
-      <c r="D20">
-        <v>0.24693720045783599</v>
-      </c>
-      <c r="E20">
-        <v>0.29720233916141398</v>
-      </c>
-      <c r="F20">
-        <v>-3.7389289306812401E-2</v>
-      </c>
-      <c r="G20">
-        <v>0.63179396762964102</v>
-      </c>
-      <c r="H20">
-        <v>4.3592214918425097E-2</v>
-      </c>
-      <c r="I20">
-        <v>-0.204557821471089</v>
-      </c>
-      <c r="J20">
-        <v>0.29174225130793902</v>
-      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>-0.31783939089732</v>
-      </c>
-      <c r="C21">
-        <v>-0.50833722571289597</v>
-      </c>
-      <c r="D21">
-        <v>-0.127341556081744</v>
-      </c>
-      <c r="E21">
-        <v>0.116191675404757</v>
-      </c>
-      <c r="F21">
-        <v>-0.33686110707535</v>
-      </c>
-      <c r="G21">
-        <v>0.569244457884865</v>
-      </c>
-      <c r="H21">
-        <v>0.164068569454171</v>
-      </c>
-      <c r="I21">
-        <v>-0.10935777576889601</v>
-      </c>
-      <c r="J21">
-        <v>0.437494914677239</v>
-      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>-5.5450466850557302E-2</v>
-      </c>
-      <c r="C22">
-        <v>-0.28944702009522399</v>
-      </c>
-      <c r="D22">
-        <v>0.17854608639410899</v>
-      </c>
-      <c r="E22">
-        <v>-0.397504041558215</v>
-      </c>
-      <c r="F22">
-        <v>-0.72597990166326898</v>
-      </c>
-      <c r="G22">
-        <v>-6.9028181453160795E-2</v>
-      </c>
-      <c r="H22">
-        <v>5.37337714626904E-2</v>
-      </c>
-      <c r="I22">
-        <v>-0.34160546922030999</v>
-      </c>
-      <c r="J22">
-        <v>0.44907301214569101</v>
-      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>-1.2926097260458499E-2</v>
-      </c>
-      <c r="C23">
-        <v>-0.26045563109820602</v>
-      </c>
-      <c r="D23">
-        <v>0.23460343657728899</v>
-      </c>
-      <c r="E23">
-        <v>-8.8317085204629206E-2</v>
-      </c>
-      <c r="F23">
-        <v>-0.34836950437852499</v>
-      </c>
-      <c r="G23">
-        <v>0.17173533396926599</v>
-      </c>
-      <c r="H23">
-        <v>0.19474982414494099</v>
-      </c>
-      <c r="I23">
-        <v>-9.3259481850165193E-2</v>
-      </c>
-      <c r="J23">
-        <v>0.48275913014004601</v>
-      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>-6.6611547271237706E-2</v>
-      </c>
-      <c r="C24">
-        <v>-0.37811120046317398</v>
-      </c>
-      <c r="D24">
-        <v>0.24488810592069901</v>
-      </c>
-      <c r="E24">
-        <v>-5.4188082138439599E-2</v>
-      </c>
-      <c r="F24">
-        <v>-0.25674882639438201</v>
-      </c>
-      <c r="G24">
-        <v>0.148372662117503</v>
-      </c>
-      <c r="H24">
-        <v>0.21174818736319601</v>
-      </c>
-      <c r="I24">
-        <v>3.7809274589409298E-4</v>
-      </c>
-      <c r="J24">
-        <v>0.423118281980497</v>
-      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0.170975161218091</v>
-      </c>
-      <c r="C25">
-        <v>-0.218541438178009</v>
-      </c>
-      <c r="D25">
-        <v>0.56049176061419104</v>
-      </c>
-      <c r="E25">
-        <v>1.35351693252429E-2</v>
-      </c>
-      <c r="F25">
-        <v>-0.36292012510681199</v>
-      </c>
-      <c r="G25">
-        <v>0.38999046375729801</v>
-      </c>
-      <c r="H25">
-        <v>-7.0940134730627602E-2</v>
-      </c>
-      <c r="I25">
-        <v>-0.31288400006786599</v>
-      </c>
-      <c r="J25">
-        <v>0.171003730606611</v>
-      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>8.4982092857909405E-2</v>
-      </c>
-      <c r="C26">
-        <v>-0.173511855136782</v>
-      </c>
-      <c r="D26">
-        <v>0.34347604085260097</v>
-      </c>
-      <c r="E26">
-        <v>0.86482435374853295</v>
-      </c>
-      <c r="F26">
-        <v>-0.976864071165926</v>
-      </c>
-      <c r="G26">
-        <v>2.7065127786629901</v>
-      </c>
-      <c r="H26">
-        <v>9.3139583932072806E-2</v>
-      </c>
-      <c r="I26">
-        <v>-0.196186537323324</v>
-      </c>
-      <c r="J26">
-        <v>0.38246570518746897</v>
-      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>0.103811260604755</v>
-      </c>
-      <c r="C27">
-        <v>-0.19062346455686</v>
-      </c>
-      <c r="D27">
-        <v>0.39824598576636999</v>
-      </c>
-      <c r="E27">
-        <v>9.6168873560755194E-2</v>
-      </c>
-      <c r="F27">
-        <v>-0.22982334027224699</v>
-      </c>
-      <c r="G27">
-        <v>0.42216108739375702</v>
-      </c>
-      <c r="H27">
-        <v>-5.02284605283893E-2</v>
-      </c>
-      <c r="I27">
-        <v>-0.27971821774324901</v>
-      </c>
-      <c r="J27">
-        <v>0.17926129668647001</v>
-      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="e">
         <f>AVERAGE(B3:B27)</f>
-        <v>2.3162178666187052E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1">
+      <c r="E28" s="1" t="e">
         <f>AVERAGE(E3:E27)</f>
-        <v>2.5105129820739758E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1">
+      <c r="H28" s="1" t="e">
         <f>AVERAGE(H3:H27)</f>
-        <v>3.4749985272776264E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4784,21 +3434,21 @@
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="e">
         <f>STDEV(B3:B27)</f>
-        <v>0.12640966344751234</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1">
+      <c r="E29" s="1" t="e">
         <f>STDEV(E3:E27)</f>
-        <v>0.24847718340251795</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1">
+      <c r="H29" s="1" t="e">
         <f>STDEV(H3:H27)</f>
-        <v>0.12406847279002864</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4827,21 +3477,21 @@
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="e">
         <f>B30*B29/5</f>
-        <v>7.0713565732538411E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1">
+      <c r="E31" s="1" t="e">
         <f>E30*E29/5</f>
-        <v>0.13899813639536857</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1">
+      <c r="H31" s="1" t="e">
         <f>H30*H29/5</f>
-        <v>6.9403903678742024E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -4867,10 +3517,13 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J27"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2"/>
@@ -4927,31 +3580,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.78436923323458196</v>
+        <v>1.2376860338709099</v>
       </c>
       <c r="C3">
-        <v>-0.177358634885496</v>
+        <v>1.0114157266992601</v>
       </c>
       <c r="D3">
-        <v>1.74609710135466</v>
+        <v>1.46395634104256</v>
       </c>
       <c r="E3">
-        <v>0.52300936807142595</v>
+        <v>0.70743824864739902</v>
       </c>
       <c r="F3">
-        <v>0.36596211051766098</v>
+        <v>0.58505519452487997</v>
       </c>
       <c r="G3">
-        <v>0.68005662562519198</v>
+        <v>0.82982130276991795</v>
       </c>
       <c r="H3">
-        <v>0.32778442906112298</v>
+        <v>0.582932914145188</v>
       </c>
       <c r="I3">
-        <v>0.16557856026029599</v>
+        <v>0.50587038864330702</v>
       </c>
       <c r="J3">
-        <v>0.48999029786195097</v>
+        <v>0.65999543964706997</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4959,31 +3612,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.54578615416751</v>
+        <v>1.5408797534102801</v>
       </c>
       <c r="C4">
-        <v>-1.9463668052570899</v>
+        <v>1.0973234027754299</v>
       </c>
       <c r="D4">
-        <v>5.0379391135920999</v>
+        <v>1.9844361040451399</v>
       </c>
       <c r="E4">
-        <v>0.72679403012128896</v>
+        <v>0.74710662780838699</v>
       </c>
       <c r="F4">
-        <v>0.32752262210980299</v>
+        <v>0.65037404287357103</v>
       </c>
       <c r="G4">
-        <v>1.1260654381327799</v>
+        <v>0.84383921274320295</v>
       </c>
       <c r="H4">
-        <v>0.46621068842186703</v>
+        <v>0.53233457892664404</v>
       </c>
       <c r="I4">
-        <v>0.349907898416152</v>
+        <v>0.423808490229657</v>
       </c>
       <c r="J4">
-        <v>0.58251347842758106</v>
+        <v>0.64086066762363103</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4991,31 +3644,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.57407931145315505</v>
+        <v>1.1884727658594001</v>
       </c>
       <c r="C5">
-        <v>-0.11605244594351299</v>
+        <v>1.0357292515360399</v>
       </c>
       <c r="D5">
-        <v>1.26421106884982</v>
+        <v>1.3412162801827601</v>
       </c>
       <c r="E5">
-        <v>0.58219663595287896</v>
+        <v>0.76906280119415205</v>
       </c>
       <c r="F5">
-        <v>0.24033748784589501</v>
+        <v>0.67031909599724004</v>
       </c>
       <c r="G5">
-        <v>0.92405578405986399</v>
+        <v>0.86780650639106405</v>
       </c>
       <c r="H5">
-        <v>0.57604060653607603</v>
+        <v>0.51774395398749096</v>
       </c>
       <c r="I5">
-        <v>0.37488762799486902</v>
+        <v>0.42959703007136701</v>
       </c>
       <c r="J5">
-        <v>0.77719358507728298</v>
+        <v>0.60589087790361496</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5023,31 +3676,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.3689648637893199</v>
+        <v>1.22822676342099</v>
       </c>
       <c r="C6">
-        <v>0.29157474084510399</v>
+        <v>0.97013111207531899</v>
       </c>
       <c r="D6">
-        <v>2.4463549867335401</v>
+        <v>1.48632241476666</v>
       </c>
       <c r="E6">
-        <v>0.37408429562463802</v>
+        <v>0.68823593001905903</v>
       </c>
       <c r="F6">
-        <v>0.18208706453947701</v>
+        <v>0.60984915333921996</v>
       </c>
       <c r="G6">
-        <v>0.56608152670980005</v>
+        <v>0.76662270669889798</v>
       </c>
       <c r="H6">
-        <v>0.44506958360802801</v>
+        <v>0.68560716581571401</v>
       </c>
       <c r="I6">
-        <v>0.34047081345917102</v>
+        <v>0.56922291802962299</v>
       </c>
       <c r="J6">
-        <v>0.54966835375688405</v>
+        <v>0.80199141360180404</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5055,31 +3708,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.7976356975715699</v>
+        <v>1.29991044385281</v>
       </c>
       <c r="C7">
-        <v>-3.6118624388143599</v>
+        <v>1.1204337252550101</v>
       </c>
       <c r="D7">
-        <v>9.2071338339575099</v>
+        <v>1.4793871624506201</v>
       </c>
       <c r="E7">
-        <v>0.87013507411110402</v>
+        <v>0.71308577713233301</v>
       </c>
       <c r="F7">
-        <v>0.34904371722747601</v>
+        <v>0.60400297792013702</v>
       </c>
       <c r="G7">
-        <v>1.39122643099473</v>
+        <v>0.822168576344528</v>
       </c>
       <c r="H7">
-        <v>0.32342510742088598</v>
+        <v>0.49444322944793501</v>
       </c>
       <c r="I7">
-        <v>0.142660327405632</v>
+        <v>0.40092799905101001</v>
       </c>
       <c r="J7">
-        <v>0.50418988743614002</v>
+        <v>0.58795845984486095</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5087,31 +3740,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.0969272500060601</v>
+        <v>1.2872531163699601</v>
       </c>
       <c r="C8">
-        <v>-0.89432018459435503</v>
+        <v>1.0520802387732999</v>
       </c>
       <c r="D8">
-        <v>3.0881746846064799</v>
+        <v>1.52242599396661</v>
       </c>
       <c r="E8">
-        <v>0.52197784377744905</v>
+        <v>0.791424076593367</v>
       </c>
       <c r="F8">
-        <v>0.37619795782363102</v>
+        <v>0.71530324139325596</v>
       </c>
       <c r="G8">
-        <v>0.66775772973126801</v>
+        <v>0.86754491179347903</v>
       </c>
       <c r="H8">
-        <v>0.31203268168508802</v>
+        <v>0.57796187543385802</v>
       </c>
       <c r="I8">
-        <v>0.20490845961348</v>
+        <v>0.456946045526124</v>
       </c>
       <c r="J8">
-        <v>0.41915690375669601</v>
+        <v>0.69897770534159098</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5119,31 +3772,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.3057003414627899</v>
+        <v>1.32734303285608</v>
       </c>
       <c r="C9">
-        <v>-0.74499136931626497</v>
+        <v>1.1933669860321701</v>
       </c>
       <c r="D9">
-        <v>3.3563920522418398</v>
+        <v>1.46131907967998</v>
       </c>
       <c r="E9">
-        <v>0.785556930105614</v>
+        <v>0.75108481196292598</v>
       </c>
       <c r="F9">
-        <v>0.20168682752139799</v>
+        <v>0.69707514315525099</v>
       </c>
       <c r="G9">
-        <v>1.3694270326898299</v>
+        <v>0.80509448077059997</v>
       </c>
       <c r="H9">
-        <v>0.64152228126218602</v>
+        <v>0.49545393976237001</v>
       </c>
       <c r="I9">
-        <v>0.40880954165226602</v>
+        <v>0.38484136879061098</v>
       </c>
       <c r="J9">
-        <v>0.87423502087210603</v>
+        <v>0.60606651073412898</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5151,31 +3804,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.79266221473184295</v>
+        <v>1.12160640769949</v>
       </c>
       <c r="C10">
-        <v>-0.135646936679509</v>
+        <v>0.83577845726169997</v>
       </c>
       <c r="D10">
-        <v>1.7209713661432</v>
+        <v>1.4074343581372799</v>
       </c>
       <c r="E10">
-        <v>0.49843151097212801</v>
+        <v>0.82950573913893799</v>
       </c>
       <c r="F10">
-        <v>0.28461486507063699</v>
+        <v>0.76890785524223004</v>
       </c>
       <c r="G10">
-        <v>0.71224815687361998</v>
+        <v>0.89010362303564505</v>
       </c>
       <c r="H10">
-        <v>0.38368769901965299</v>
+        <v>0.6252892397116</v>
       </c>
       <c r="I10">
-        <v>0.25536033297368799</v>
+        <v>0.56222805582617297</v>
       </c>
       <c r="J10">
-        <v>0.512015065065618</v>
+        <v>0.68835042359702703</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5183,31 +3836,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.68482974391989204</v>
+        <v>1.1794695719111901</v>
       </c>
       <c r="C11">
-        <v>-0.16194809205049299</v>
+        <v>0.95885853209605798</v>
       </c>
       <c r="D11">
-        <v>1.53160757989028</v>
+        <v>1.40008061172631</v>
       </c>
       <c r="E11">
-        <v>0.50818646163083403</v>
+        <v>0.70528206268174198</v>
       </c>
       <c r="F11">
-        <v>0.37091381850897998</v>
+        <v>0.63534725026249605</v>
       </c>
       <c r="G11">
-        <v>0.64545910475268797</v>
+        <v>0.77521687510098702</v>
       </c>
       <c r="H11">
-        <v>0.40241484618471801</v>
+        <v>0.61916379471071403</v>
       </c>
       <c r="I11">
-        <v>7.7546546002479802E-2</v>
+        <v>0.55114774499865204</v>
       </c>
       <c r="J11">
-        <v>0.72728314636695601</v>
+        <v>0.68717984442277602</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5215,31 +3868,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.20353926279076</v>
+        <v>1.3240489572960801</v>
       </c>
       <c r="C12">
-        <v>0.36083225169133298</v>
+        <v>1.08569107508715</v>
       </c>
       <c r="D12">
-        <v>2.0462462738901799</v>
+        <v>1.5624068395050099</v>
       </c>
       <c r="E12">
-        <v>0.61444115947706002</v>
+        <v>0.86074974051800901</v>
       </c>
       <c r="F12">
-        <v>0.30551456526598503</v>
+        <v>0.76681143562019405</v>
       </c>
       <c r="G12">
-        <v>0.92336775368813495</v>
+        <v>0.95468804541582497</v>
       </c>
       <c r="H12">
-        <v>0.52801323491220897</v>
+        <v>0.79526173705891301</v>
       </c>
       <c r="I12">
-        <v>0.270529811443808</v>
+        <v>0.71402922135667801</v>
       </c>
       <c r="J12">
-        <v>0.78549665838061</v>
+        <v>0.87649425276114701</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5247,31 +3900,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.966665335029113</v>
+        <v>1.353576768098</v>
       </c>
       <c r="C13">
-        <v>-0.26371156086097303</v>
+        <v>1.2711719724749599</v>
       </c>
       <c r="D13">
-        <v>2.1970422309191999</v>
+        <v>1.43598156372103</v>
       </c>
       <c r="E13">
-        <v>0.61057740584910802</v>
+        <v>0.744706653543043</v>
       </c>
       <c r="F13">
-        <v>0.28027479237701902</v>
+        <v>0.62666093875364803</v>
       </c>
       <c r="G13">
-        <v>0.94088001932119802</v>
+        <v>0.86275236833243696</v>
       </c>
       <c r="H13">
-        <v>0.64471366342880199</v>
+        <v>0.65914560445653703</v>
       </c>
       <c r="I13">
-        <v>0.35135690196070402</v>
+        <v>0.61193229373429603</v>
       </c>
       <c r="J13">
-        <v>0.93807042489689896</v>
+        <v>0.70635891517877802</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5279,31 +3932,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.89179729252898299</v>
+        <v>1.24849306313468</v>
       </c>
       <c r="C14">
-        <v>-0.48308274453438399</v>
+        <v>1.1062328631513201</v>
       </c>
       <c r="D14">
-        <v>2.2666773295923499</v>
+        <v>1.3907532631180499</v>
       </c>
       <c r="E14">
-        <v>0.52691710273263803</v>
+        <v>0.79678704179913695</v>
       </c>
       <c r="F14">
-        <v>0.29976462189174602</v>
+        <v>0.72900596397490203</v>
       </c>
       <c r="G14">
-        <v>0.75406958357353004</v>
+        <v>0.86456811962337099</v>
       </c>
       <c r="H14">
-        <v>0.40359279103405399</v>
+        <v>0.71903372775243002</v>
       </c>
       <c r="I14">
-        <v>0.20101216761381699</v>
+        <v>0.65846093742415401</v>
       </c>
       <c r="J14">
-        <v>0.60617341445429096</v>
+        <v>0.77960651808070602</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5311,31 +3964,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.86609135494577905</v>
+        <v>1.2846229917049501</v>
       </c>
       <c r="C15">
-        <v>-7.8932983391847095E-2</v>
+        <v>1.01948753001634</v>
       </c>
       <c r="D15">
-        <v>1.8111156932834001</v>
+        <v>1.54975845339357</v>
       </c>
       <c r="E15">
-        <v>0.71655713538178101</v>
+        <v>0.76974314792757603</v>
       </c>
       <c r="F15">
-        <v>0.45776057720760199</v>
+        <v>0.68032593016940901</v>
       </c>
       <c r="G15">
-        <v>0.97535369355595902</v>
+        <v>0.85916036568574305</v>
       </c>
       <c r="H15">
-        <v>0.53802919863482501</v>
+        <v>0.58028193287012797</v>
       </c>
       <c r="I15">
-        <v>0.25097260991138798</v>
+        <v>0.46861778000366799</v>
       </c>
       <c r="J15">
-        <v>0.82508578735826199</v>
+        <v>0.691946085736587</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5343,31 +3996,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.39472233373147</v>
+        <v>1.1848242871375201</v>
       </c>
       <c r="C16">
-        <v>-4.6507177243520798E-2</v>
+        <v>0.838028989480882</v>
       </c>
       <c r="D16">
-        <v>2.83595184470646</v>
+        <v>1.53161958479416</v>
       </c>
       <c r="E16">
-        <v>0.476618229239407</v>
+        <v>0.78925165016870202</v>
       </c>
       <c r="F16">
-        <v>0.26261904695740301</v>
+        <v>0.70820408496606102</v>
       </c>
       <c r="G16">
-        <v>0.69061741152140999</v>
+        <v>0.87029921537134403</v>
       </c>
       <c r="H16">
-        <v>0.65063058128330697</v>
+        <v>0.56304887193237296</v>
       </c>
       <c r="I16">
-        <v>0.29635265004611</v>
+        <v>0.47687402988529798</v>
       </c>
       <c r="J16">
-        <v>1.0049085125205</v>
+        <v>0.649223713979449</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5375,31 +4028,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.29996008312027</v>
+        <v>1.47552978672432</v>
       </c>
       <c r="C17">
-        <v>-1.56357021267273</v>
+        <v>1.0789817091524101</v>
       </c>
       <c r="D17">
-        <v>4.1634903789132602</v>
+        <v>1.8720778642962299</v>
       </c>
       <c r="E17">
-        <v>0.88416135077234903</v>
+        <v>0.79444712810800699</v>
       </c>
       <c r="F17">
-        <v>0.47631495538486002</v>
+        <v>0.70022633821819003</v>
       </c>
       <c r="G17">
-        <v>1.29200774615984</v>
+        <v>0.88866791799782496</v>
       </c>
       <c r="H17">
-        <v>0.43072118260942599</v>
+        <v>0.57608006507128695</v>
       </c>
       <c r="I17">
-        <v>0.19462562165425301</v>
+        <v>0.49979764830345602</v>
       </c>
       <c r="J17">
-        <v>0.66681674356459797</v>
+        <v>0.65236248183911905</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5407,31 +4060,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.63684909959451</v>
+        <v>1.56995960253253</v>
       </c>
       <c r="C18">
-        <v>3.0670596372489999E-2</v>
+        <v>1.0516339101714001</v>
       </c>
       <c r="D18">
-        <v>3.2430276028165301</v>
+        <v>2.0882852948936601</v>
       </c>
       <c r="E18">
-        <v>0.41684940159931699</v>
+        <v>0.81737550144412097</v>
       </c>
       <c r="F18">
-        <v>0.172159853949748</v>
+        <v>0.729708397869965</v>
       </c>
       <c r="G18">
-        <v>0.66153894924888501</v>
+        <v>0.90504260501827705</v>
       </c>
       <c r="H18">
-        <v>0.62851079107232699</v>
+        <v>0.51401622687590298</v>
       </c>
       <c r="I18">
-        <v>0.33735294129072702</v>
+        <v>0.45802566336966699</v>
       </c>
       <c r="J18">
-        <v>0.91966864085392697</v>
+        <v>0.57000679038213797</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5439,31 +4092,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.4942500870525799</v>
+        <v>1.1728326156953299</v>
       </c>
       <c r="C19">
-        <v>-0.93028574017169896</v>
+        <v>0.98938852291963097</v>
       </c>
       <c r="D19">
-        <v>3.9187859142768602</v>
+        <v>1.3562767084710301</v>
       </c>
       <c r="E19">
-        <v>0.388525355590014</v>
+        <v>0.79517640536518897</v>
       </c>
       <c r="F19">
-        <v>0.214992499818909</v>
+        <v>0.73579523868487595</v>
       </c>
       <c r="G19">
-        <v>0.562058211361119</v>
+        <v>0.85455757204550198</v>
       </c>
       <c r="H19">
-        <v>0.48348166090260097</v>
+        <v>0.53382892901859103</v>
       </c>
       <c r="I19">
-        <v>0.33660391265437101</v>
+        <v>0.432748295341148</v>
       </c>
       <c r="J19">
-        <v>0.630359409150832</v>
+        <v>0.63490956269603405</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5471,31 +4124,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.79977951646844503</v>
+        <v>1.1733350579725399</v>
       </c>
       <c r="C20">
-        <v>0.21450421627914501</v>
+        <v>1.0106816518338</v>
       </c>
       <c r="D20">
-        <v>1.3850548166577501</v>
+        <v>1.33598846411128</v>
       </c>
       <c r="E20">
-        <v>1.0242652516468</v>
+        <v>0.70489673947839504</v>
       </c>
       <c r="F20">
-        <v>0.56511973710679797</v>
+        <v>0.62857140584554505</v>
       </c>
       <c r="G20">
-        <v>1.4834107661867999</v>
+        <v>0.78122207311124503</v>
       </c>
       <c r="H20">
-        <v>0.48159273291085303</v>
+        <v>0.67851398730693502</v>
       </c>
       <c r="I20">
-        <v>0.32531646954771898</v>
+        <v>0.608598879529479</v>
       </c>
       <c r="J20">
-        <v>0.63786899627398697</v>
+        <v>0.74842909508439204</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5503,31 +4156,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.97181333290783001</v>
+        <v>1.3385871452336899</v>
       </c>
       <c r="C21">
-        <v>-0.67955937429284197</v>
+        <v>1.18661388568153</v>
       </c>
       <c r="D21">
-        <v>2.6231860401085001</v>
+        <v>1.4905604047858501</v>
       </c>
       <c r="E21">
-        <v>0.64780409111870396</v>
+        <v>0.72626943453828097</v>
       </c>
       <c r="F21">
-        <v>0.45050924525244501</v>
+        <v>0.60229571593223497</v>
       </c>
       <c r="G21">
-        <v>0.84509893698496297</v>
+        <v>0.85024315314432797</v>
       </c>
       <c r="H21">
-        <v>0.42292768467304398</v>
+        <v>0.66434345526814398</v>
       </c>
       <c r="I21">
-        <v>0.17700538827283099</v>
+        <v>0.57241278650108696</v>
       </c>
       <c r="J21">
-        <v>0.66884998107325699</v>
+        <v>0.7562741240352</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5535,31 +4188,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.61421749430418804</v>
+        <v>1.2900674148739499</v>
       </c>
       <c r="C22">
-        <v>0.174459741845538</v>
+        <v>1.08927177562408</v>
       </c>
       <c r="D22">
-        <v>1.05397524676284</v>
+        <v>1.4908630541238199</v>
       </c>
       <c r="E22">
-        <v>0.37334926660471501</v>
+        <v>0.78095798254931903</v>
       </c>
       <c r="F22">
-        <v>0.172156024110975</v>
+        <v>0.69082274642494901</v>
       </c>
       <c r="G22">
-        <v>0.57454250909845594</v>
+        <v>0.87109321867369005</v>
       </c>
       <c r="H22">
-        <v>0.37572700373955098</v>
+        <v>0.65812428996684802</v>
       </c>
       <c r="I22">
-        <v>0.21794089525945701</v>
+        <v>0.55991985477279205</v>
       </c>
       <c r="J22">
-        <v>0.53351311221964404</v>
+        <v>0.75632872516090499</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5567,31 +4220,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.04325444284183</v>
+        <v>1.23082885841641</v>
       </c>
       <c r="C23">
-        <v>0.16454483148381999</v>
+        <v>1.06395403950055</v>
       </c>
       <c r="D23">
-        <v>1.92196405419983</v>
+        <v>1.39770367733228</v>
       </c>
       <c r="E23">
-        <v>0.74947452710921203</v>
+        <v>0.66894475317202096</v>
       </c>
       <c r="F23">
-        <v>0.37767704966760901</v>
+        <v>0.58974272561534102</v>
       </c>
       <c r="G23">
-        <v>1.12127200455081</v>
+        <v>0.7481467807287</v>
       </c>
       <c r="H23">
-        <v>0.39759737138903201</v>
+        <v>0.59895653466306997</v>
       </c>
       <c r="I23">
-        <v>0.211390248731852</v>
+        <v>0.523086008508024</v>
       </c>
       <c r="J23">
-        <v>0.58380449404621104</v>
+        <v>0.67482706081811705</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5599,31 +4252,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.86114152478211703</v>
+        <v>1.1666738114103301</v>
       </c>
       <c r="C24">
-        <v>0.24982532866076901</v>
+        <v>0.96310746265753899</v>
       </c>
       <c r="D24">
-        <v>1.4724577209034699</v>
+        <v>1.37024016016312</v>
       </c>
       <c r="E24">
-        <v>0.63214002005527503</v>
+        <v>0.67734258850367401</v>
       </c>
       <c r="F24">
-        <v>0.23310314179983699</v>
+        <v>0.55866321000651997</v>
       </c>
       <c r="G24">
-        <v>1.0311768983107099</v>
+        <v>0.79602196700082795</v>
       </c>
       <c r="H24">
-        <v>0.63001324473929599</v>
+        <v>0.73263414869732602</v>
       </c>
       <c r="I24">
-        <v>0.49086233032865301</v>
+        <v>0.63349663326779604</v>
       </c>
       <c r="J24">
-        <v>0.76916415914993896</v>
+        <v>0.83177166412685599</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5631,31 +4284,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.69907368508280499</v>
+        <v>1.3576759493763</v>
       </c>
       <c r="C25">
-        <v>1.7097779299408099E-2</v>
+        <v>1.1089046784718499</v>
       </c>
       <c r="D25">
-        <v>1.3810495908661999</v>
+        <v>1.60644722028075</v>
       </c>
       <c r="E25">
-        <v>1.3948042843698101</v>
+        <v>0.84904801848272604</v>
       </c>
       <c r="F25">
-        <v>0.59982281545298899</v>
+        <v>0.74274035561789897</v>
       </c>
       <c r="G25">
-        <v>2.1897857532866398</v>
+        <v>0.955355681347553</v>
       </c>
       <c r="H25">
-        <v>0.637352252870938</v>
+        <v>0.68604727802323096</v>
       </c>
       <c r="I25">
-        <v>0.243221794313872</v>
+        <v>0.63739724714768198</v>
       </c>
       <c r="J25">
-        <v>1.0314827114280001</v>
+        <v>0.73469730889877904</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5663,31 +4316,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.77003965122440499</v>
+        <v>1.1786496309968499</v>
       </c>
       <c r="C26">
-        <v>0.51049865435213804</v>
+        <v>0.96760099657505305</v>
       </c>
       <c r="D26">
-        <v>1.02958064809667</v>
+        <v>1.3896982654186401</v>
       </c>
       <c r="E26">
-        <v>0.793234612481587</v>
+        <v>0.67677891927878198</v>
       </c>
       <c r="F26">
-        <v>0.52018844383716101</v>
+        <v>0.56578412331846795</v>
       </c>
       <c r="G26">
-        <v>1.06628078112601</v>
+        <v>0.78777371523909601</v>
       </c>
       <c r="H26">
-        <v>0.51968542360210801</v>
+        <v>0.56761357186136197</v>
       </c>
       <c r="I26">
-        <v>0.36368031665545902</v>
+        <v>0.47523104486053203</v>
       </c>
       <c r="J26">
-        <v>0.67569053054875605</v>
+        <v>0.65999609886219102</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5695,31 +4348,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.55748256473647695</v>
+        <v>1.52941256097302</v>
       </c>
       <c r="C27">
-        <v>-0.112853566506966</v>
+        <v>1.23054972578218</v>
       </c>
       <c r="D27">
-        <v>1.22781869597992</v>
+        <v>1.82827539616385</v>
       </c>
       <c r="E27">
-        <v>0.78892863262991297</v>
+        <v>0.73035679389721497</v>
       </c>
       <c r="F27">
-        <v>0.24321169461939801</v>
+        <v>0.63872306982177296</v>
       </c>
       <c r="G27">
-        <v>1.3346455706404301</v>
+        <v>0.82199051797265699</v>
       </c>
       <c r="H27">
-        <v>0.39426577169306598</v>
+        <v>0.63434022875205398</v>
       </c>
       <c r="I27">
-        <v>0.280867649206053</v>
+        <v>0.56847679469254198</v>
       </c>
       <c r="J27">
-        <v>0.50766389418007896</v>
+        <v>0.70020366281156499</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5728,19 +4381,19 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>1.0808652748591312</v>
+        <v>1.2915986556331043</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <f>AVERAGE(E3:E27)</f>
-        <v>0.657160799081002</v>
+        <v>0.75540234295809994</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <f>AVERAGE(H3:H27)</f>
-        <v>0.48180170050780258</v>
+        <v>0.61168805126066583</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -5751,19 +4404,19 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>0.4784109915023867</v>
+        <v>0.12505533029566687</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>STDEV(E3:E27)</f>
-        <v>0.23086578921556641</v>
+        <v>5.500023237501038E-2</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <f>STDEV(H3:H27)</f>
-        <v>0.11128044562984213</v>
+        <v>7.9034417874156479E-2</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -5794,19 +4447,19 @@
       </c>
       <c r="B31" s="1">
         <f>B30*B29/5</f>
-        <v>0.26762310864643513</v>
+        <v>6.9955951767396052E-2</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <f>E30*E29/5</f>
-        <v>0.12914632248718785</v>
+        <v>3.0767129990580809E-2</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
         <f>H30*H29/5</f>
-        <v>6.2250281285333685E-2</v>
+        <v>4.4211853358803135E-2</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>

--- a/data/summary/18_18_24.xlsx
+++ b/data/summary/18_18_24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="avg_plaquette" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,15 +120,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -163,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,7 +520,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -565,13 +556,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>0.80603100000000005</v>
+        <v>0.806002</v>
       </c>
       <c r="C3" s="3">
-        <v>0.82985399999999998</v>
+        <v>0.82964499999999997</v>
       </c>
       <c r="D3" s="3">
-        <v>0.83902200000000005</v>
+        <v>0.83850100000000005</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -579,13 +570,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>0.80598400000000003</v>
+        <v>0.80613599999999996</v>
       </c>
       <c r="C4" s="3">
-        <v>0.82916999999999996</v>
+        <v>0.82960500000000004</v>
       </c>
       <c r="D4" s="3">
-        <v>0.83884300000000001</v>
+        <v>0.83886899999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -593,13 +584,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.80615199999999998</v>
+        <v>0.80629600000000001</v>
       </c>
       <c r="C5" s="3">
-        <v>0.82981400000000005</v>
+        <v>0.82964099999999996</v>
       </c>
       <c r="D5" s="3">
-        <v>0.83869400000000005</v>
+        <v>0.83898399999999995</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -607,13 +598,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>0.80586599999999997</v>
+        <v>0.80599299999999996</v>
       </c>
       <c r="C6" s="3">
-        <v>0.82960699999999998</v>
+        <v>0.82981400000000005</v>
       </c>
       <c r="D6" s="3">
-        <v>0.83855100000000005</v>
+        <v>0.83842899999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -621,13 +612,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>0.80594699999999997</v>
+        <v>0.80603999999999998</v>
       </c>
       <c r="C7" s="3">
-        <v>0.82935899999999996</v>
+        <v>0.829928</v>
       </c>
       <c r="D7" s="3">
-        <v>0.83867499999999995</v>
+        <v>0.83882999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -635,13 +626,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>0.80603800000000003</v>
+        <v>0.80591599999999997</v>
       </c>
       <c r="C8" s="3">
-        <v>0.82971399999999995</v>
+        <v>0.82970699999999997</v>
       </c>
       <c r="D8" s="3">
-        <v>0.83863799999999999</v>
+        <v>0.83867899999999995</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -649,13 +640,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>0.80577200000000004</v>
+        <v>0.805898</v>
       </c>
       <c r="C9" s="3">
-        <v>0.82953399999999999</v>
+        <v>0.82960999999999996</v>
       </c>
       <c r="D9" s="3">
-        <v>0.83864799999999995</v>
+        <v>0.83890100000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -663,13 +654,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>0.80578799999999995</v>
+        <v>0.80579000000000001</v>
       </c>
       <c r="C10" s="3">
-        <v>0.82967999999999997</v>
+        <v>0.82926999999999995</v>
       </c>
       <c r="D10" s="3">
-        <v>0.83866200000000002</v>
+        <v>0.83859600000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -677,13 +668,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>0.80580200000000002</v>
+        <v>0.80601</v>
       </c>
       <c r="C11" s="3">
-        <v>0.82958500000000002</v>
+        <v>0.82937899999999998</v>
       </c>
       <c r="D11" s="3">
-        <v>0.83868799999999999</v>
+        <v>0.83875699999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -691,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>0.80583400000000005</v>
+        <v>0.806118</v>
       </c>
       <c r="C12" s="3">
-        <v>0.82938100000000003</v>
+        <v>0.82907699999999995</v>
       </c>
       <c r="D12" s="3">
-        <v>0.83854600000000001</v>
+        <v>0.83848299999999998</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -705,13 +696,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>0.80584</v>
+        <v>0.80565900000000001</v>
       </c>
       <c r="C13" s="3">
-        <v>0.82977900000000004</v>
+        <v>0.82944600000000002</v>
       </c>
       <c r="D13" s="3">
-        <v>0.83877400000000002</v>
+        <v>0.838673</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -719,13 +710,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>0.80569199999999996</v>
+        <v>0.80627899999999997</v>
       </c>
       <c r="C14" s="3">
-        <v>0.82924200000000003</v>
+        <v>0.82898400000000005</v>
       </c>
       <c r="D14" s="3">
-        <v>0.83898899999999998</v>
+        <v>0.83879899999999996</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -733,13 +724,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>0.805952</v>
+        <v>0.80579900000000004</v>
       </c>
       <c r="C15" s="3">
-        <v>0.82936299999999996</v>
+        <v>0.82964700000000002</v>
       </c>
       <c r="D15" s="3">
-        <v>0.83901099999999995</v>
+        <v>0.83893200000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -747,13 +738,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>0.805836</v>
+        <v>0.80637000000000003</v>
       </c>
       <c r="C16" s="3">
-        <v>0.82977800000000002</v>
+        <v>0.82964300000000002</v>
       </c>
       <c r="D16" s="3">
-        <v>0.83850800000000003</v>
+        <v>0.83899900000000005</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -761,13 +752,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>0.80595000000000006</v>
+        <v>0.806006</v>
       </c>
       <c r="C17" s="3">
-        <v>0.82949600000000001</v>
+        <v>0.82958900000000002</v>
       </c>
       <c r="D17" s="3">
-        <v>0.83865800000000001</v>
+        <v>0.83877800000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -775,13 +766,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>0.80612399999999995</v>
+        <v>0.80590499999999998</v>
       </c>
       <c r="C18" s="3">
-        <v>0.82962999999999998</v>
+        <v>0.82920300000000002</v>
       </c>
       <c r="D18" s="3">
-        <v>0.83891700000000002</v>
+        <v>0.83910099999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -789,13 +780,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>0.80596699999999999</v>
+        <v>0.80616500000000002</v>
       </c>
       <c r="C19" s="3">
-        <v>0.82969099999999996</v>
+        <v>0.82931299999999997</v>
       </c>
       <c r="D19" s="3">
-        <v>0.83894400000000002</v>
+        <v>0.83873299999999995</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -803,13 +794,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>0.80582100000000001</v>
+        <v>0.80615800000000004</v>
       </c>
       <c r="C20" s="3">
-        <v>0.82911199999999996</v>
+        <v>0.82961700000000005</v>
       </c>
       <c r="D20" s="3">
-        <v>0.838673</v>
+        <v>0.83862700000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -817,13 +808,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>0.80593099999999995</v>
+        <v>0.80569000000000002</v>
       </c>
       <c r="C21" s="3">
-        <v>0.82920300000000002</v>
+        <v>0.829426</v>
       </c>
       <c r="D21" s="3">
-        <v>0.83848699999999998</v>
+        <v>0.83841699999999997</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -831,13 +822,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>0.80569000000000002</v>
+        <v>0.80631600000000003</v>
       </c>
       <c r="C22" s="3">
-        <v>0.82942000000000005</v>
+        <v>0.829098</v>
       </c>
       <c r="D22" s="3">
-        <v>0.83826800000000001</v>
+        <v>0.83876799999999996</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -845,13 +836,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>0.80613000000000001</v>
+        <v>0.80575200000000002</v>
       </c>
       <c r="C23" s="3">
-        <v>0.82919600000000004</v>
+        <v>0.82983499999999999</v>
       </c>
       <c r="D23" s="3">
-        <v>0.83879000000000004</v>
+        <v>0.83878200000000003</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -859,13 +850,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>0.80604699999999996</v>
+        <v>0.80592900000000001</v>
       </c>
       <c r="C24" s="3">
-        <v>0.82933299999999999</v>
+        <v>0.82971399999999995</v>
       </c>
       <c r="D24" s="3">
-        <v>0.83870299999999998</v>
+        <v>0.83840099999999995</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -873,13 +864,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>0.80632499999999996</v>
+        <v>0.80609699999999995</v>
       </c>
       <c r="C25" s="3">
-        <v>0.82955999999999996</v>
+        <v>0.82908599999999999</v>
       </c>
       <c r="D25" s="3">
-        <v>0.83873500000000001</v>
+        <v>0.83867000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -887,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>0.80587600000000004</v>
+        <v>0.80585899999999999</v>
       </c>
       <c r="C26" s="3">
-        <v>0.82958900000000002</v>
+        <v>0.82959799999999995</v>
       </c>
       <c r="D26" s="3">
-        <v>0.83875500000000003</v>
+        <v>0.83876899999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -901,13 +892,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>0.80604600000000004</v>
+        <v>0.80561199999999999</v>
       </c>
       <c r="C27" s="3">
-        <v>0.82931600000000005</v>
+        <v>0.82945800000000003</v>
       </c>
       <c r="D27" s="3">
-        <v>0.83867400000000003</v>
+        <v>0.83876700000000004</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -916,15 +907,15 @@
       </c>
       <c r="B28" s="1">
         <f>AVERAGE(B3:B27)</f>
-        <v>0.8059376399999999</v>
+        <v>0.80599179999999992</v>
       </c>
       <c r="C28" s="1">
         <f>AVERAGE(C3:C27)</f>
-        <v>0.82949623999999988</v>
+        <v>0.82949331999999998</v>
       </c>
       <c r="D28" s="1">
         <f>AVERAGE(D3:D27)</f>
-        <v>0.83871412000000012</v>
+        <v>0.83872979999999997</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -933,15 +924,15 @@
       </c>
       <c r="B29" s="1">
         <f>STDEV(B3:B27)</f>
-        <v>1.5230941095895862E-4</v>
+        <v>2.0982889854990534E-4</v>
       </c>
       <c r="C29" s="1">
         <f>STDEV(C3:C27)</f>
-        <v>2.2072008668597902E-4</v>
+        <v>2.5802918439587406E-4</v>
       </c>
       <c r="D29" s="1">
         <f>STDEV(D3:D27)</f>
-        <v>1.768462891892268E-4</v>
+        <v>1.8674849396983434E-4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -964,15 +955,15 @@
       </c>
       <c r="B31" s="1">
         <f xml:space="preserve"> B30*B29/5</f>
-        <v>8.5201884490441446E-5</v>
+        <v>1.1737828584881704E-4</v>
       </c>
       <c r="C31" s="1">
         <f xml:space="preserve"> C30*C29/5</f>
-        <v>1.2347081649213666E-4</v>
+        <v>1.4434152575105197E-4</v>
       </c>
       <c r="D31" s="1">
         <f xml:space="preserve"> D30*D29/5</f>
-        <v>9.8927814172453479E-5</v>
+        <v>1.0446710752672534E-4</v>
       </c>
     </row>
   </sheetData>
@@ -993,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1963,7 +1954,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3516,7 +3507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
